--- a/data/Camp RIO groups 21-22.xlsx
+++ b/data/Camp RIO groups 21-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/aline_orr_ideapublicschools_org/Documents/Documents/Github/Camp_Rio/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/steven_macapagal_ideapublicschools_org/Documents/Documents/GitHub/Camp-Rio-Year-3-21-22-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{64EBCC02-F86A-4E41-8688-736987AA5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA65096-5380-4C29-BF0D-732503E86CC2}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{64EBCC02-F86A-4E41-8688-736987AA5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BE6686-967F-4E8D-B75C-1B333F3DD4D8}"/>
   <bookViews>
-    <workbookView xWindow="-18809" yWindow="-9083" windowWidth="14699" windowHeight="17202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2022" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="86">
   <si>
     <t>Color Code</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Spears</t>
-  </si>
-  <si>
-    <t>Edingurg</t>
   </si>
 </sst>
 </file>
@@ -1011,19 +1008,19 @@
   <dimension ref="A1:L1274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="69" customWidth="1"/>
-    <col min="4" max="16384" width="14.3984375" style="28"/>
+    <col min="1" max="1" width="17.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>44499</v>
       </c>
@@ -1059,7 +1056,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>44508</v>
       </c>
@@ -1081,7 +1078,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>44469</v>
       </c>
@@ -1103,7 +1100,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>44454</v>
       </c>
@@ -1125,7 +1122,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>44530</v>
       </c>
@@ -1147,7 +1144,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>44517</v>
       </c>
@@ -1169,7 +1166,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>44613</v>
       </c>
@@ -1191,7 +1188,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>44609</v>
       </c>
@@ -1213,7 +1210,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>44461</v>
       </c>
@@ -1235,7 +1232,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>44463</v>
       </c>
@@ -1257,7 +1254,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>44545</v>
       </c>
@@ -1279,7 +1276,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="31.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>44483</v>
       </c>
@@ -1301,7 +1298,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>44533</v>
       </c>
@@ -1323,7 +1320,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>44539</v>
       </c>
@@ -1345,7 +1342,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>44599</v>
       </c>
@@ -1365,7 +1362,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>44600</v>
       </c>
@@ -1385,7 +1382,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>44601</v>
       </c>
@@ -1405,7 +1402,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>44603</v>
       </c>
@@ -1427,7 +1424,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>44602</v>
       </c>
@@ -1447,7 +1444,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>44621</v>
       </c>
@@ -1469,7 +1466,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>44622</v>
       </c>
@@ -1491,7 +1488,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>44546</v>
       </c>
@@ -1513,7 +1510,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>44546</v>
       </c>
@@ -1535,7 +1532,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>44616</v>
       </c>
@@ -1557,7 +1554,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>44474</v>
       </c>
@@ -1579,7 +1576,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>44497</v>
       </c>
@@ -1601,7 +1598,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>44481</v>
       </c>
@@ -1623,7 +1620,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>44501</v>
       </c>
@@ -1645,7 +1642,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>44488</v>
       </c>
@@ -1667,7 +1664,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>44489</v>
       </c>
@@ -1689,7 +1686,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>44475</v>
       </c>
@@ -1711,7 +1708,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>44490</v>
       </c>
@@ -1733,7 +1730,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>44476</v>
       </c>
@@ -1755,7 +1752,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>44546</v>
       </c>
@@ -1775,7 +1772,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>44600</v>
       </c>
@@ -1795,7 +1792,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>44601</v>
       </c>
@@ -1815,7 +1812,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>44603</v>
       </c>
@@ -1837,7 +1834,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>44603</v>
       </c>
@@ -1857,7 +1854,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>44627</v>
       </c>
@@ -1879,7 +1876,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>44602</v>
       </c>
@@ -1901,7 +1898,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>44596</v>
       </c>
@@ -1923,7 +1920,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>44610</v>
       </c>
@@ -1945,7 +1942,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44566</v>
       </c>
@@ -1967,7 +1964,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44565</v>
       </c>
@@ -1989,7 +1986,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>44460</v>
       </c>
@@ -2011,7 +2008,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44505</v>
       </c>
@@ -2033,7 +2030,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44455</v>
       </c>
@@ -2047,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>44454</v>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>44461</v>
       </c>
@@ -2091,7 +2088,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>44468</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>44487</v>
       </c>
@@ -2133,7 +2130,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>44606</v>
       </c>
@@ -2155,7 +2152,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>44615</v>
       </c>
@@ -2177,7 +2174,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>44453</v>
       </c>
@@ -2199,7 +2196,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>44453</v>
       </c>
@@ -2221,7 +2218,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>44456</v>
       </c>
@@ -2243,7 +2240,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>44463</v>
       </c>
@@ -2265,7 +2262,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>44579</v>
       </c>
@@ -2287,7 +2284,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>44607</v>
       </c>
@@ -2309,7 +2306,7 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>44620</v>
       </c>
@@ -2331,7 +2328,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>44621</v>
       </c>
@@ -2353,7 +2350,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>44622</v>
       </c>
@@ -2375,7 +2372,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>44623</v>
       </c>
@@ -2397,7 +2394,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>44616</v>
       </c>
@@ -2419,7 +2416,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>44575</v>
       </c>
@@ -2441,7 +2438,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>44594</v>
       </c>
@@ -2463,7 +2460,7 @@
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>44579</v>
       </c>
@@ -2485,7 +2482,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>44599</v>
       </c>
@@ -2507,7 +2504,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>44573</v>
       </c>
@@ -2527,7 +2524,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>44545</v>
       </c>
@@ -2547,7 +2544,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>44544</v>
       </c>
@@ -2567,7 +2564,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <v>44543</v>
       </c>
@@ -2589,7 +2586,7 @@
       <c r="K73" s="30"/>
       <c r="L73" s="30"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <v>44532</v>
       </c>
@@ -2611,7 +2608,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="46">
         <v>44587</v>
       </c>
@@ -2633,7 +2630,7 @@
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>44470</v>
       </c>
@@ -2655,7 +2652,7 @@
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>44488</v>
       </c>
@@ -2677,7 +2674,7 @@
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <v>44459</v>
       </c>
@@ -2699,7 +2696,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>44498</v>
       </c>
@@ -2721,7 +2718,7 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>44474</v>
       </c>
@@ -2743,7 +2740,7 @@
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>44620</v>
       </c>
@@ -2765,7 +2762,7 @@
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>44462</v>
       </c>
@@ -2787,7 +2784,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>44572</v>
       </c>
@@ -2809,7 +2806,7 @@
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>44494</v>
       </c>
@@ -2831,7 +2828,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>44505</v>
       </c>
@@ -2851,7 +2848,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>44483</v>
       </c>
@@ -2873,7 +2870,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>44580</v>
       </c>
@@ -2895,7 +2892,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>44615</v>
       </c>
@@ -2917,7 +2914,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>44573</v>
       </c>
@@ -2939,7 +2936,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>44512</v>
       </c>
@@ -2961,7 +2958,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>44455</v>
       </c>
@@ -2983,7 +2980,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>44531</v>
       </c>
@@ -3005,7 +3002,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="1:12" ht="40.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>44540</v>
       </c>
@@ -3027,7 +3024,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
     </row>
-    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>44536</v>
       </c>
@@ -3049,7 +3046,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>44484</v>
       </c>
@@ -3071,7 +3068,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>44467</v>
       </c>
@@ -3091,7 +3088,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
     </row>
-    <row r="97" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>44491</v>
       </c>
@@ -3113,7 +3110,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>44596</v>
       </c>
@@ -3135,7 +3132,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
     </row>
-    <row r="99" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>44574</v>
       </c>
@@ -3157,7 +3154,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
     </row>
-    <row r="100" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>44575</v>
       </c>
@@ -3179,7 +3176,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
     </row>
-    <row r="101" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>44538</v>
       </c>
@@ -3201,7 +3198,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
     </row>
-    <row r="102" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>44206</v>
       </c>
@@ -3223,7 +3220,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
     </row>
-    <row r="103" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>44572</v>
       </c>
@@ -3245,7 +3242,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>44537</v>
       </c>
@@ -3267,7 +3264,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>44539</v>
       </c>
@@ -3289,7 +3286,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
-    <row r="106" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>44567</v>
       </c>
@@ -3311,7 +3308,7 @@
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>44501</v>
       </c>
@@ -3333,7 +3330,7 @@
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
-    <row r="108" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>44496</v>
       </c>
@@ -3355,7 +3352,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
-    <row r="109" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>44536</v>
       </c>
@@ -3377,7 +3374,7 @@
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>44627</v>
       </c>
@@ -3397,7 +3394,7 @@
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>44475</v>
       </c>
@@ -3419,7 +3416,7 @@
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
     </row>
-    <row r="112" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <v>44624</v>
       </c>
@@ -3441,7 +3438,7 @@
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
     </row>
-    <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>44547</v>
       </c>
@@ -3463,7 +3460,7 @@
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>44547</v>
       </c>
@@ -3485,7 +3482,7 @@
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>44594</v>
       </c>
@@ -3507,7 +3504,7 @@
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
     </row>
-    <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>44608</v>
       </c>
@@ -3529,7 +3526,7 @@
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
     </row>
-    <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>44607</v>
       </c>
@@ -3551,7 +3548,7 @@
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
     </row>
-    <row r="118" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>44456</v>
       </c>
@@ -3573,7 +3570,7 @@
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
     </row>
-    <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>44613</v>
       </c>
@@ -3595,7 +3592,7 @@
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
     </row>
-    <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <v>44469</v>
       </c>
@@ -3617,7 +3614,7 @@
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
     </row>
-    <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>44503</v>
       </c>
@@ -3639,7 +3636,7 @@
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <v>44460</v>
       </c>
@@ -3661,7 +3658,7 @@
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
     </row>
-    <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>44606</v>
       </c>
@@ -3683,7 +3680,7 @@
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>44530</v>
       </c>
@@ -3705,7 +3702,7 @@
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>71</v>
       </c>
@@ -3727,7 +3724,7 @@
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>44497</v>
       </c>
@@ -3749,7 +3746,7 @@
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>44498</v>
       </c>
@@ -3771,7 +3768,7 @@
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>44515</v>
       </c>
@@ -3791,7 +3788,7 @@
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>44512</v>
       </c>
@@ -3811,7 +3808,7 @@
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>44529</v>
       </c>
@@ -3831,7 +3828,7 @@
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="48">
         <v>44592</v>
       </c>
@@ -3853,7 +3850,7 @@
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="48">
         <v>44593</v>
       </c>
@@ -3875,7 +3872,7 @@
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
     </row>
-    <row r="133" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="48">
         <v>44593</v>
       </c>
@@ -3897,7 +3894,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
     </row>
-    <row r="134" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>44532</v>
       </c>
@@ -3919,7 +3916,7 @@
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
     </row>
-    <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>44529</v>
       </c>
@@ -3941,7 +3938,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="15"/>
     </row>
-    <row r="136" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>44531</v>
       </c>
@@ -3963,7 +3960,7 @@
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
     </row>
-    <row r="137" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>44466</v>
       </c>
@@ -3985,7 +3982,7 @@
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
     </row>
-    <row r="138" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>44473</v>
       </c>
@@ -4007,7 +4004,7 @@
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>
     </row>
-    <row r="139" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>44540</v>
       </c>
@@ -4029,7 +4026,7 @@
       <c r="K139" s="15"/>
       <c r="L139" s="15"/>
     </row>
-    <row r="140" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>44519</v>
       </c>
@@ -4051,7 +4048,7 @@
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
     </row>
-    <row r="141" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>44495</v>
       </c>
@@ -4073,7 +4070,7 @@
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
     </row>
-    <row r="142" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>44462</v>
       </c>
@@ -4095,7 +4092,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
     </row>
-    <row r="143" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>44544</v>
       </c>
@@ -4117,7 +4114,7 @@
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
     </row>
-    <row r="144" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>44502</v>
       </c>
@@ -4139,7 +4136,7 @@
       <c r="K144" s="15"/>
       <c r="L144" s="15"/>
     </row>
-    <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>44614</v>
       </c>
@@ -4161,7 +4158,7 @@
       <c r="K145" s="15"/>
       <c r="L145" s="15"/>
     </row>
-    <row r="146" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>44519</v>
       </c>
@@ -4183,7 +4180,7 @@
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
     </row>
-    <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>44503</v>
       </c>
@@ -4205,7 +4202,7 @@
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
     </row>
-    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
         <v>44504</v>
       </c>
@@ -4227,7 +4224,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
     </row>
-    <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <v>44508</v>
       </c>
@@ -4249,7 +4246,7 @@
       <c r="K149" s="15"/>
       <c r="L149" s="15"/>
     </row>
-    <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <v>44509</v>
       </c>
@@ -4271,7 +4268,7 @@
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
     </row>
-    <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="36">
         <v>44510</v>
       </c>
@@ -4293,7 +4290,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
     </row>
-    <row r="152" spans="1:12" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
         <v>44511</v>
       </c>
@@ -4315,7 +4312,7 @@
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
     </row>
-    <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
         <v>44502</v>
       </c>
@@ -4337,7 +4334,7 @@
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
     </row>
-    <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>44491</v>
       </c>
@@ -4359,7 +4356,7 @@
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
     </row>
-    <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>44470</v>
       </c>
@@ -4381,7 +4378,7 @@
       <c r="K155" s="15"/>
       <c r="L155" s="15"/>
     </row>
-    <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>44509</v>
       </c>
@@ -4403,7 +4400,7 @@
       <c r="K156" s="15"/>
       <c r="L156" s="15"/>
     </row>
-    <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>44510</v>
       </c>
@@ -4423,7 +4420,7 @@
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
     </row>
-    <row r="158" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>44511</v>
       </c>
@@ -4445,7 +4442,7 @@
       <c r="K158" s="15"/>
       <c r="L158" s="15"/>
     </row>
-    <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
         <v>44581</v>
       </c>
@@ -4467,7 +4464,7 @@
       <c r="K159" s="15"/>
       <c r="L159" s="15"/>
     </row>
-    <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="16">
         <v>44571</v>
       </c>
@@ -4489,7 +4486,7 @@
       <c r="K160" s="15"/>
       <c r="L160" s="15"/>
     </row>
-    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="16">
         <v>44571</v>
       </c>
@@ -4511,7 +4508,7 @@
       <c r="K161" s="15"/>
       <c r="L161" s="15"/>
     </row>
-    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <v>44516</v>
       </c>
@@ -4533,7 +4530,7 @@
       <c r="K162" s="15"/>
       <c r="L162" s="15"/>
     </row>
-    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="51">
         <v>44518</v>
       </c>
@@ -4555,7 +4552,7 @@
       <c r="K163" s="15"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>44515</v>
       </c>
@@ -4577,7 +4574,7 @@
       <c r="K164" s="15"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>44494</v>
       </c>
@@ -4599,7 +4596,7 @@
       <c r="K165" s="15"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <v>44473</v>
       </c>
@@ -4621,7 +4618,7 @@
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <v>44468</v>
       </c>
@@ -4643,7 +4640,7 @@
       <c r="K167" s="15"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="16">
         <v>44484</v>
       </c>
@@ -4665,7 +4662,7 @@
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <v>44467</v>
       </c>
@@ -4687,7 +4684,7 @@
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="16">
         <v>44490</v>
       </c>
@@ -4709,7 +4706,7 @@
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>44487</v>
       </c>
@@ -4731,7 +4728,7 @@
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <v>44496</v>
       </c>
@@ -4753,7 +4750,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
     </row>
-    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="16">
         <v>44495</v>
       </c>
@@ -4775,7 +4772,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
     </row>
-    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="16">
         <v>44517</v>
       </c>
@@ -4797,7 +4794,7 @@
       <c r="K174" s="15"/>
       <c r="L174" s="15"/>
     </row>
-    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>44504</v>
       </c>
@@ -4819,7 +4816,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
     </row>
-    <row r="176" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>44516</v>
       </c>
@@ -4841,7 +4838,7 @@
       <c r="K176" s="15"/>
       <c r="L176" s="15"/>
     </row>
-    <row r="177" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="51">
         <v>44518</v>
       </c>
@@ -4855,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="16">
         <v>44476</v>
       </c>
@@ -4877,7 +4874,7 @@
       <c r="K178" s="29"/>
       <c r="L178" s="29"/>
     </row>
-    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>44609</v>
       </c>
@@ -4897,7 +4894,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
     </row>
-    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="16">
         <v>44586</v>
       </c>
@@ -4917,7 +4914,7 @@
       <c r="K180" s="15"/>
       <c r="L180" s="15"/>
     </row>
-    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="16">
         <v>44587</v>
       </c>
@@ -4939,7 +4936,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>44608</v>
       </c>
@@ -4961,7 +4958,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
     </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="48">
         <v>44592</v>
       </c>
@@ -4983,7 +4980,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
     </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>44593</v>
       </c>
@@ -5005,7 +5002,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="15"/>
     </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>44574</v>
       </c>
@@ -5025,7 +5022,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
     </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>44466</v>
       </c>
@@ -5045,7 +5042,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="15"/>
     </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="16">
         <v>44459</v>
       </c>
@@ -5065,7 +5062,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
     </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>44489</v>
       </c>
@@ -5085,7 +5082,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="15"/>
     </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="16">
         <v>44586</v>
       </c>
@@ -5107,7 +5104,7 @@
       <c r="K189" s="29"/>
       <c r="L189" s="29"/>
     </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>44677</v>
       </c>
@@ -5129,7 +5126,7 @@
       <c r="K190" s="15"/>
       <c r="L190" s="15"/>
     </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>44678</v>
       </c>
@@ -5151,7 +5148,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>44684</v>
       </c>
@@ -5173,7 +5170,7 @@
       <c r="K192" s="15"/>
       <c r="L192" s="15"/>
     </row>
-    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="16">
         <v>44685</v>
       </c>
@@ -5195,7 +5192,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="15"/>
     </row>
-    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>44693</v>
       </c>
@@ -5217,7 +5214,7 @@
       <c r="K194" s="15"/>
       <c r="L194" s="15"/>
     </row>
-    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>44698</v>
       </c>
@@ -5239,7 +5236,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="15"/>
     </row>
-    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="16">
         <v>44699</v>
       </c>
@@ -5261,12 +5258,12 @@
       <c r="K196" s="15"/>
       <c r="L196" s="15"/>
     </row>
-    <row r="197" spans="1:12" s="74" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="71">
         <v>44701</v>
       </c>
       <c r="B197" s="72" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C197" s="73">
         <v>6</v>
@@ -5275,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="20"/>
       <c r="C198" s="27"/>
@@ -5289,7 +5286,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="15"/>
     </row>
-    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="25"/>
@@ -5303,7 +5300,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
     </row>
-    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="14"/>
       <c r="C200" s="25"/>
@@ -5317,7 +5314,7 @@
       <c r="K200" s="15"/>
       <c r="L200" s="15"/>
     </row>
-    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="25"/>
@@ -5331,7 +5328,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
     </row>
-    <row r="202" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="25"/>
@@ -5345,7 +5342,7 @@
       <c r="K202" s="15"/>
       <c r="L202" s="15"/>
     </row>
-    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="25"/>
@@ -5359,7 +5356,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="21"/>
       <c r="B204" s="14"/>
       <c r="C204" s="25"/>
@@ -5373,7 +5370,7 @@
       <c r="K204" s="15"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="21"/>
       <c r="B205" s="14"/>
       <c r="C205" s="25"/>
@@ -5387,7 +5384,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="21"/>
       <c r="B206" s="14"/>
       <c r="C206" s="25"/>
@@ -5401,7 +5398,7 @@
       <c r="K206" s="15"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="14"/>
       <c r="C207" s="25"/>
@@ -5415,7 +5412,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="14"/>
       <c r="C208" s="25"/>
@@ -5429,7 +5426,7 @@
       <c r="K208" s="15"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>
       <c r="B209" s="14"/>
       <c r="C209" s="25"/>
@@ -5443,7 +5440,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="21"/>
       <c r="B210" s="14"/>
       <c r="C210" s="25"/>
@@ -5457,7 +5454,7 @@
       <c r="K210" s="15"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="21"/>
       <c r="B211" s="14"/>
       <c r="C211" s="25"/>
@@ -5471,7 +5468,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="21"/>
       <c r="B212" s="14"/>
       <c r="C212" s="25"/>
@@ -5485,7 +5482,7 @@
       <c r="K212" s="15"/>
       <c r="L212" s="15"/>
     </row>
-    <row r="213" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="21"/>
       <c r="B213" s="14"/>
       <c r="C213" s="25"/>
@@ -5499,7 +5496,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
     </row>
-    <row r="214" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="14"/>
       <c r="C214" s="25"/>
@@ -5513,7 +5510,7 @@
       <c r="K214" s="15"/>
       <c r="L214" s="15"/>
     </row>
-    <row r="215" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="14"/>
       <c r="C215" s="25"/>
@@ -5527,7 +5524,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
     </row>
-    <row r="216" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="14"/>
       <c r="C216" s="25"/>
@@ -5541,7 +5538,7 @@
       <c r="K216" s="15"/>
       <c r="L216" s="15"/>
     </row>
-    <row r="217" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="14"/>
       <c r="C217" s="25"/>
@@ -5555,7 +5552,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
     </row>
-    <row r="218" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="14"/>
       <c r="C218" s="25"/>
@@ -5569,7 +5566,7 @@
       <c r="K218" s="15"/>
       <c r="L218" s="15"/>
     </row>
-    <row r="219" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="21"/>
       <c r="B219" s="14"/>
       <c r="C219" s="25"/>
@@ -5583,7 +5580,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
     </row>
-    <row r="220" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="21"/>
       <c r="B220" s="14"/>
       <c r="C220" s="25"/>
@@ -5597,7 +5594,7 @@
       <c r="K220" s="15"/>
       <c r="L220" s="15"/>
     </row>
-    <row r="221" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="14"/>
       <c r="C221" s="25"/>
@@ -5611,7 +5608,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
     </row>
-    <row r="222" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="14"/>
       <c r="C222" s="25"/>
@@ -5625,7 +5622,7 @@
       <c r="K222" s="15"/>
       <c r="L222" s="15"/>
     </row>
-    <row r="223" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="16"/>
       <c r="B223" s="14"/>
       <c r="C223" s="25"/>
@@ -5639,7 +5636,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
     </row>
-    <row r="224" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="14"/>
       <c r="C224" s="25"/>
@@ -5653,7 +5650,7 @@
       <c r="K224" s="15"/>
       <c r="L224" s="15"/>
     </row>
-    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="16"/>
       <c r="B225" s="14"/>
       <c r="C225" s="25"/>
@@ -5667,7 +5664,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
     </row>
-    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="16"/>
       <c r="B226" s="14"/>
       <c r="C226" s="25"/>
@@ -5681,7 +5678,7 @@
       <c r="K226" s="15"/>
       <c r="L226" s="15"/>
     </row>
-    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="14"/>
       <c r="C227" s="25"/>
@@ -5695,7 +5692,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
     </row>
-    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="14"/>
       <c r="C228" s="25"/>
@@ -5709,7 +5706,7 @@
       <c r="K228" s="15"/>
       <c r="L228" s="15"/>
     </row>
-    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="25"/>
@@ -5723,7 +5720,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
     </row>
-    <row r="230" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="25"/>
@@ -5737,7 +5734,7 @@
       <c r="K230" s="15"/>
       <c r="L230" s="15"/>
     </row>
-    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="16"/>
       <c r="B231" s="14"/>
       <c r="C231" s="25"/>
@@ -5751,7 +5748,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
     </row>
-    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="16"/>
       <c r="B232" s="14"/>
       <c r="C232" s="25"/>
@@ -5765,7 +5762,7 @@
       <c r="K232" s="15"/>
       <c r="L232" s="15"/>
     </row>
-    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="16"/>
       <c r="B233" s="14"/>
       <c r="C233" s="25"/>
@@ -5779,7 +5776,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
     </row>
-    <row r="234" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
       <c r="B234" s="14"/>
       <c r="C234" s="25"/>
@@ -5793,7 +5790,7 @@
       <c r="K234" s="15"/>
       <c r="L234" s="15"/>
     </row>
-    <row r="235" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="25"/>
@@ -5807,7 +5804,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
     </row>
-    <row r="236" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="25"/>
@@ -5821,7 +5818,7 @@
       <c r="K236" s="15"/>
       <c r="L236" s="15"/>
     </row>
-    <row r="237" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21"/>
       <c r="B237" s="14"/>
       <c r="C237" s="25"/>
@@ -5835,7 +5832,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
     </row>
-    <row r="238" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="21"/>
       <c r="B238" s="14"/>
       <c r="C238" s="25"/>
@@ -5849,7 +5846,7 @@
       <c r="K238" s="15"/>
       <c r="L238" s="15"/>
     </row>
-    <row r="239" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="21"/>
       <c r="B239" s="14"/>
       <c r="C239" s="25"/>
@@ -5863,7 +5860,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
     </row>
-    <row r="240" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="21"/>
       <c r="B240" s="14"/>
       <c r="C240" s="25"/>
@@ -5877,7 +5874,7 @@
       <c r="K240" s="15"/>
       <c r="L240" s="15"/>
     </row>
-    <row r="241" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="14"/>
       <c r="C241" s="25"/>
@@ -5891,7 +5888,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
     </row>
-    <row r="242" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="14"/>
       <c r="C242" s="25"/>
@@ -5905,7 +5902,7 @@
       <c r="K242" s="15"/>
       <c r="L242" s="15"/>
     </row>
-    <row r="243" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="16"/>
       <c r="B243" s="14"/>
       <c r="C243" s="25"/>
@@ -5919,7 +5916,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
       <c r="B244" s="14"/>
       <c r="C244" s="25"/>
@@ -5933,7 +5930,7 @@
       <c r="K244" s="15"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="14"/>
       <c r="C245" s="25"/>
@@ -5947,7 +5944,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="16"/>
       <c r="B246" s="14"/>
       <c r="C246" s="25"/>
@@ -5961,7 +5958,7 @@
       <c r="K246" s="15"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="16"/>
       <c r="B247" s="14"/>
       <c r="C247" s="25"/>
@@ -5975,7 +5972,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="16"/>
       <c r="B248" s="14"/>
       <c r="C248" s="25"/>
@@ -5989,7 +5986,7 @@
       <c r="K248" s="15"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="16"/>
       <c r="B249" s="14"/>
       <c r="C249" s="25"/>
@@ -6003,7 +6000,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="16"/>
       <c r="B250" s="14"/>
       <c r="C250" s="25"/>
@@ -6017,7 +6014,7 @@
       <c r="K250" s="15"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="16"/>
       <c r="B251" s="14"/>
       <c r="C251" s="25"/>
@@ -6031,7 +6028,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="16"/>
       <c r="B252" s="14"/>
       <c r="C252" s="25"/>
@@ -6045,7 +6042,7 @@
       <c r="K252" s="15"/>
       <c r="L252" s="15"/>
     </row>
-    <row r="253" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="16"/>
       <c r="B253" s="14"/>
       <c r="C253" s="25"/>
@@ -6059,7 +6056,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
     </row>
-    <row r="254" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>
       <c r="B254" s="14"/>
       <c r="C254" s="25"/>
@@ -6073,7 +6070,7 @@
       <c r="K254" s="15"/>
       <c r="L254" s="15"/>
     </row>
-    <row r="255" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16"/>
       <c r="B255" s="14"/>
       <c r="C255" s="25"/>
@@ -6087,7 +6084,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
     </row>
-    <row r="256" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="25"/>
@@ -6101,7 +6098,7 @@
       <c r="K256" s="15"/>
       <c r="L256" s="15"/>
     </row>
-    <row r="257" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
       <c r="C257" s="25"/>
@@ -6115,7 +6112,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
     </row>
-    <row r="258" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="16"/>
       <c r="B258" s="14"/>
       <c r="C258" s="25"/>
@@ -6129,7 +6126,7 @@
       <c r="K258" s="22"/>
       <c r="L258" s="22"/>
     </row>
-    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="14"/>
       <c r="C259" s="25"/>
@@ -6143,7 +6140,7 @@
       <c r="K259" s="22"/>
       <c r="L259" s="22"/>
     </row>
-    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="25"/>
@@ -6157,7 +6154,7 @@
       <c r="K260" s="22"/>
       <c r="L260" s="22"/>
     </row>
-    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="14"/>
       <c r="C261" s="25"/>
@@ -6171,7 +6168,7 @@
       <c r="K261" s="22"/>
       <c r="L261" s="22"/>
     </row>
-    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="14"/>
       <c r="C262" s="25"/>
@@ -6185,7 +6182,7 @@
       <c r="K262" s="22"/>
       <c r="L262" s="22"/>
     </row>
-    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="16"/>
       <c r="B263" s="14"/>
       <c r="C263" s="25"/>
@@ -6199,7 +6196,7 @@
       <c r="K263" s="22"/>
       <c r="L263" s="22"/>
     </row>
-    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="16"/>
       <c r="B264" s="14"/>
       <c r="C264" s="25"/>
@@ -6213,7 +6210,7 @@
       <c r="K264" s="22"/>
       <c r="L264" s="22"/>
     </row>
-    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="16"/>
       <c r="B265" s="14"/>
       <c r="C265" s="25"/>
@@ -6227,7 +6224,7 @@
       <c r="K265" s="22"/>
       <c r="L265" s="22"/>
     </row>
-    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="16"/>
       <c r="B266" s="14"/>
       <c r="C266" s="25"/>
@@ -6241,7 +6238,7 @@
       <c r="K266" s="22"/>
       <c r="L266" s="22"/>
     </row>
-    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="16"/>
       <c r="B267" s="14"/>
       <c r="C267" s="25"/>
@@ -6255,7 +6252,7 @@
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
     </row>
-    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="16"/>
       <c r="B268" s="14"/>
       <c r="C268" s="25"/>
@@ -6269,7 +6266,7 @@
       <c r="K268" s="15"/>
       <c r="L268" s="15"/>
     </row>
-    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="25"/>
@@ -6283,7 +6280,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
     </row>
-    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="25"/>
@@ -6297,7 +6294,7 @@
       <c r="K270" s="15"/>
       <c r="L270" s="15"/>
     </row>
-    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="25"/>
@@ -6311,7 +6308,7 @@
       <c r="K271" s="15"/>
       <c r="L271" s="15"/>
     </row>
-    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="25"/>
@@ -6325,7 +6322,7 @@
       <c r="K272" s="15"/>
       <c r="L272" s="15"/>
     </row>
-    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="25"/>
@@ -6339,7 +6336,7 @@
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
     </row>
-    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="16"/>
       <c r="B274" s="14"/>
       <c r="C274" s="25"/>
@@ -6353,7 +6350,7 @@
       <c r="K274" s="15"/>
       <c r="L274" s="15"/>
     </row>
-    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="16"/>
       <c r="B275" s="14"/>
       <c r="C275" s="25"/>
@@ -6367,7 +6364,7 @@
       <c r="K275" s="15"/>
       <c r="L275" s="15"/>
     </row>
-    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="16"/>
       <c r="B276" s="14"/>
       <c r="C276" s="25"/>
@@ -6381,7 +6378,7 @@
       <c r="K276" s="15"/>
       <c r="L276" s="15"/>
     </row>
-    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="16"/>
       <c r="B277" s="14"/>
       <c r="C277" s="25"/>
@@ -6395,7 +6392,7 @@
       <c r="K277" s="15"/>
       <c r="L277" s="15"/>
     </row>
-    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="16"/>
       <c r="B278" s="14"/>
       <c r="C278" s="25"/>
@@ -6409,7 +6406,7 @@
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
     </row>
-    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="25"/>
@@ -6423,7 +6420,7 @@
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
     </row>
-    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="16"/>
       <c r="B280" s="14"/>
       <c r="C280" s="25"/>
@@ -6437,7 +6434,7 @@
       <c r="K280" s="15"/>
       <c r="L280" s="15"/>
     </row>
-    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="16"/>
       <c r="B281" s="14"/>
       <c r="C281" s="25"/>
@@ -6451,7 +6448,7 @@
       <c r="K281" s="15"/>
       <c r="L281" s="15"/>
     </row>
-    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="16"/>
       <c r="B282" s="14"/>
       <c r="C282" s="25"/>
@@ -6465,7 +6462,7 @@
       <c r="K282" s="15"/>
       <c r="L282" s="15"/>
     </row>
-    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="16"/>
       <c r="B283" s="14"/>
       <c r="C283" s="25"/>
@@ -6479,7 +6476,7 @@
       <c r="K283" s="15"/>
       <c r="L283" s="15"/>
     </row>
-    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="16"/>
       <c r="B284" s="14"/>
       <c r="C284" s="25"/>
@@ -6493,7 +6490,7 @@
       <c r="K284" s="15"/>
       <c r="L284" s="15"/>
     </row>
-    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="16"/>
       <c r="B285" s="14"/>
       <c r="C285" s="25"/>
@@ -6507,7 +6504,7 @@
       <c r="K285" s="15"/>
       <c r="L285" s="15"/>
     </row>
-    <row r="286" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="16"/>
       <c r="B286" s="14"/>
       <c r="C286" s="25"/>
@@ -6521,7 +6518,7 @@
       <c r="K286" s="15"/>
       <c r="L286" s="15"/>
     </row>
-    <row r="287" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="16"/>
       <c r="B287" s="14"/>
       <c r="C287" s="25"/>
@@ -6535,7 +6532,7 @@
       <c r="K287" s="15"/>
       <c r="L287" s="15"/>
     </row>
-    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="16"/>
       <c r="B288" s="14"/>
       <c r="C288" s="25"/>
@@ -6549,7 +6546,7 @@
       <c r="K288" s="15"/>
       <c r="L288" s="15"/>
     </row>
-    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="16"/>
       <c r="B289" s="14"/>
       <c r="C289" s="25"/>
@@ -6563,7 +6560,7 @@
       <c r="K289" s="15"/>
       <c r="L289" s="15"/>
     </row>
-    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="16"/>
       <c r="B290" s="14"/>
       <c r="C290" s="25"/>
@@ -6577,7 +6574,7 @@
       <c r="K290" s="15"/>
       <c r="L290" s="15"/>
     </row>
-    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="B291" s="14"/>
       <c r="C291" s="25"/>
@@ -6591,7 +6588,7 @@
       <c r="K291" s="15"/>
       <c r="L291" s="15"/>
     </row>
-    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="16"/>
       <c r="B292" s="14"/>
       <c r="C292" s="25"/>
@@ -6605,7 +6602,7 @@
       <c r="K292" s="15"/>
       <c r="L292" s="15"/>
     </row>
-    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="16"/>
       <c r="B293" s="14"/>
       <c r="C293" s="25"/>
@@ -6619,7 +6616,7 @@
       <c r="K293" s="15"/>
       <c r="L293" s="15"/>
     </row>
-    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="16"/>
       <c r="B294" s="14"/>
       <c r="C294" s="25"/>
@@ -6633,7 +6630,7 @@
       <c r="K294" s="15"/>
       <c r="L294" s="15"/>
     </row>
-    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="25"/>
@@ -6647,7 +6644,7 @@
       <c r="K295" s="15"/>
       <c r="L295" s="15"/>
     </row>
-    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="16"/>
       <c r="B296" s="14"/>
       <c r="C296" s="25"/>
@@ -6661,7 +6658,7 @@
       <c r="K296" s="15"/>
       <c r="L296" s="15"/>
     </row>
-    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="16"/>
       <c r="B297" s="14"/>
       <c r="C297" s="25"/>
@@ -6675,7 +6672,7 @@
       <c r="K297" s="15"/>
       <c r="L297" s="15"/>
     </row>
-    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="16"/>
       <c r="B298" s="14"/>
       <c r="C298" s="25"/>
@@ -6689,7 +6686,7 @@
       <c r="K298" s="15"/>
       <c r="L298" s="15"/>
     </row>
-    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="16"/>
       <c r="B299" s="14"/>
       <c r="C299" s="25"/>
@@ -6703,7 +6700,7 @@
       <c r="K299" s="15"/>
       <c r="L299" s="15"/>
     </row>
-    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="16"/>
       <c r="B300" s="14"/>
       <c r="C300" s="25"/>
@@ -6717,7 +6714,7 @@
       <c r="K300" s="15"/>
       <c r="L300" s="15"/>
     </row>
-    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="16"/>
       <c r="B301" s="14"/>
       <c r="C301" s="25"/>
@@ -6731,7 +6728,7 @@
       <c r="K301" s="15"/>
       <c r="L301" s="15"/>
     </row>
-    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="16"/>
       <c r="B302" s="14"/>
       <c r="C302" s="25"/>
@@ -6745,7 +6742,7 @@
       <c r="K302" s="15"/>
       <c r="L302" s="15"/>
     </row>
-    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="16"/>
       <c r="B303" s="14"/>
       <c r="C303" s="25"/>
@@ -6759,7 +6756,7 @@
       <c r="K303" s="15"/>
       <c r="L303" s="15"/>
     </row>
-    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="14"/>
       <c r="C304" s="25"/>
@@ -6773,7 +6770,7 @@
       <c r="K304" s="15"/>
       <c r="L304" s="15"/>
     </row>
-    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="16"/>
       <c r="B305" s="14"/>
       <c r="C305" s="25"/>
@@ -6787,7 +6784,7 @@
       <c r="K305" s="15"/>
       <c r="L305" s="15"/>
     </row>
-    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="24"/>
       <c r="B306" s="14"/>
       <c r="C306" s="25"/>
@@ -6801,7 +6798,7 @@
       <c r="K306" s="15"/>
       <c r="L306" s="15"/>
     </row>
-    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="24"/>
       <c r="B307" s="14"/>
       <c r="C307" s="25"/>
@@ -6815,7 +6812,7 @@
       <c r="K307" s="15"/>
       <c r="L307" s="15"/>
     </row>
-    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="25"/>
@@ -6829,7 +6826,7 @@
       <c r="K308" s="15"/>
       <c r="L308" s="15"/>
     </row>
-    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="25"/>
@@ -6843,7 +6840,7 @@
       <c r="K309" s="15"/>
       <c r="L309" s="15"/>
     </row>
-    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="25"/>
@@ -6857,7 +6854,7 @@
       <c r="K310" s="15"/>
       <c r="L310" s="15"/>
     </row>
-    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="25"/>
@@ -6871,7 +6868,7 @@
       <c r="K311" s="15"/>
       <c r="L311" s="15"/>
     </row>
-    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="25"/>
@@ -6885,7 +6882,7 @@
       <c r="K312" s="15"/>
       <c r="L312" s="15"/>
     </row>
-    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="25"/>
@@ -6899,7 +6896,7 @@
       <c r="K313" s="15"/>
       <c r="L313" s="15"/>
     </row>
-    <row r="314" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="25"/>
@@ -6913,7 +6910,7 @@
       <c r="K314" s="15"/>
       <c r="L314" s="15"/>
     </row>
-    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="16"/>
       <c r="B315" s="14"/>
       <c r="C315" s="25"/>
@@ -6927,7 +6924,7 @@
       <c r="K315" s="15"/>
       <c r="L315" s="15"/>
     </row>
-    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="16"/>
       <c r="B316" s="14"/>
       <c r="C316" s="25"/>
@@ -6941,7 +6938,7 @@
       <c r="K316" s="15"/>
       <c r="L316" s="15"/>
     </row>
-    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="16"/>
       <c r="B317" s="14"/>
       <c r="C317" s="25"/>
@@ -6955,7 +6952,7 @@
       <c r="K317" s="15"/>
       <c r="L317" s="15"/>
     </row>
-    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="16"/>
       <c r="B318" s="14"/>
       <c r="C318" s="25"/>
@@ -6969,7 +6966,7 @@
       <c r="K318" s="15"/>
       <c r="L318" s="15"/>
     </row>
-    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="16"/>
       <c r="B319" s="14"/>
       <c r="C319" s="25"/>
@@ -6983,7 +6980,7 @@
       <c r="K319" s="15"/>
       <c r="L319" s="15"/>
     </row>
-    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="16"/>
       <c r="B320" s="14"/>
       <c r="C320" s="25"/>
@@ -6997,7 +6994,7 @@
       <c r="K320" s="15"/>
       <c r="L320" s="15"/>
     </row>
-    <row r="321" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="16"/>
       <c r="B321" s="14"/>
       <c r="C321" s="25"/>
@@ -7011,7 +7008,7 @@
       <c r="K321" s="15"/>
       <c r="L321" s="15"/>
     </row>
-    <row r="322" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="14"/>
       <c r="C322" s="25"/>
@@ -7025,7 +7022,7 @@
       <c r="K322" s="15"/>
       <c r="L322" s="15"/>
     </row>
-    <row r="323" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="16"/>
       <c r="B323" s="14"/>
       <c r="C323" s="25"/>
@@ -7039,7 +7036,7 @@
       <c r="K323" s="15"/>
       <c r="L323" s="15"/>
     </row>
-    <row r="324" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="16"/>
       <c r="B324" s="14"/>
       <c r="C324" s="25"/>
@@ -7053,7 +7050,7 @@
       <c r="K324" s="15"/>
       <c r="L324" s="15"/>
     </row>
-    <row r="325" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="16"/>
       <c r="B325" s="14"/>
       <c r="C325" s="25"/>
@@ -7067,7 +7064,7 @@
       <c r="K325" s="15"/>
       <c r="L325" s="15"/>
     </row>
-    <row r="326" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="25"/>
@@ -7081,7 +7078,7 @@
       <c r="K326" s="15"/>
       <c r="L326" s="15"/>
     </row>
-    <row r="327" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="24"/>
       <c r="B327" s="14"/>
       <c r="C327" s="25"/>
@@ -7095,7 +7092,7 @@
       <c r="K327" s="15"/>
       <c r="L327" s="15"/>
     </row>
-    <row r="328" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="16"/>
       <c r="B328" s="14"/>
       <c r="C328" s="25"/>
@@ -7109,7 +7106,7 @@
       <c r="K328" s="15"/>
       <c r="L328" s="15"/>
     </row>
-    <row r="329" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="21"/>
       <c r="B329" s="14"/>
       <c r="C329" s="25"/>
@@ -7123,7 +7120,7 @@
       <c r="K329" s="15"/>
       <c r="L329" s="15"/>
     </row>
-    <row r="330" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="16"/>
       <c r="B330" s="14"/>
       <c r="C330" s="25"/>
@@ -7137,7 +7134,7 @@
       <c r="K330" s="15"/>
       <c r="L330" s="15"/>
     </row>
-    <row r="331" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="16"/>
       <c r="B331" s="14"/>
       <c r="C331" s="25"/>
@@ -7151,7 +7148,7 @@
       <c r="K331" s="15"/>
       <c r="L331" s="15"/>
     </row>
-    <row r="332" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="16"/>
       <c r="B332" s="14"/>
       <c r="C332" s="25"/>
@@ -7165,7 +7162,7 @@
       <c r="K332" s="15"/>
       <c r="L332" s="15"/>
     </row>
-    <row r="333" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="16"/>
       <c r="B333" s="14"/>
       <c r="C333" s="25"/>
@@ -7179,7 +7176,7 @@
       <c r="K333" s="15"/>
       <c r="L333" s="15"/>
     </row>
-    <row r="334" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="16"/>
       <c r="B334" s="14"/>
       <c r="C334" s="25"/>
@@ -7193,7 +7190,7 @@
       <c r="K334" s="15"/>
       <c r="L334" s="15"/>
     </row>
-    <row r="335" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="16"/>
       <c r="B335" s="14"/>
       <c r="C335" s="25"/>
@@ -7207,7 +7204,7 @@
       <c r="K335" s="15"/>
       <c r="L335" s="15"/>
     </row>
-    <row r="336" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="25"/>
@@ -7221,7 +7218,7 @@
       <c r="K336" s="15"/>
       <c r="L336" s="15"/>
     </row>
-    <row r="337" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="25"/>
@@ -7235,7 +7232,7 @@
       <c r="K337" s="15"/>
       <c r="L337" s="15"/>
     </row>
-    <row r="338" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="25"/>
@@ -7249,7 +7246,7 @@
       <c r="K338" s="15"/>
       <c r="L338" s="15"/>
     </row>
-    <row r="339" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="16"/>
       <c r="B339" s="14"/>
       <c r="C339" s="25"/>
@@ -7263,7 +7260,7 @@
       <c r="K339" s="15"/>
       <c r="L339" s="15"/>
     </row>
-    <row r="340" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="16"/>
       <c r="B340" s="14"/>
       <c r="C340" s="25"/>
@@ -7277,7 +7274,7 @@
       <c r="K340" s="15"/>
       <c r="L340" s="15"/>
     </row>
-    <row r="341" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="16"/>
       <c r="B341" s="14"/>
       <c r="C341" s="25"/>
@@ -7291,7 +7288,7 @@
       <c r="K341" s="15"/>
       <c r="L341" s="15"/>
     </row>
-    <row r="342" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="16"/>
       <c r="B342" s="14"/>
       <c r="C342" s="25"/>
@@ -7305,7 +7302,7 @@
       <c r="K342" s="15"/>
       <c r="L342" s="15"/>
     </row>
-    <row r="343" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="16"/>
       <c r="B343" s="44"/>
       <c r="C343" s="25"/>
@@ -7319,7 +7316,7 @@
       <c r="K343" s="15"/>
       <c r="L343" s="15"/>
     </row>
-    <row r="344" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="16"/>
       <c r="B344" s="44"/>
       <c r="C344" s="25"/>
@@ -7333,7 +7330,7 @@
       <c r="K344" s="15"/>
       <c r="L344" s="15"/>
     </row>
-    <row r="345" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="16"/>
       <c r="B345" s="44"/>
       <c r="C345" s="25"/>
@@ -7347,7 +7344,7 @@
       <c r="K345" s="15"/>
       <c r="L345" s="15"/>
     </row>
-    <row r="346" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="16"/>
       <c r="B346" s="44"/>
       <c r="C346" s="25"/>
@@ -7361,7 +7358,7 @@
       <c r="K346" s="15"/>
       <c r="L346" s="15"/>
     </row>
-    <row r="347" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="52"/>
       <c r="B347" s="14"/>
       <c r="C347" s="25"/>
@@ -7375,7 +7372,7 @@
       <c r="K347" s="15"/>
       <c r="L347" s="15"/>
     </row>
-    <row r="348" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="16"/>
       <c r="B348" s="14"/>
       <c r="C348" s="25"/>
@@ -7389,7 +7386,7 @@
       <c r="K348" s="15"/>
       <c r="L348" s="15"/>
     </row>
-    <row r="349" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="16"/>
       <c r="B349" s="14"/>
       <c r="C349" s="25"/>
@@ -7403,7 +7400,7 @@
       <c r="K349" s="15"/>
       <c r="L349" s="15"/>
     </row>
-    <row r="350" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="16"/>
       <c r="B350" s="14"/>
       <c r="C350" s="25"/>
@@ -7417,7 +7414,7 @@
       <c r="K350" s="15"/>
       <c r="L350" s="15"/>
     </row>
-    <row r="351" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="16"/>
       <c r="B351" s="14"/>
       <c r="C351" s="25"/>
@@ -7431,7 +7428,7 @@
       <c r="K351" s="15"/>
       <c r="L351" s="15"/>
     </row>
-    <row r="352" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="16"/>
       <c r="B352" s="14"/>
       <c r="C352" s="25"/>
@@ -7445,7 +7442,7 @@
       <c r="K352" s="15"/>
       <c r="L352" s="15"/>
     </row>
-    <row r="353" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="16"/>
       <c r="B353" s="14"/>
       <c r="C353" s="25"/>
@@ -7459,7 +7456,7 @@
       <c r="K353" s="15"/>
       <c r="L353" s="15"/>
     </row>
-    <row r="354" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="16"/>
       <c r="B354" s="14"/>
       <c r="C354" s="25"/>
@@ -7473,7 +7470,7 @@
       <c r="K354" s="15"/>
       <c r="L354" s="15"/>
     </row>
-    <row r="355" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="16"/>
       <c r="B355" s="14"/>
       <c r="C355" s="25"/>
@@ -7487,7 +7484,7 @@
       <c r="K355" s="15"/>
       <c r="L355" s="15"/>
     </row>
-    <row r="356" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="16"/>
       <c r="B356" s="14"/>
       <c r="C356" s="25"/>
@@ -7501,7 +7498,7 @@
       <c r="K356" s="15"/>
       <c r="L356" s="15"/>
     </row>
-    <row r="357" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="16"/>
       <c r="B357" s="14"/>
       <c r="C357" s="25"/>
@@ -7515,7 +7512,7 @@
       <c r="K357" s="15"/>
       <c r="L357" s="15"/>
     </row>
-    <row r="358" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="53"/>
       <c r="B358" s="14"/>
       <c r="C358" s="54"/>
@@ -7529,7 +7526,7 @@
       <c r="K358" s="15"/>
       <c r="L358" s="15"/>
     </row>
-    <row r="359" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="16"/>
       <c r="B359" s="14"/>
       <c r="C359" s="25"/>
@@ -7543,7 +7540,7 @@
       <c r="K359" s="15"/>
       <c r="L359" s="15"/>
     </row>
-    <row r="360" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="16"/>
       <c r="B360" s="14"/>
       <c r="C360" s="25"/>
@@ -7557,7 +7554,7 @@
       <c r="K360" s="15"/>
       <c r="L360" s="15"/>
     </row>
-    <row r="361" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="16"/>
       <c r="B361" s="14"/>
       <c r="C361" s="25"/>
@@ -7571,7 +7568,7 @@
       <c r="K361" s="15"/>
       <c r="L361" s="15"/>
     </row>
-    <row r="362" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="16"/>
       <c r="B362" s="14"/>
       <c r="C362" s="25"/>
@@ -7585,7 +7582,7 @@
       <c r="K362" s="15"/>
       <c r="L362" s="15"/>
     </row>
-    <row r="363" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="16"/>
       <c r="B363" s="14"/>
       <c r="C363" s="25"/>
@@ -7599,7 +7596,7 @@
       <c r="K363" s="15"/>
       <c r="L363" s="15"/>
     </row>
-    <row r="364" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="16"/>
       <c r="B364" s="14"/>
       <c r="C364" s="25"/>
@@ -7613,7 +7610,7 @@
       <c r="K364" s="15"/>
       <c r="L364" s="15"/>
     </row>
-    <row r="365" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="16"/>
       <c r="B365" s="14"/>
       <c r="C365" s="25"/>
@@ -7627,7 +7624,7 @@
       <c r="K365" s="15"/>
       <c r="L365" s="15"/>
     </row>
-    <row r="366" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="16"/>
       <c r="B366" s="14"/>
       <c r="C366" s="25"/>
@@ -7641,7 +7638,7 @@
       <c r="K366" s="15"/>
       <c r="L366" s="15"/>
     </row>
-    <row r="367" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="16"/>
       <c r="B367" s="14"/>
       <c r="C367" s="25"/>
@@ -7655,7 +7652,7 @@
       <c r="K367" s="15"/>
       <c r="L367" s="15"/>
     </row>
-    <row r="368" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="16"/>
       <c r="B368" s="14"/>
       <c r="C368" s="25"/>
@@ -7669,7 +7666,7 @@
       <c r="K368" s="15"/>
       <c r="L368" s="15"/>
     </row>
-    <row r="369" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="16"/>
       <c r="B369" s="14"/>
       <c r="C369" s="25"/>
@@ -7683,7 +7680,7 @@
       <c r="K369" s="15"/>
       <c r="L369" s="15"/>
     </row>
-    <row r="370" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="16"/>
       <c r="B370" s="14"/>
       <c r="C370" s="25"/>
@@ -7697,7 +7694,7 @@
       <c r="K370" s="15"/>
       <c r="L370" s="15"/>
     </row>
-    <row r="371" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="16"/>
       <c r="B371" s="14"/>
       <c r="C371" s="25"/>
@@ -7711,7 +7708,7 @@
       <c r="K371" s="15"/>
       <c r="L371" s="15"/>
     </row>
-    <row r="372" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="16"/>
       <c r="B372" s="14"/>
       <c r="C372" s="25"/>
@@ -7725,7 +7722,7 @@
       <c r="K372" s="15"/>
       <c r="L372" s="15"/>
     </row>
-    <row r="373" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="53"/>
       <c r="B373" s="14"/>
       <c r="C373" s="54"/>
@@ -7739,7 +7736,7 @@
       <c r="K373" s="15"/>
       <c r="L373" s="15"/>
     </row>
-    <row r="374" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="53"/>
       <c r="B374" s="14"/>
       <c r="C374" s="54"/>
@@ -7753,7 +7750,7 @@
       <c r="K374" s="15"/>
       <c r="L374" s="15"/>
     </row>
-    <row r="375" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="53"/>
       <c r="B375" s="14"/>
       <c r="C375" s="54"/>
@@ -7767,7 +7764,7 @@
       <c r="K375" s="15"/>
       <c r="L375" s="15"/>
     </row>
-    <row r="376" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="53"/>
       <c r="B376" s="14"/>
       <c r="C376" s="54"/>
@@ -7781,7 +7778,7 @@
       <c r="K376" s="15"/>
       <c r="L376" s="15"/>
     </row>
-    <row r="377" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="53"/>
       <c r="B377" s="14"/>
       <c r="C377" s="54"/>
@@ -7795,7 +7792,7 @@
       <c r="K377" s="15"/>
       <c r="L377" s="15"/>
     </row>
-    <row r="378" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="53"/>
       <c r="B378" s="14"/>
       <c r="C378" s="54"/>
@@ -7809,7 +7806,7 @@
       <c r="K378" s="15"/>
       <c r="L378" s="15"/>
     </row>
-    <row r="379" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="53"/>
       <c r="B379" s="14"/>
       <c r="C379" s="54"/>
@@ -7823,7 +7820,7 @@
       <c r="K379" s="15"/>
       <c r="L379" s="15"/>
     </row>
-    <row r="380" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="53"/>
       <c r="B380" s="14"/>
       <c r="C380" s="54"/>
@@ -7837,7 +7834,7 @@
       <c r="K380" s="15"/>
       <c r="L380" s="15"/>
     </row>
-    <row r="381" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="53"/>
       <c r="B381" s="14"/>
       <c r="C381" s="54"/>
@@ -7851,7 +7848,7 @@
       <c r="K381" s="15"/>
       <c r="L381" s="15"/>
     </row>
-    <row r="382" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="53"/>
       <c r="B382" s="14"/>
       <c r="C382" s="54"/>
@@ -7865,7 +7862,7 @@
       <c r="K382" s="15"/>
       <c r="L382" s="15"/>
     </row>
-    <row r="383" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="53"/>
       <c r="B383" s="14"/>
       <c r="C383" s="54"/>
@@ -7879,7 +7876,7 @@
       <c r="K383" s="15"/>
       <c r="L383" s="15"/>
     </row>
-    <row r="384" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="53"/>
       <c r="B384" s="14"/>
       <c r="C384" s="54"/>
@@ -7893,7 +7890,7 @@
       <c r="K384" s="15"/>
       <c r="L384" s="15"/>
     </row>
-    <row r="385" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="53"/>
       <c r="B385" s="55"/>
       <c r="C385" s="56"/>
@@ -7907,7 +7904,7 @@
       <c r="K385" s="15"/>
       <c r="L385" s="15"/>
     </row>
-    <row r="386" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="53"/>
       <c r="B386" s="57"/>
       <c r="C386" s="54"/>
@@ -7921,7 +7918,7 @@
       <c r="K386" s="15"/>
       <c r="L386" s="15"/>
     </row>
-    <row r="387" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="58"/>
       <c r="B387" s="59"/>
       <c r="C387" s="60"/>
@@ -7935,7 +7932,7 @@
       <c r="K387" s="15"/>
       <c r="L387" s="15"/>
     </row>
-    <row r="388" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="53"/>
       <c r="B388" s="57"/>
       <c r="C388" s="54"/>
@@ -7949,7 +7946,7 @@
       <c r="K388" s="15"/>
       <c r="L388" s="15"/>
     </row>
-    <row r="389" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="53"/>
       <c r="B389" s="14"/>
       <c r="C389" s="54"/>
@@ -7963,7 +7960,7 @@
       <c r="K389" s="15"/>
       <c r="L389" s="15"/>
     </row>
-    <row r="390" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="53"/>
       <c r="B390" s="57"/>
       <c r="C390" s="54"/>
@@ -7977,7 +7974,7 @@
       <c r="K390" s="15"/>
       <c r="L390" s="15"/>
     </row>
-    <row r="391" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="61"/>
       <c r="B391" s="57"/>
       <c r="C391" s="54"/>
@@ -7991,7 +7988,7 @@
       <c r="K391" s="31"/>
       <c r="L391" s="31"/>
     </row>
-    <row r="392" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="52"/>
       <c r="B392" s="14"/>
       <c r="C392" s="54"/>
@@ -8005,7 +8002,7 @@
       <c r="K392" s="31"/>
       <c r="L392" s="31"/>
     </row>
-    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="62"/>
       <c r="B393" s="63"/>
       <c r="C393" s="64"/>
@@ -8019,7 +8016,7 @@
       <c r="K393" s="15"/>
       <c r="L393" s="15"/>
     </row>
-    <row r="394" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="53"/>
       <c r="B394" s="14"/>
       <c r="C394" s="54"/>
@@ -8033,7 +8030,7 @@
       <c r="K394" s="15"/>
       <c r="L394" s="15"/>
     </row>
-    <row r="395" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="53"/>
       <c r="B395" s="14"/>
       <c r="C395" s="54"/>
@@ -8047,7 +8044,7 @@
       <c r="K395" s="15"/>
       <c r="L395" s="15"/>
     </row>
-    <row r="396" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="53"/>
       <c r="B396" s="14"/>
       <c r="C396" s="54"/>
@@ -8061,7 +8058,7 @@
       <c r="K396" s="15"/>
       <c r="L396" s="15"/>
     </row>
-    <row r="397" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="53"/>
       <c r="B397" s="14"/>
       <c r="C397" s="54"/>
@@ -8075,7 +8072,7 @@
       <c r="K397" s="15"/>
       <c r="L397" s="15"/>
     </row>
-    <row r="398" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="53"/>
       <c r="B398" s="14"/>
       <c r="C398" s="54"/>
@@ -8089,7 +8086,7 @@
       <c r="K398" s="15"/>
       <c r="L398" s="15"/>
     </row>
-    <row r="399" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="53"/>
       <c r="B399" s="14"/>
       <c r="C399" s="54"/>
@@ -8103,7 +8100,7 @@
       <c r="K399" s="15"/>
       <c r="L399" s="15"/>
     </row>
-    <row r="400" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="53"/>
       <c r="B400" s="14"/>
       <c r="C400" s="54"/>
@@ -8117,7 +8114,7 @@
       <c r="K400" s="15"/>
       <c r="L400" s="15"/>
     </row>
-    <row r="401" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="53"/>
       <c r="B401" s="14"/>
       <c r="C401" s="54"/>
@@ -8131,7 +8128,7 @@
       <c r="K401" s="15"/>
       <c r="L401" s="15"/>
     </row>
-    <row r="402" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="53"/>
       <c r="B402" s="14"/>
       <c r="C402" s="54"/>
@@ -8145,7 +8142,7 @@
       <c r="K402" s="15"/>
       <c r="L402" s="15"/>
     </row>
-    <row r="403" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="53"/>
       <c r="B403" s="14"/>
       <c r="C403" s="54"/>
@@ -8159,7 +8156,7 @@
       <c r="K403" s="15"/>
       <c r="L403" s="15"/>
     </row>
-    <row r="404" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="53"/>
       <c r="B404" s="14"/>
       <c r="C404" s="54"/>
@@ -8173,7 +8170,7 @@
       <c r="K404" s="15"/>
       <c r="L404" s="15"/>
     </row>
-    <row r="405" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="65"/>
       <c r="B405" s="14"/>
       <c r="C405" s="54"/>
@@ -8187,7 +8184,7 @@
       <c r="K405" s="15"/>
       <c r="L405" s="15"/>
     </row>
-    <row r="406" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="65"/>
       <c r="B406" s="66"/>
       <c r="C406" s="56"/>
@@ -8201,7 +8198,7 @@
       <c r="K406" s="15"/>
       <c r="L406" s="15"/>
     </row>
-    <row r="407" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="65"/>
       <c r="B407" s="55"/>
       <c r="C407" s="54"/>
@@ -8215,7 +8212,7 @@
       <c r="K407" s="15"/>
       <c r="L407" s="15"/>
     </row>
-    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="67"/>
       <c r="B408" s="55"/>
       <c r="C408" s="56"/>
@@ -8229,7 +8226,7 @@
       <c r="K408" s="15"/>
       <c r="L408" s="15"/>
     </row>
-    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="67"/>
       <c r="B409" s="55"/>
       <c r="C409" s="56"/>
@@ -8243,7 +8240,7 @@
       <c r="K409" s="15"/>
       <c r="L409" s="15"/>
     </row>
-    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="67"/>
       <c r="B410" s="55"/>
       <c r="C410" s="56"/>
@@ -8257,7 +8254,7 @@
       <c r="K410" s="15"/>
       <c r="L410" s="15"/>
     </row>
-    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="67"/>
       <c r="B411" s="55"/>
       <c r="C411" s="56"/>
@@ -8271,7 +8268,7 @@
       <c r="K411" s="15"/>
       <c r="L411" s="15"/>
     </row>
-    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="67"/>
       <c r="B412" s="55"/>
       <c r="C412" s="56"/>
@@ -8285,7 +8282,7 @@
       <c r="K412" s="15"/>
       <c r="L412" s="15"/>
     </row>
-    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="67"/>
       <c r="B413" s="55"/>
       <c r="C413" s="56"/>
@@ -8299,7 +8296,7 @@
       <c r="K413" s="15"/>
       <c r="L413" s="15"/>
     </row>
-    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="67"/>
       <c r="B414" s="55"/>
       <c r="C414" s="56"/>
@@ -8313,7 +8310,7 @@
       <c r="K414" s="15"/>
       <c r="L414" s="15"/>
     </row>
-    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="67"/>
       <c r="B415" s="55"/>
       <c r="C415" s="56"/>
@@ -8327,7 +8324,7 @@
       <c r="K415" s="15"/>
       <c r="L415" s="15"/>
     </row>
-    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="67"/>
       <c r="B416" s="55"/>
       <c r="C416" s="56"/>
@@ -8341,7 +8338,7 @@
       <c r="K416" s="15"/>
       <c r="L416" s="15"/>
     </row>
-    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="67"/>
       <c r="B417" s="55"/>
       <c r="C417" s="56"/>
@@ -8355,7 +8352,7 @@
       <c r="K417" s="15"/>
       <c r="L417" s="15"/>
     </row>
-    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="67"/>
       <c r="B418" s="55"/>
       <c r="C418" s="56"/>
@@ -8369,7 +8366,7 @@
       <c r="K418" s="15"/>
       <c r="L418" s="15"/>
     </row>
-    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="67"/>
       <c r="B419" s="55"/>
       <c r="C419" s="56"/>
@@ -8383,7 +8380,7 @@
       <c r="K419" s="15"/>
       <c r="L419" s="15"/>
     </row>
-    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="67"/>
       <c r="B420" s="55"/>
       <c r="C420" s="56"/>
@@ -8397,7 +8394,7 @@
       <c r="K420" s="15"/>
       <c r="L420" s="15"/>
     </row>
-    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="67"/>
       <c r="B421" s="55"/>
       <c r="C421" s="56"/>
@@ -8411,7 +8408,7 @@
       <c r="K421" s="15"/>
       <c r="L421" s="15"/>
     </row>
-    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="67"/>
       <c r="B422" s="55"/>
       <c r="C422" s="56"/>
@@ -8425,7 +8422,7 @@
       <c r="K422" s="15"/>
       <c r="L422" s="15"/>
     </row>
-    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="67"/>
       <c r="B423" s="55"/>
       <c r="C423" s="56"/>
@@ -8439,7 +8436,7 @@
       <c r="K423" s="15"/>
       <c r="L423" s="15"/>
     </row>
-    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="67"/>
       <c r="B424" s="55"/>
       <c r="C424" s="56"/>
@@ -8453,7 +8450,7 @@
       <c r="K424" s="15"/>
       <c r="L424" s="15"/>
     </row>
-    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="67"/>
       <c r="B425" s="55"/>
       <c r="C425" s="56"/>
@@ -8467,7 +8464,7 @@
       <c r="K425" s="15"/>
       <c r="L425" s="15"/>
     </row>
-    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="67"/>
       <c r="B426" s="55"/>
       <c r="C426" s="56"/>
@@ -8481,7 +8478,7 @@
       <c r="K426" s="15"/>
       <c r="L426" s="15"/>
     </row>
-    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="67"/>
       <c r="B427" s="55"/>
       <c r="C427" s="56"/>
@@ -8495,7 +8492,7 @@
       <c r="K427" s="15"/>
       <c r="L427" s="15"/>
     </row>
-    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="67"/>
       <c r="B428" s="55"/>
       <c r="C428" s="56"/>
@@ -8509,7 +8506,7 @@
       <c r="K428" s="15"/>
       <c r="L428" s="15"/>
     </row>
-    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="67"/>
       <c r="B429" s="55"/>
       <c r="C429" s="56"/>
@@ -8523,7 +8520,7 @@
       <c r="K429" s="15"/>
       <c r="L429" s="15"/>
     </row>
-    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="67"/>
       <c r="B430" s="55"/>
       <c r="C430" s="56"/>
@@ -8537,7 +8534,7 @@
       <c r="K430" s="15"/>
       <c r="L430" s="15"/>
     </row>
-    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="67"/>
       <c r="B431" s="55"/>
       <c r="C431" s="56"/>
@@ -8551,7 +8548,7 @@
       <c r="K431" s="15"/>
       <c r="L431" s="15"/>
     </row>
-    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="67"/>
       <c r="B432" s="55"/>
       <c r="C432" s="56"/>
@@ -8565,7 +8562,7 @@
       <c r="K432" s="15"/>
       <c r="L432" s="15"/>
     </row>
-    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="67"/>
       <c r="B433" s="55"/>
       <c r="C433" s="56"/>
@@ -8579,7 +8576,7 @@
       <c r="K433" s="15"/>
       <c r="L433" s="15"/>
     </row>
-    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="15"/>
       <c r="B434" s="55"/>
       <c r="C434" s="68"/>
@@ -8593,7 +8590,7 @@
       <c r="K434" s="15"/>
       <c r="L434" s="15"/>
     </row>
-    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="15"/>
       <c r="B435" s="55"/>
       <c r="C435" s="68"/>
@@ -8607,7 +8604,7 @@
       <c r="K435" s="15"/>
       <c r="L435" s="15"/>
     </row>
-    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="15"/>
       <c r="B436" s="55"/>
       <c r="C436" s="68"/>
@@ -8621,7 +8618,7 @@
       <c r="K436" s="15"/>
       <c r="L436" s="15"/>
     </row>
-    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="15"/>
       <c r="B437" s="55"/>
       <c r="C437" s="68"/>
@@ -8635,7 +8632,7 @@
       <c r="K437" s="15"/>
       <c r="L437" s="15"/>
     </row>
-    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="15"/>
       <c r="B438" s="55"/>
       <c r="C438" s="68"/>
@@ -8649,7 +8646,7 @@
       <c r="K438" s="15"/>
       <c r="L438" s="15"/>
     </row>
-    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="15"/>
       <c r="B439" s="55"/>
       <c r="C439" s="68"/>
@@ -8663,7 +8660,7 @@
       <c r="K439" s="15"/>
       <c r="L439" s="15"/>
     </row>
-    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="15"/>
       <c r="B440" s="55"/>
       <c r="C440" s="68"/>
@@ -8677,7 +8674,7 @@
       <c r="K440" s="15"/>
       <c r="L440" s="15"/>
     </row>
-    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="15"/>
       <c r="B441" s="55"/>
       <c r="C441" s="68"/>
@@ -8691,7 +8688,7 @@
       <c r="K441" s="15"/>
       <c r="L441" s="15"/>
     </row>
-    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="15"/>
       <c r="B442" s="55"/>
       <c r="C442" s="68"/>
@@ -8705,7 +8702,7 @@
       <c r="K442" s="15"/>
       <c r="L442" s="15"/>
     </row>
-    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="15"/>
       <c r="B443" s="55"/>
       <c r="C443" s="68"/>
@@ -8719,7 +8716,7 @@
       <c r="K443" s="15"/>
       <c r="L443" s="15"/>
     </row>
-    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="15"/>
       <c r="B444" s="55"/>
       <c r="C444" s="68"/>
@@ -8733,7 +8730,7 @@
       <c r="K444" s="15"/>
       <c r="L444" s="15"/>
     </row>
-    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="15"/>
       <c r="B445" s="55"/>
       <c r="C445" s="68"/>
@@ -8747,7 +8744,7 @@
       <c r="K445" s="15"/>
       <c r="L445" s="15"/>
     </row>
-    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="15"/>
       <c r="B446" s="55"/>
       <c r="C446" s="68"/>
@@ -8761,7 +8758,7 @@
       <c r="K446" s="15"/>
       <c r="L446" s="15"/>
     </row>
-    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="15"/>
       <c r="B447" s="55"/>
       <c r="C447" s="68"/>
@@ -8775,7 +8772,7 @@
       <c r="K447" s="15"/>
       <c r="L447" s="15"/>
     </row>
-    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="15"/>
       <c r="B448" s="55"/>
       <c r="C448" s="68"/>
@@ -8789,7 +8786,7 @@
       <c r="K448" s="15"/>
       <c r="L448" s="15"/>
     </row>
-    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="15"/>
       <c r="B449" s="55"/>
       <c r="C449" s="68"/>
@@ -8803,7 +8800,7 @@
       <c r="K449" s="15"/>
       <c r="L449" s="15"/>
     </row>
-    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="15"/>
       <c r="B450" s="55"/>
       <c r="C450" s="68"/>
@@ -8817,7 +8814,7 @@
       <c r="K450" s="15"/>
       <c r="L450" s="15"/>
     </row>
-    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="15"/>
       <c r="B451" s="55"/>
       <c r="C451" s="68"/>
@@ -8831,7 +8828,7 @@
       <c r="K451" s="15"/>
       <c r="L451" s="15"/>
     </row>
-    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="15"/>
       <c r="B452" s="55"/>
       <c r="C452" s="68"/>
@@ -8845,7 +8842,7 @@
       <c r="K452" s="15"/>
       <c r="L452" s="15"/>
     </row>
-    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="15"/>
       <c r="B453" s="55"/>
       <c r="C453" s="68"/>
@@ -8859,7 +8856,7 @@
       <c r="K453" s="15"/>
       <c r="L453" s="15"/>
     </row>
-    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="15"/>
       <c r="B454" s="55"/>
       <c r="C454" s="68"/>
@@ -8873,7 +8870,7 @@
       <c r="K454" s="15"/>
       <c r="L454" s="15"/>
     </row>
-    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="15"/>
       <c r="B455" s="55"/>
       <c r="C455" s="68"/>
@@ -8887,7 +8884,7 @@
       <c r="K455" s="15"/>
       <c r="L455" s="15"/>
     </row>
-    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="15"/>
       <c r="B456" s="55"/>
       <c r="C456" s="68"/>
@@ -8901,7 +8898,7 @@
       <c r="K456" s="15"/>
       <c r="L456" s="15"/>
     </row>
-    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="15"/>
       <c r="B457" s="55"/>
       <c r="C457" s="68"/>
@@ -8915,7 +8912,7 @@
       <c r="K457" s="15"/>
       <c r="L457" s="15"/>
     </row>
-    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="15"/>
       <c r="B458" s="55"/>
       <c r="C458" s="68"/>
@@ -8929,7 +8926,7 @@
       <c r="K458" s="15"/>
       <c r="L458" s="15"/>
     </row>
-    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="15"/>
       <c r="B459" s="55"/>
       <c r="C459" s="68"/>
@@ -8943,7 +8940,7 @@
       <c r="K459" s="15"/>
       <c r="L459" s="15"/>
     </row>
-    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="15"/>
       <c r="B460" s="55"/>
       <c r="C460" s="68"/>
@@ -8957,7 +8954,7 @@
       <c r="K460" s="15"/>
       <c r="L460" s="15"/>
     </row>
-    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="15"/>
       <c r="B461" s="55"/>
       <c r="C461" s="68"/>
@@ -8971,7 +8968,7 @@
       <c r="K461" s="15"/>
       <c r="L461" s="15"/>
     </row>
-    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="15"/>
       <c r="B462" s="55"/>
       <c r="C462" s="68"/>
@@ -8985,7 +8982,7 @@
       <c r="K462" s="15"/>
       <c r="L462" s="15"/>
     </row>
-    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="15"/>
       <c r="B463" s="55"/>
       <c r="C463" s="68"/>
@@ -8999,7 +8996,7 @@
       <c r="K463" s="15"/>
       <c r="L463" s="15"/>
     </row>
-    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="15"/>
       <c r="B464" s="55"/>
       <c r="C464" s="68"/>
@@ -9013,7 +9010,7 @@
       <c r="K464" s="15"/>
       <c r="L464" s="15"/>
     </row>
-    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="15"/>
       <c r="B465" s="55"/>
       <c r="C465" s="68"/>
@@ -9027,7 +9024,7 @@
       <c r="K465" s="15"/>
       <c r="L465" s="15"/>
     </row>
-    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="15"/>
       <c r="B466" s="55"/>
       <c r="C466" s="68"/>
@@ -9041,7 +9038,7 @@
       <c r="K466" s="15"/>
       <c r="L466" s="15"/>
     </row>
-    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="15"/>
       <c r="B467" s="55"/>
       <c r="C467" s="68"/>
@@ -9055,7 +9052,7 @@
       <c r="K467" s="15"/>
       <c r="L467" s="15"/>
     </row>
-    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="15"/>
       <c r="B468" s="55"/>
       <c r="C468" s="68"/>
@@ -9069,7 +9066,7 @@
       <c r="K468" s="15"/>
       <c r="L468" s="15"/>
     </row>
-    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="15"/>
       <c r="B469" s="55"/>
       <c r="C469" s="68"/>
@@ -9083,7 +9080,7 @@
       <c r="K469" s="15"/>
       <c r="L469" s="15"/>
     </row>
-    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="15"/>
       <c r="B470" s="55"/>
       <c r="C470" s="68"/>
@@ -9097,7 +9094,7 @@
       <c r="K470" s="15"/>
       <c r="L470" s="15"/>
     </row>
-    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="15"/>
       <c r="B471" s="55"/>
       <c r="C471" s="68"/>
@@ -9111,7 +9108,7 @@
       <c r="K471" s="15"/>
       <c r="L471" s="15"/>
     </row>
-    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="15"/>
       <c r="B472" s="55"/>
       <c r="C472" s="68"/>
@@ -9125,7 +9122,7 @@
       <c r="K472" s="15"/>
       <c r="L472" s="15"/>
     </row>
-    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="15"/>
       <c r="B473" s="55"/>
       <c r="C473" s="68"/>
@@ -9139,7 +9136,7 @@
       <c r="K473" s="15"/>
       <c r="L473" s="15"/>
     </row>
-    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="15"/>
       <c r="B474" s="55"/>
       <c r="C474" s="68"/>
@@ -9153,7 +9150,7 @@
       <c r="K474" s="15"/>
       <c r="L474" s="15"/>
     </row>
-    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="15"/>
       <c r="B475" s="55"/>
       <c r="C475" s="68"/>
@@ -9167,7 +9164,7 @@
       <c r="K475" s="15"/>
       <c r="L475" s="15"/>
     </row>
-    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="15"/>
       <c r="B476" s="55"/>
       <c r="C476" s="68"/>
@@ -9181,7 +9178,7 @@
       <c r="K476" s="15"/>
       <c r="L476" s="15"/>
     </row>
-    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="15"/>
       <c r="B477" s="55"/>
       <c r="C477" s="68"/>
@@ -9195,7 +9192,7 @@
       <c r="K477" s="15"/>
       <c r="L477" s="15"/>
     </row>
-    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="15"/>
       <c r="B478" s="55"/>
       <c r="C478" s="68"/>
@@ -9209,7 +9206,7 @@
       <c r="K478" s="15"/>
       <c r="L478" s="15"/>
     </row>
-    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="15"/>
       <c r="B479" s="55"/>
       <c r="C479" s="68"/>
@@ -9223,7 +9220,7 @@
       <c r="K479" s="15"/>
       <c r="L479" s="15"/>
     </row>
-    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="15"/>
       <c r="B480" s="55"/>
       <c r="C480" s="68"/>
@@ -9237,7 +9234,7 @@
       <c r="K480" s="15"/>
       <c r="L480" s="15"/>
     </row>
-    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="15"/>
       <c r="B481" s="55"/>
       <c r="C481" s="68"/>
@@ -9251,7 +9248,7 @@
       <c r="K481" s="15"/>
       <c r="L481" s="15"/>
     </row>
-    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="15"/>
       <c r="B482" s="55"/>
       <c r="C482" s="68"/>
@@ -9265,7 +9262,7 @@
       <c r="K482" s="15"/>
       <c r="L482" s="15"/>
     </row>
-    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="15"/>
       <c r="B483" s="55"/>
       <c r="C483" s="68"/>
@@ -9279,7 +9276,7 @@
       <c r="K483" s="15"/>
       <c r="L483" s="15"/>
     </row>
-    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="15"/>
       <c r="B484" s="55"/>
       <c r="C484" s="68"/>
@@ -9293,7 +9290,7 @@
       <c r="K484" s="15"/>
       <c r="L484" s="15"/>
     </row>
-    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="15"/>
       <c r="B485" s="55"/>
       <c r="C485" s="68"/>
@@ -9307,7 +9304,7 @@
       <c r="K485" s="15"/>
       <c r="L485" s="15"/>
     </row>
-    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="15"/>
       <c r="B486" s="55"/>
       <c r="C486" s="68"/>
@@ -9321,7 +9318,7 @@
       <c r="K486" s="15"/>
       <c r="L486" s="15"/>
     </row>
-    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="15"/>
       <c r="B487" s="55"/>
       <c r="C487" s="68"/>
@@ -9335,7 +9332,7 @@
       <c r="K487" s="15"/>
       <c r="L487" s="15"/>
     </row>
-    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="15"/>
       <c r="B488" s="55"/>
       <c r="C488" s="68"/>
@@ -9349,7 +9346,7 @@
       <c r="K488" s="15"/>
       <c r="L488" s="15"/>
     </row>
-    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="15"/>
       <c r="B489" s="55"/>
       <c r="C489" s="68"/>
@@ -9363,7 +9360,7 @@
       <c r="K489" s="15"/>
       <c r="L489" s="15"/>
     </row>
-    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="15"/>
       <c r="B490" s="55"/>
       <c r="C490" s="68"/>
@@ -9377,7 +9374,7 @@
       <c r="K490" s="15"/>
       <c r="L490" s="15"/>
     </row>
-    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="15"/>
       <c r="B491" s="55"/>
       <c r="C491" s="68"/>
@@ -9391,7 +9388,7 @@
       <c r="K491" s="15"/>
       <c r="L491" s="15"/>
     </row>
-    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="15"/>
       <c r="B492" s="55"/>
       <c r="C492" s="68"/>
@@ -9405,7 +9402,7 @@
       <c r="K492" s="15"/>
       <c r="L492" s="15"/>
     </row>
-    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="15"/>
       <c r="B493" s="55"/>
       <c r="C493" s="68"/>
@@ -9419,7 +9416,7 @@
       <c r="K493" s="15"/>
       <c r="L493" s="15"/>
     </row>
-    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="15"/>
       <c r="B494" s="55"/>
       <c r="C494" s="68"/>
@@ -9433,7 +9430,7 @@
       <c r="K494" s="15"/>
       <c r="L494" s="15"/>
     </row>
-    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="15"/>
       <c r="B495" s="55"/>
       <c r="C495" s="68"/>
@@ -9447,7 +9444,7 @@
       <c r="K495" s="15"/>
       <c r="L495" s="15"/>
     </row>
-    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="15"/>
       <c r="B496" s="55"/>
       <c r="C496" s="68"/>
@@ -9461,7 +9458,7 @@
       <c r="K496" s="15"/>
       <c r="L496" s="15"/>
     </row>
-    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="15"/>
       <c r="B497" s="55"/>
       <c r="C497" s="68"/>
@@ -9475,7 +9472,7 @@
       <c r="K497" s="15"/>
       <c r="L497" s="15"/>
     </row>
-    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="15"/>
       <c r="B498" s="55"/>
       <c r="C498" s="68"/>
@@ -9489,7 +9486,7 @@
       <c r="K498" s="15"/>
       <c r="L498" s="15"/>
     </row>
-    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="15"/>
       <c r="B499" s="55"/>
       <c r="C499" s="68"/>
@@ -9503,7 +9500,7 @@
       <c r="K499" s="15"/>
       <c r="L499" s="15"/>
     </row>
-    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="15"/>
       <c r="B500" s="55"/>
       <c r="C500" s="68"/>
@@ -9517,7 +9514,7 @@
       <c r="K500" s="15"/>
       <c r="L500" s="15"/>
     </row>
-    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="15"/>
       <c r="B501" s="55"/>
       <c r="C501" s="68"/>
@@ -9531,7 +9528,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="15"/>
     </row>
-    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="15"/>
       <c r="B502" s="55"/>
       <c r="C502" s="68"/>
@@ -9545,7 +9542,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="15"/>
     </row>
-    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="15"/>
       <c r="B503" s="55"/>
       <c r="C503" s="68"/>
@@ -9559,7 +9556,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="15"/>
     </row>
-    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="15"/>
       <c r="B504" s="55"/>
       <c r="C504" s="68"/>
@@ -9573,7 +9570,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="15"/>
     </row>
-    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="15"/>
       <c r="B505" s="55"/>
       <c r="C505" s="68"/>
@@ -9587,7 +9584,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="15"/>
     </row>
-    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="15"/>
       <c r="B506" s="55"/>
       <c r="C506" s="68"/>
@@ -9601,7 +9598,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="15"/>
     </row>
-    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="15"/>
       <c r="B507" s="55"/>
       <c r="C507" s="68"/>
@@ -9615,7 +9612,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="15"/>
     </row>
-    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="15"/>
       <c r="B508" s="55"/>
       <c r="C508" s="68"/>
@@ -9629,7 +9626,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="15"/>
     </row>
-    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="15"/>
       <c r="B509" s="55"/>
       <c r="C509" s="68"/>
@@ -9643,7 +9640,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="15"/>
     </row>
-    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="15"/>
       <c r="B510" s="55"/>
       <c r="C510" s="68"/>
@@ -9657,7 +9654,7 @@
       <c r="K510" s="15"/>
       <c r="L510" s="15"/>
     </row>
-    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="15"/>
       <c r="B511" s="55"/>
       <c r="C511" s="68"/>
@@ -9671,7 +9668,7 @@
       <c r="K511" s="15"/>
       <c r="L511" s="15"/>
     </row>
-    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="15"/>
       <c r="B512" s="55"/>
       <c r="C512" s="68"/>
@@ -9685,7 +9682,7 @@
       <c r="K512" s="15"/>
       <c r="L512" s="15"/>
     </row>
-    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="15"/>
       <c r="B513" s="55"/>
       <c r="C513" s="68"/>
@@ -9699,7 +9696,7 @@
       <c r="K513" s="15"/>
       <c r="L513" s="15"/>
     </row>
-    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="15"/>
       <c r="B514" s="55"/>
       <c r="C514" s="68"/>
@@ -9713,7 +9710,7 @@
       <c r="K514" s="15"/>
       <c r="L514" s="15"/>
     </row>
-    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="15"/>
       <c r="B515" s="55"/>
       <c r="C515" s="68"/>
@@ -9727,7 +9724,7 @@
       <c r="K515" s="15"/>
       <c r="L515" s="15"/>
     </row>
-    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="15"/>
       <c r="B516" s="55"/>
       <c r="C516" s="68"/>
@@ -9741,7 +9738,7 @@
       <c r="K516" s="15"/>
       <c r="L516" s="15"/>
     </row>
-    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="15"/>
       <c r="B517" s="55"/>
       <c r="C517" s="68"/>
@@ -9755,7 +9752,7 @@
       <c r="K517" s="15"/>
       <c r="L517" s="15"/>
     </row>
-    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="15"/>
       <c r="B518" s="55"/>
       <c r="C518" s="68"/>
@@ -9769,7 +9766,7 @@
       <c r="K518" s="15"/>
       <c r="L518" s="15"/>
     </row>
-    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="15"/>
       <c r="B519" s="55"/>
       <c r="C519" s="68"/>
@@ -9783,7 +9780,7 @@
       <c r="K519" s="15"/>
       <c r="L519" s="15"/>
     </row>
-    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="15"/>
       <c r="B520" s="55"/>
       <c r="C520" s="68"/>
@@ -9797,7 +9794,7 @@
       <c r="K520" s="15"/>
       <c r="L520" s="15"/>
     </row>
-    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="15"/>
       <c r="B521" s="55"/>
       <c r="C521" s="68"/>
@@ -9811,7 +9808,7 @@
       <c r="K521" s="15"/>
       <c r="L521" s="15"/>
     </row>
-    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="15"/>
       <c r="B522" s="55"/>
       <c r="C522" s="68"/>
@@ -9825,7 +9822,7 @@
       <c r="K522" s="15"/>
       <c r="L522" s="15"/>
     </row>
-    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="15"/>
       <c r="B523" s="55"/>
       <c r="C523" s="68"/>
@@ -9839,7 +9836,7 @@
       <c r="K523" s="15"/>
       <c r="L523" s="15"/>
     </row>
-    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="15"/>
       <c r="B524" s="55"/>
       <c r="C524" s="68"/>
@@ -9853,7 +9850,7 @@
       <c r="K524" s="15"/>
       <c r="L524" s="15"/>
     </row>
-    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="15"/>
       <c r="B525" s="55"/>
       <c r="C525" s="68"/>
@@ -9867,7 +9864,7 @@
       <c r="K525" s="15"/>
       <c r="L525" s="15"/>
     </row>
-    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="15"/>
       <c r="B526" s="55"/>
       <c r="C526" s="68"/>
@@ -9881,7 +9878,7 @@
       <c r="K526" s="15"/>
       <c r="L526" s="15"/>
     </row>
-    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="15"/>
       <c r="B527" s="55"/>
       <c r="C527" s="68"/>
@@ -9895,7 +9892,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="15"/>
     </row>
-    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="15"/>
       <c r="B528" s="55"/>
       <c r="C528" s="68"/>
@@ -9909,7 +9906,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="15"/>
     </row>
-    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="15"/>
       <c r="B529" s="55"/>
       <c r="C529" s="68"/>
@@ -9923,7 +9920,7 @@
       <c r="K529" s="15"/>
       <c r="L529" s="15"/>
     </row>
-    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="15"/>
       <c r="B530" s="55"/>
       <c r="C530" s="68"/>
@@ -9937,7 +9934,7 @@
       <c r="K530" s="15"/>
       <c r="L530" s="15"/>
     </row>
-    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="15"/>
       <c r="B531" s="55"/>
       <c r="C531" s="68"/>
@@ -9951,7 +9948,7 @@
       <c r="K531" s="15"/>
       <c r="L531" s="15"/>
     </row>
-    <row r="532" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="15"/>
       <c r="B532" s="55"/>
       <c r="C532" s="68"/>
@@ -9965,7 +9962,7 @@
       <c r="K532" s="15"/>
       <c r="L532" s="15"/>
     </row>
-    <row r="533" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="15"/>
       <c r="B533" s="55"/>
       <c r="C533" s="68"/>
@@ -9979,7 +9976,7 @@
       <c r="K533" s="15"/>
       <c r="L533" s="15"/>
     </row>
-    <row r="534" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="15"/>
       <c r="B534" s="55"/>
       <c r="C534" s="68"/>
@@ -9993,7 +9990,7 @@
       <c r="K534" s="15"/>
       <c r="L534" s="15"/>
     </row>
-    <row r="535" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="15"/>
       <c r="B535" s="55"/>
       <c r="C535" s="68"/>
@@ -10007,7 +10004,7 @@
       <c r="K535" s="15"/>
       <c r="L535" s="15"/>
     </row>
-    <row r="536" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="15"/>
       <c r="B536" s="55"/>
       <c r="C536" s="68"/>
@@ -10021,7 +10018,7 @@
       <c r="K536" s="15"/>
       <c r="L536" s="15"/>
     </row>
-    <row r="537" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="15"/>
       <c r="B537" s="55"/>
       <c r="C537" s="68"/>
@@ -10035,7 +10032,7 @@
       <c r="K537" s="15"/>
       <c r="L537" s="15"/>
     </row>
-    <row r="538" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="15"/>
       <c r="B538" s="55"/>
       <c r="C538" s="68"/>
@@ -10049,7 +10046,7 @@
       <c r="K538" s="15"/>
       <c r="L538" s="15"/>
     </row>
-    <row r="539" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="15"/>
       <c r="B539" s="55"/>
       <c r="C539" s="68"/>
@@ -10063,7 +10060,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="15"/>
     </row>
-    <row r="540" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="15"/>
       <c r="B540" s="55"/>
       <c r="C540" s="68"/>
@@ -10077,7 +10074,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="15"/>
     </row>
-    <row r="541" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="15"/>
       <c r="B541" s="55"/>
       <c r="C541" s="68"/>
@@ -10091,7 +10088,7 @@
       <c r="K541" s="15"/>
       <c r="L541" s="15"/>
     </row>
-    <row r="542" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="15"/>
       <c r="B542" s="55"/>
       <c r="C542" s="68"/>
@@ -10105,7 +10102,7 @@
       <c r="K542" s="15"/>
       <c r="L542" s="15"/>
     </row>
-    <row r="543" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="15"/>
       <c r="B543" s="55"/>
       <c r="C543" s="68"/>
@@ -10119,7 +10116,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="15"/>
     </row>
-    <row r="544" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="15"/>
       <c r="B544" s="55"/>
       <c r="C544" s="68"/>
@@ -10133,7 +10130,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="15"/>
     </row>
-    <row r="545" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="15"/>
       <c r="B545" s="55"/>
       <c r="C545" s="68"/>
@@ -10147,7 +10144,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="15"/>
     </row>
-    <row r="546" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="15"/>
       <c r="B546" s="55"/>
       <c r="C546" s="68"/>
@@ -10161,7 +10158,7 @@
       <c r="K546" s="15"/>
       <c r="L546" s="15"/>
     </row>
-    <row r="547" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="15"/>
       <c r="B547" s="55"/>
       <c r="C547" s="68"/>
@@ -10175,7 +10172,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="15"/>
     </row>
-    <row r="548" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="15"/>
       <c r="B548" s="55"/>
       <c r="C548" s="68"/>
@@ -10189,7 +10186,7 @@
       <c r="K548" s="15"/>
       <c r="L548" s="15"/>
     </row>
-    <row r="549" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="15"/>
       <c r="B549" s="55"/>
       <c r="C549" s="68"/>
@@ -10203,2181 +10200,2181 @@
       <c r="K549" s="15"/>
       <c r="L549" s="15"/>
     </row>
-    <row r="550" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="15"/>
       <c r="B550" s="55"/>
       <c r="C550" s="68"/>
     </row>
-    <row r="551" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="55"/>
     </row>
-    <row r="552" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="55"/>
     </row>
-    <row r="553" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="55"/>
     </row>
-    <row r="554" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="55"/>
     </row>
-    <row r="555" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="55"/>
     </row>
-    <row r="556" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="55"/>
     </row>
-    <row r="557" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="55"/>
     </row>
-    <row r="558" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="55"/>
     </row>
-    <row r="559" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="55"/>
     </row>
-    <row r="560" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="55"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="55"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="55"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="55"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="55"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="55"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="55"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="55"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="55"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="55"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="55"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="55"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="55"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="55"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="55"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="55"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="55"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="55"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="55"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="55"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="55"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="55"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="55"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="55"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="55"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="55"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="55"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="55"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="55"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="55"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="55"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="55"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="55"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="55"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="55"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="55"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="55"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="55"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="55"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="55"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="55"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="55"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="55"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="55"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="55"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="55"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="55"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="55"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="55"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="55"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="55"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="55"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="55"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="55"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="55"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="55"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="55"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="55"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="55"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="55"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="55"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="55"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="55"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="55"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="55"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="55"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="55"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="55"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="55"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="55"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="55"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="55"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="55"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="55"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="55"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="55"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="55"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="55"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="55"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="55"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="55"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="55"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="55"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="55"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="55"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="55"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="55"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="55"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="55"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="55"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="55"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="55"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="55"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="55"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="55"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="55"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="55"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="55"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="55"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="55"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="55"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="55"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="55"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="55"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="55"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="55"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="55"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="55"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="55"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="55"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="55"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="55"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="55"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="55"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="55"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="55"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="55"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="55"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="55"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="55"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="55"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="55"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="55"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="55"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="55"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="55"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="55"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="55"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="55"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="55"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="55"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="55"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="55"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="55"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="55"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="55"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="55"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="55"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="55"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="55"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="55"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="55"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="55"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="55"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="55"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="55"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="55"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="55"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="55"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="55"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="55"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="55"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="55"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="55"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="55"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="55"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="55"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="55"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="55"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="55"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="55"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="55"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="55"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="55"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="55"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="55"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="55"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="55"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="55"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="55"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="55"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="55"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="55"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="55"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="55"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="55"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="55"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="55"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="55"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="55"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="55"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="55"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="55"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="55"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="55"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="55"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="55"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="55"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="55"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="55"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="55"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="55"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="55"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="55"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="55"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="55"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="55"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="55"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="55"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="55"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="55"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="55"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="55"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="55"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="55"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="55"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="55"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="55"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="55"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="55"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="55"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="55"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="55"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="55"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="55"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="55"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="55"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="55"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="55"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="55"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="55"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="55"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="55"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="55"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="55"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="55"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="55"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="55"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="55"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="55"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="55"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="55"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="55"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="55"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="55"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="55"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="55"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="55"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="55"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="55"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="55"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="55"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="55"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="55"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="55"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="55"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="55"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="55"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="55"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="55"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="55"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="55"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="55"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="55"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="55"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="55"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="55"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="55"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="55"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="55"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="55"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="55"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="55"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="55"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="55"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="55"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="55"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="55"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="55"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="55"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="55"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="55"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="55"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="55"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="55"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="55"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="55"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="55"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="55"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="55"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="55"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="55"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="55"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="55"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="55"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="55"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="55"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="55"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="55"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="55"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="55"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="55"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="55"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="55"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="55"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="55"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="55"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="55"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="55"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="55"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="55"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="55"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="55"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="55"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="55"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="55"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="55"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="55"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="55"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="55"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="55"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="55"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="55"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="55"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="55"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="55"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="55"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="55"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="55"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="55"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="55"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="55"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="55"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="55"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="55"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="55"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="55"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="55"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="55"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="55"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="55"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="55"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="55"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="55"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="55"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="55"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="55"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="55"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="55"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="55"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="55"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="55"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="55"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="55"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="55"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="55"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="55"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="55"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="55"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="55"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="55"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="55"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="55"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="55"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="55"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="55"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="55"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="55"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="55"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="55"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="55"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="55"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="55"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="55"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="55"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="55"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="55"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="55"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="55"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="55"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="55"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="55"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="55"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="55"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="55"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="55"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="55"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="55"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="55"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="55"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="55"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="55"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="55"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="55"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="55"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="55"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="55"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="55"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="55"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="55"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="55"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="55"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="55"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="55"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="55"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="55"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="55"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="55"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="55"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="55"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="55"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="55"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="55"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="55"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="55"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="55"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="55"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="55"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="55"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="55"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="55"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="55"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="55"/>
     </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="55"/>
     </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="55"/>
     </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="55"/>
     </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="55"/>
     </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="55"/>
     </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="55"/>
     </row>
-    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="55"/>
     </row>
-    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="55"/>
     </row>
-    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="55"/>
     </row>
-    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="55"/>
     </row>
-    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="55"/>
     </row>
-    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="55"/>
     </row>
-    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="55"/>
     </row>
-    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="55"/>
     </row>
-    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="55"/>
     </row>
-    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="55"/>
     </row>
-    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="55"/>
     </row>
-    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="55"/>
     </row>
-    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="55"/>
     </row>
-    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="55"/>
     </row>
-    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="55"/>
     </row>
-    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="55"/>
     </row>
-    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="55"/>
     </row>
-    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="55"/>
     </row>
-    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="55"/>
     </row>
-    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="55"/>
     </row>
-    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="55"/>
     </row>
-    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="55"/>
     </row>
-    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="55"/>
     </row>
-    <row r="1002" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1002" s="55"/>
     </row>
-    <row r="1003" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1003" s="55"/>
     </row>
-    <row r="1004" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1004" s="55"/>
     </row>
-    <row r="1005" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1005" s="55"/>
     </row>
-    <row r="1006" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1006" s="55"/>
     </row>
-    <row r="1007" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1007" s="55"/>
     </row>
-    <row r="1008" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1008" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1008" s="55"/>
     </row>
-    <row r="1009" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1009" s="55"/>
     </row>
-    <row r="1010" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1010" s="55"/>
     </row>
-    <row r="1011" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1011" s="55"/>
     </row>
-    <row r="1012" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1012" s="55"/>
     </row>
-    <row r="1013" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1013" s="55"/>
     </row>
-    <row r="1014" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1014" s="55"/>
     </row>
-    <row r="1015" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1015" s="55"/>
     </row>
-    <row r="1016" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1016" s="55"/>
     </row>
-    <row r="1017" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1017" s="55"/>
     </row>
-    <row r="1018" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1018" s="55"/>
     </row>
-    <row r="1019" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1019" s="55"/>
     </row>
-    <row r="1020" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1020" s="55"/>
     </row>
-    <row r="1021" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1021" s="55"/>
     </row>
-    <row r="1022" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1022" s="55"/>
     </row>
-    <row r="1023" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1023" s="55"/>
     </row>
-    <row r="1024" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1024" s="55"/>
     </row>
-    <row r="1025" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1025" s="55"/>
     </row>
-    <row r="1026" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1026" s="55"/>
     </row>
-    <row r="1027" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1027" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1027" s="55"/>
     </row>
-    <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1028" s="55"/>
     </row>
-    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1029" s="55"/>
     </row>
-    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1030" s="55"/>
     </row>
-    <row r="1031" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1031" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1031" s="55"/>
     </row>
-    <row r="1032" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1032" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1032" s="55"/>
     </row>
-    <row r="1033" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1033" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1033" s="55"/>
     </row>
-    <row r="1034" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1034" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1034" s="55"/>
     </row>
-    <row r="1035" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1035" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1035" s="55"/>
     </row>
-    <row r="1036" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1036" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1036" s="55"/>
     </row>
-    <row r="1037" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1037" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1037" s="55"/>
     </row>
-    <row r="1038" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1038" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1038" s="55"/>
     </row>
-    <row r="1039" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1039" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1039" s="55"/>
     </row>
-    <row r="1040" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1040" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1040" s="55"/>
     </row>
-    <row r="1041" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1041" s="55"/>
     </row>
-    <row r="1042" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1042" s="55"/>
     </row>
-    <row r="1043" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1043" s="55"/>
     </row>
-    <row r="1044" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1044" s="55"/>
     </row>
-    <row r="1045" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1045" s="55"/>
     </row>
-    <row r="1046" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1046" s="55"/>
     </row>
-    <row r="1047" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1047" s="55"/>
     </row>
-    <row r="1048" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1048" s="55"/>
     </row>
-    <row r="1049" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1049" s="55"/>
     </row>
-    <row r="1050" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1050" s="55"/>
     </row>
-    <row r="1051" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1051" s="55"/>
     </row>
-    <row r="1052" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1052" s="55"/>
     </row>
-    <row r="1053" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1053" s="55"/>
     </row>
-    <row r="1054" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1054" s="55"/>
     </row>
-    <row r="1055" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1055" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1055" s="55"/>
     </row>
-    <row r="1056" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1056" s="55"/>
     </row>
-    <row r="1057" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1057" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1057" s="55"/>
     </row>
-    <row r="1058" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1058" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1058" s="55"/>
     </row>
-    <row r="1059" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1059" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1059" s="55"/>
     </row>
-    <row r="1060" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1060" s="55"/>
     </row>
-    <row r="1061" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1061" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1061" s="55"/>
     </row>
-    <row r="1062" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1062" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1062" s="55"/>
     </row>
-    <row r="1063" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1063" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1063" s="55"/>
     </row>
-    <row r="1064" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1064" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1064" s="55"/>
     </row>
-    <row r="1065" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1065" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1065" s="55"/>
     </row>
-    <row r="1066" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1066" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1066" s="55"/>
     </row>
-    <row r="1067" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1067" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1067" s="55"/>
     </row>
-    <row r="1068" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1068" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1068" s="55"/>
     </row>
-    <row r="1069" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1069" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1069" s="55"/>
     </row>
-    <row r="1070" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1070" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1070" s="55"/>
     </row>
-    <row r="1071" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1071" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1071" s="55"/>
     </row>
-    <row r="1072" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1072" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1072" s="55"/>
     </row>
-    <row r="1073" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1073" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1073" s="55"/>
     </row>
-    <row r="1074" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1074" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1074" s="55"/>
     </row>
-    <row r="1075" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1075" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1075" s="55"/>
     </row>
-    <row r="1076" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1076" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1076" s="55"/>
     </row>
-    <row r="1077" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1077" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1077" s="55"/>
     </row>
-    <row r="1078" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1078" s="55"/>
     </row>
-    <row r="1079" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1079" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1079" s="55"/>
     </row>
-    <row r="1080" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1080" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1080" s="55"/>
     </row>
-    <row r="1081" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1081" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1081" s="55"/>
     </row>
-    <row r="1082" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1082" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1082" s="55"/>
     </row>
-    <row r="1083" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1083" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1083" s="55"/>
     </row>
-    <row r="1084" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1084" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1084" s="55"/>
     </row>
-    <row r="1085" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1085" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1085" s="55"/>
     </row>
-    <row r="1086" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1086" s="55"/>
     </row>
-    <row r="1087" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1087" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1087" s="55"/>
     </row>
-    <row r="1088" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1088" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1088" s="55"/>
     </row>
-    <row r="1089" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1089" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1089" s="55"/>
     </row>
-    <row r="1090" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1090" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1090" s="55"/>
     </row>
-    <row r="1091" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1091" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1091" s="55"/>
     </row>
-    <row r="1092" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1092" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1092" s="55"/>
     </row>
-    <row r="1093" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1093" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1093" s="55"/>
     </row>
-    <row r="1094" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1094" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1094" s="55"/>
     </row>
-    <row r="1095" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1095" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1095" s="55"/>
     </row>
-    <row r="1096" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1096" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1096" s="55"/>
     </row>
-    <row r="1097" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1097" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1097" s="55"/>
     </row>
-    <row r="1098" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1098" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1098" s="55"/>
     </row>
-    <row r="1099" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1099" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1099" s="55"/>
     </row>
-    <row r="1100" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1100" s="55"/>
     </row>
-    <row r="1101" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1101" s="55"/>
     </row>
-    <row r="1102" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1102" s="55"/>
     </row>
-    <row r="1103" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1103" s="55"/>
     </row>
-    <row r="1104" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1104" s="55"/>
     </row>
-    <row r="1105" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1105" s="55"/>
     </row>
-    <row r="1106" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1106" s="55"/>
     </row>
-    <row r="1107" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1107" s="55"/>
     </row>
-    <row r="1108" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1108" s="55"/>
     </row>
-    <row r="1109" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1109" s="55"/>
     </row>
-    <row r="1110" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1110" s="55"/>
     </row>
-    <row r="1111" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1111" s="55"/>
     </row>
-    <row r="1112" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1112" s="55"/>
     </row>
-    <row r="1113" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1113" s="55"/>
     </row>
-    <row r="1114" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1114" s="55"/>
     </row>
-    <row r="1115" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1115" s="55"/>
     </row>
-    <row r="1116" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1116" s="55"/>
     </row>
-    <row r="1117" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1117" s="55"/>
     </row>
-    <row r="1118" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1118" s="55"/>
     </row>
-    <row r="1119" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1119" s="55"/>
     </row>
-    <row r="1120" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1120" s="55"/>
     </row>
-    <row r="1121" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1121" s="55"/>
     </row>
-    <row r="1122" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1122" s="55"/>
     </row>
-    <row r="1123" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1123" s="55"/>
     </row>
-    <row r="1124" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1124" s="55"/>
     </row>
-    <row r="1125" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1125" s="55"/>
     </row>
-    <row r="1126" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1126" s="55"/>
     </row>
-    <row r="1127" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1127" s="55"/>
     </row>
-    <row r="1128" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1128" s="55"/>
     </row>
-    <row r="1129" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1129" s="55"/>
     </row>
-    <row r="1130" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1130" s="55"/>
     </row>
-    <row r="1131" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1131" s="55"/>
     </row>
-    <row r="1132" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1132" s="55"/>
     </row>
-    <row r="1133" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1133" s="55"/>
     </row>
-    <row r="1134" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1134" s="55"/>
     </row>
-    <row r="1135" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1135" s="55"/>
     </row>
-    <row r="1136" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1136" s="55"/>
     </row>
-    <row r="1137" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1137" s="55"/>
     </row>
-    <row r="1138" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1138" s="55"/>
     </row>
-    <row r="1139" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1139" s="55"/>
     </row>
-    <row r="1140" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1140" s="55"/>
     </row>
-    <row r="1141" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1141" s="55"/>
     </row>
-    <row r="1142" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1142" s="55"/>
     </row>
-    <row r="1143" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1143" s="55"/>
     </row>
-    <row r="1144" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1144" s="55"/>
     </row>
-    <row r="1145" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1145" s="55"/>
     </row>
-    <row r="1146" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1146" s="55"/>
     </row>
-    <row r="1147" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1147" s="55"/>
     </row>
-    <row r="1148" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1148" s="55"/>
     </row>
-    <row r="1149" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1149" s="55"/>
     </row>
-    <row r="1150" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1150" s="55"/>
     </row>
-    <row r="1151" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1151" s="55"/>
     </row>
-    <row r="1152" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1152" s="55"/>
     </row>
-    <row r="1153" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1153" s="55"/>
     </row>
-    <row r="1154" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1154" s="55"/>
     </row>
-    <row r="1155" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1155" s="55"/>
     </row>
-    <row r="1156" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1156" s="55"/>
     </row>
-    <row r="1157" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1157" s="55"/>
     </row>
-    <row r="1158" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1158" s="55"/>
     </row>
-    <row r="1159" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1159" s="55"/>
     </row>
-    <row r="1160" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1160" s="55"/>
     </row>
-    <row r="1161" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1161" s="55"/>
     </row>
-    <row r="1162" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1162" s="55"/>
     </row>
-    <row r="1163" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1163" s="55"/>
     </row>
-    <row r="1164" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1164" s="55"/>
     </row>
-    <row r="1165" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1165" s="55"/>
     </row>
-    <row r="1166" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1166" s="55"/>
     </row>
-    <row r="1167" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1167" s="55"/>
     </row>
-    <row r="1168" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1168" s="55"/>
     </row>
-    <row r="1169" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1169" s="55"/>
     </row>
-    <row r="1170" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1170" s="55"/>
     </row>
-    <row r="1171" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1171" s="55"/>
     </row>
-    <row r="1172" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1172" s="55"/>
     </row>
-    <row r="1173" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1173" s="55"/>
     </row>
-    <row r="1174" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1174" s="55"/>
     </row>
-    <row r="1175" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1175" s="55"/>
     </row>
-    <row r="1176" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1176" s="55"/>
     </row>
-    <row r="1177" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1177" s="55"/>
     </row>
-    <row r="1178" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1178" s="55"/>
     </row>
-    <row r="1179" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1179" s="55"/>
     </row>
-    <row r="1180" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1180" s="55"/>
     </row>
-    <row r="1181" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1181" s="55"/>
     </row>
-    <row r="1182" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1182" s="55"/>
     </row>
-    <row r="1183" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1183" s="55"/>
     </row>
-    <row r="1184" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1184" s="55"/>
     </row>
-    <row r="1185" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1185" s="55"/>
     </row>
-    <row r="1186" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1186" s="55"/>
     </row>
-    <row r="1187" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1187" s="55"/>
     </row>
-    <row r="1188" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1188" s="55"/>
     </row>
-    <row r="1189" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1189" s="55"/>
     </row>
-    <row r="1190" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1190" s="55"/>
     </row>
-    <row r="1191" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1191" s="55"/>
     </row>
-    <row r="1192" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1192" s="55"/>
     </row>
-    <row r="1193" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1193" s="55"/>
     </row>
-    <row r="1194" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1194" s="55"/>
     </row>
-    <row r="1195" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1195" s="55"/>
     </row>
-    <row r="1196" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1196" s="55"/>
     </row>
-    <row r="1197" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1197" s="55"/>
     </row>
-    <row r="1198" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1198" s="55"/>
     </row>
-    <row r="1199" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1199" s="55"/>
     </row>
-    <row r="1200" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1200" s="55"/>
     </row>
-    <row r="1201" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1201" s="55"/>
     </row>
-    <row r="1202" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1202" s="55"/>
     </row>
-    <row r="1203" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1203" s="55"/>
     </row>
-    <row r="1204" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1204" s="55"/>
     </row>
-    <row r="1205" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1205" s="55"/>
     </row>
-    <row r="1206" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1206" s="55"/>
     </row>
-    <row r="1207" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1207" s="55"/>
     </row>
-    <row r="1208" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1208" s="55"/>
     </row>
-    <row r="1209" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1209" s="55"/>
     </row>
-    <row r="1210" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1210" s="55"/>
     </row>
-    <row r="1211" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1211" s="55"/>
     </row>
-    <row r="1212" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1212" s="55"/>
     </row>
-    <row r="1213" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1213" s="55"/>
     </row>
-    <row r="1214" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1214" s="55"/>
     </row>
-    <row r="1215" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1215" s="55"/>
     </row>
-    <row r="1216" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1216" s="55"/>
     </row>
-    <row r="1217" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1217" s="55"/>
     </row>
-    <row r="1218" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1218" s="55"/>
     </row>
-    <row r="1219" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1219" s="55"/>
     </row>
-    <row r="1220" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1220" s="55"/>
     </row>
-    <row r="1221" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1221" s="55"/>
     </row>
-    <row r="1222" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1222" s="55"/>
     </row>
-    <row r="1223" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1223" s="55"/>
     </row>
-    <row r="1224" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1224" s="55"/>
     </row>
-    <row r="1225" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1225" s="55"/>
     </row>
-    <row r="1226" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1226" s="55"/>
     </row>
-    <row r="1227" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1227" s="55"/>
     </row>
-    <row r="1228" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1228" s="55"/>
     </row>
-    <row r="1229" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1229" s="55"/>
     </row>
-    <row r="1230" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1230" s="55"/>
     </row>
-    <row r="1231" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1231" s="55"/>
     </row>
-    <row r="1232" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1232" s="55"/>
     </row>
-    <row r="1233" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1233" s="55"/>
     </row>
-    <row r="1234" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1234" s="55"/>
     </row>
-    <row r="1235" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1235" s="55"/>
     </row>
-    <row r="1236" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1236" s="55"/>
     </row>
-    <row r="1237" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1237" s="55"/>
     </row>
-    <row r="1238" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1238" s="55"/>
     </row>
-    <row r="1239" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1239" s="55"/>
     </row>
-    <row r="1240" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1240" s="55"/>
     </row>
-    <row r="1241" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1241" s="55"/>
     </row>
-    <row r="1242" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1242" s="55"/>
     </row>
-    <row r="1243" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1243" s="55"/>
     </row>
-    <row r="1244" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1244" s="55"/>
     </row>
-    <row r="1245" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1245" s="55"/>
     </row>
-    <row r="1246" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1246" s="55"/>
     </row>
-    <row r="1247" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1247" s="55"/>
     </row>
-    <row r="1248" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1248" s="55"/>
     </row>
-    <row r="1249" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1249" s="55"/>
     </row>
-    <row r="1250" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1250" s="55"/>
     </row>
-    <row r="1251" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1251" s="55"/>
     </row>
-    <row r="1252" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1252" s="55"/>
     </row>
-    <row r="1253" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1253" s="55"/>
     </row>
-    <row r="1254" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1254" s="55"/>
     </row>
-    <row r="1255" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1255" s="55"/>
     </row>
-    <row r="1256" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1256" s="55"/>
     </row>
-    <row r="1257" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1257" s="55"/>
     </row>
-    <row r="1258" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1258" s="55"/>
     </row>
-    <row r="1259" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1259" s="55"/>
     </row>
-    <row r="1260" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1260" s="55"/>
     </row>
-    <row r="1261" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1261" s="55"/>
     </row>
-    <row r="1262" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1262" s="55"/>
     </row>
-    <row r="1263" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1263" s="55"/>
     </row>
-    <row r="1264" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1264" s="55"/>
     </row>
-    <row r="1265" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1265" s="55"/>
     </row>
-    <row r="1266" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1266" s="55"/>
     </row>
-    <row r="1267" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1267" s="55"/>
     </row>
-    <row r="1268" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1268" s="55"/>
     </row>
-    <row r="1269" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1269" s="55"/>
     </row>
-    <row r="1270" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1270" s="55"/>
     </row>
-    <row r="1271" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1271" s="55"/>
     </row>
-    <row r="1272" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1272" s="55"/>
     </row>
-    <row r="1273" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1273" s="55"/>
     </row>
-    <row r="1274" spans="2:2" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1274" s="55"/>
     </row>
   </sheetData>
@@ -12398,12 +12395,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12414,7 +12411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -12425,7 +12422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -12436,19 +12433,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -12460,13 +12457,13 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -12485,7 +12482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -12501,7 +12498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -12509,7 +12506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -12517,7 +12514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
@@ -12525,13 +12522,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="I15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>31</v>
       </c>
@@ -12542,21 +12539,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100394901649B02EC40AECEE74373C2BCFB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c548092ed7ffde5bf55cdde70e885909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a610d30-47f5-48fa-993a-ebd5f6c01eb5" xmlns:ns4="8ef9ae36-75f4-4361-98b4-d13e7bd566ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="311fce01ccce723253d76312a734f73f" ns3:_="" ns4:_="">
     <xsd:import namespace="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
@@ -12779,10 +12761,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFFBAE0-186B-4BB1-AA49-34BDB2C855C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D5E42A-DB13-41EF-BF50-8CA2F680B9CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
+    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12805,20 +12813,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D5E42A-DB13-41EF-BF50-8CA2F680B9CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFFBAE0-186B-4BB1-AA49-34BDB2C855C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
-    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Camp RIO groups 21-22.xlsx
+++ b/data/Camp RIO groups 21-22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/steven_macapagal_ideapublicschools_org/Documents/Documents/GitHub/Camp-Rio-Year-3-21-22-/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/aline_orr_ideapublicschools_org/Documents/Documents/Github/Camp-Rio-Year-3-21-22-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{64EBCC02-F86A-4E41-8688-736987AA5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BE6686-967F-4E8D-B75C-1B333F3DD4D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{75D87B55-CA95-447F-8846-9A58417475AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20238" windowHeight="11431" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2022" sheetId="9" r:id="rId1"/>
@@ -1012,15 +1012,15 @@
       <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="69" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="17.8984375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="14.3984375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>44499</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>44508</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>44469</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>44454</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>44530</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>44517</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>44613</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>44609</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44461</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>44463</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>44545</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44483</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>44533</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>44539</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>44599</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>44600</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>44601</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>44603</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>44602</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>44621</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>44622</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>44546</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>44546</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44616</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44474</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>44497</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>44481</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>44501</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>44488</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>44489</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>44475</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>44490</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>44476</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>44546</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>44600</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>44601</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>44603</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>44603</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>44627</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>44602</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>44596</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="37">
         <v>44610</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>44566</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>44565</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>44460</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44505</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>44455</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>44454</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>44461</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>44468</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>44487</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>44606</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>44615</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>44453</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>44453</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>44456</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>44463</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>44579</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>44607</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>44620</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>44621</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>44622</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>44623</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>44616</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>44575</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>44594</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>44579</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>44599</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>44573</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>44545</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>44544</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="43">
         <v>44543</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="K73" s="30"/>
       <c r="L73" s="30"/>
     </row>
-    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="46">
         <v>44532</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="46">
         <v>44587</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>44470</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>44488</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="36">
         <v>44459</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>44498</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>44474</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
     </row>
-    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>44620</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
     </row>
-    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>44462</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>44572</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>44494</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>44505</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>44483</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>44580</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>44615</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>44573</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>44512</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>44455</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>44531</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="1:12" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>44540</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
     </row>
-    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>44536</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>44484</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>44467</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
     </row>
-    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>44491</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>44596</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
     </row>
-    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>44574</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
     </row>
-    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>44575</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
     </row>
-    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>44538</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
     </row>
-    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>44206</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
     </row>
-    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>44572</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>44537</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>44539</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>44567</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>44501</v>
       </c>
@@ -3330,7 +3330,7 @@
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
-    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>44496</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
-    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>44536</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>44627</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>44475</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
     </row>
-    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>44624</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="K112" s="29"/>
       <c r="L112" s="29"/>
     </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>44547</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>44547</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>44594</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
     </row>
-    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>44608</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
     </row>
-    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>44607</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
     </row>
-    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>44456</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
     </row>
-    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>44613</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
     </row>
-    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>44469</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
     </row>
-    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>44503</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
     </row>
-    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>44460</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
     </row>
-    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>44606</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>44530</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
         <v>71</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>44497</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>44498</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>44515</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
     </row>
-    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>44512</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>44529</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
     </row>
-    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="48">
         <v>44592</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="48">
         <v>44593</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
     </row>
-    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="48">
         <v>44593</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
     </row>
-    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>44532</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
     </row>
-    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>44529</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="15"/>
     </row>
-    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>44531</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
     </row>
-    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>44466</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
     </row>
-    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>44473</v>
       </c>
@@ -4004,7 +4004,7 @@
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>
     </row>
-    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>44540</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="K139" s="15"/>
       <c r="L139" s="15"/>
     </row>
-    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>44519</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="K140" s="15"/>
       <c r="L140" s="15"/>
     </row>
-    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>44495</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="K141" s="15"/>
       <c r="L141" s="15"/>
     </row>
-    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>44462</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
     </row>
-    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>44544</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
     </row>
-    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>44502</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="K144" s="15"/>
       <c r="L144" s="15"/>
     </row>
-    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>44614</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="K145" s="15"/>
       <c r="L145" s="15"/>
     </row>
-    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>44519</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
     </row>
-    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>44503</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
     </row>
-    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>44504</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
     </row>
-    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>44508</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="K149" s="15"/>
       <c r="L149" s="15"/>
     </row>
-    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>44509</v>
       </c>
@@ -4268,7 +4268,7 @@
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
     </row>
-    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="36">
         <v>44510</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
     </row>
-    <row r="152" spans="1:12" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>44511</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
     </row>
-    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>44502</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="K153" s="15"/>
       <c r="L153" s="15"/>
     </row>
-    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>44491</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="K154" s="15"/>
       <c r="L154" s="15"/>
     </row>
-    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>44470</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="K155" s="15"/>
       <c r="L155" s="15"/>
     </row>
-    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>44509</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="K156" s="15"/>
       <c r="L156" s="15"/>
     </row>
-    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>44510</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
     </row>
-    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>44511</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="K158" s="15"/>
       <c r="L158" s="15"/>
     </row>
-    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>44581</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="K159" s="15"/>
       <c r="L159" s="15"/>
     </row>
-    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>44571</v>
       </c>
@@ -4486,7 +4486,7 @@
       <c r="K160" s="15"/>
       <c r="L160" s="15"/>
     </row>
-    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>44571</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="K161" s="15"/>
       <c r="L161" s="15"/>
     </row>
-    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>44516</v>
       </c>
@@ -4530,7 +4530,7 @@
       <c r="K162" s="15"/>
       <c r="L162" s="15"/>
     </row>
-    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="51">
         <v>44518</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="K163" s="15"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>44515</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="K164" s="15"/>
       <c r="L164" s="15"/>
     </row>
-    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>44494</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="K165" s="15"/>
       <c r="L165" s="15"/>
     </row>
-    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>44473</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>44468</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="K167" s="15"/>
       <c r="L167" s="15"/>
     </row>
-    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>44484</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="K168" s="15"/>
       <c r="L168" s="15"/>
     </row>
-    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>44467</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="K169" s="15"/>
       <c r="L169" s="15"/>
     </row>
-    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>44490</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="K170" s="15"/>
       <c r="L170" s="15"/>
     </row>
-    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>44487</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="K171" s="15"/>
       <c r="L171" s="15"/>
     </row>
-    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>44496</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
     </row>
-    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>44495</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
     </row>
-    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>44517</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="K174" s="15"/>
       <c r="L174" s="15"/>
     </row>
-    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="38">
         <v>44504</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
     </row>
-    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>44516</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="K176" s="15"/>
       <c r="L176" s="15"/>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="51">
         <v>44518</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>44476</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="K178" s="29"/>
       <c r="L178" s="29"/>
     </row>
-    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>44609</v>
       </c>
@@ -4894,7 +4894,7 @@
       <c r="K179" s="15"/>
       <c r="L179" s="15"/>
     </row>
-    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>44586</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="K180" s="15"/>
       <c r="L180" s="15"/>
     </row>
-    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>44587</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="K181" s="15"/>
       <c r="L181" s="15"/>
     </row>
-    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>44608</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
     </row>
-    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="48">
         <v>44592</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
     </row>
-    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>44593</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="15"/>
     </row>
-    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>44574</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
     </row>
-    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>44466</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="15"/>
     </row>
-    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>44459</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
     </row>
-    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>44489</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="15"/>
     </row>
-    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>44586</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="K189" s="29"/>
       <c r="L189" s="29"/>
     </row>
-    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>44677</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="K190" s="15"/>
       <c r="L190" s="15"/>
     </row>
-    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>44678</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="K191" s="15"/>
       <c r="L191" s="15"/>
     </row>
-    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>44684</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="K192" s="15"/>
       <c r="L192" s="15"/>
     </row>
-    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>44685</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="K193" s="15"/>
       <c r="L193" s="15"/>
     </row>
-    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>44693</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="K194" s="15"/>
       <c r="L194" s="15"/>
     </row>
-    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>44698</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="K195" s="15"/>
       <c r="L195" s="15"/>
     </row>
-    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>44699</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="K196" s="15"/>
       <c r="L196" s="15"/>
     </row>
-    <row r="197" spans="1:12" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" s="74" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="71">
         <v>44701</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="19"/>
       <c r="B198" s="20"/>
       <c r="C198" s="27"/>
@@ -5286,7 +5286,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="15"/>
     </row>
-    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="25"/>
@@ -5300,7 +5300,7 @@
       <c r="K199" s="15"/>
       <c r="L199" s="15"/>
     </row>
-    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="16"/>
       <c r="B200" s="14"/>
       <c r="C200" s="25"/>
@@ -5314,7 +5314,7 @@
       <c r="K200" s="15"/>
       <c r="L200" s="15"/>
     </row>
-    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="25"/>
@@ -5328,7 +5328,7 @@
       <c r="K201" s="15"/>
       <c r="L201" s="15"/>
     </row>
-    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="25"/>
@@ -5342,7 +5342,7 @@
       <c r="K202" s="15"/>
       <c r="L202" s="15"/>
     </row>
-    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="25"/>
@@ -5356,7 +5356,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
     </row>
-    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="21"/>
       <c r="B204" s="14"/>
       <c r="C204" s="25"/>
@@ -5370,7 +5370,7 @@
       <c r="K204" s="15"/>
       <c r="L204" s="15"/>
     </row>
-    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="21"/>
       <c r="B205" s="14"/>
       <c r="C205" s="25"/>
@@ -5384,7 +5384,7 @@
       <c r="K205" s="15"/>
       <c r="L205" s="15"/>
     </row>
-    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="21"/>
       <c r="B206" s="14"/>
       <c r="C206" s="25"/>
@@ -5398,7 +5398,7 @@
       <c r="K206" s="15"/>
       <c r="L206" s="15"/>
     </row>
-    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" s="14"/>
       <c r="C207" s="25"/>
@@ -5412,7 +5412,7 @@
       <c r="K207" s="15"/>
       <c r="L207" s="15"/>
     </row>
-    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
       <c r="B208" s="14"/>
       <c r="C208" s="25"/>
@@ -5426,7 +5426,7 @@
       <c r="K208" s="15"/>
       <c r="L208" s="15"/>
     </row>
-    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
       <c r="B209" s="14"/>
       <c r="C209" s="25"/>
@@ -5440,7 +5440,7 @@
       <c r="K209" s="15"/>
       <c r="L209" s="15"/>
     </row>
-    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
       <c r="B210" s="14"/>
       <c r="C210" s="25"/>
@@ -5454,7 +5454,7 @@
       <c r="K210" s="15"/>
       <c r="L210" s="15"/>
     </row>
-    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
       <c r="B211" s="14"/>
       <c r="C211" s="25"/>
@@ -5468,7 +5468,7 @@
       <c r="K211" s="15"/>
       <c r="L211" s="15"/>
     </row>
-    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
       <c r="B212" s="14"/>
       <c r="C212" s="25"/>
@@ -5482,7 +5482,7 @@
       <c r="K212" s="15"/>
       <c r="L212" s="15"/>
     </row>
-    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
       <c r="B213" s="14"/>
       <c r="C213" s="25"/>
@@ -5496,7 +5496,7 @@
       <c r="K213" s="15"/>
       <c r="L213" s="15"/>
     </row>
-    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" s="14"/>
       <c r="C214" s="25"/>
@@ -5510,7 +5510,7 @@
       <c r="K214" s="15"/>
       <c r="L214" s="15"/>
     </row>
-    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="14"/>
       <c r="C215" s="25"/>
@@ -5524,7 +5524,7 @@
       <c r="K215" s="15"/>
       <c r="L215" s="15"/>
     </row>
-    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="16"/>
       <c r="B216" s="14"/>
       <c r="C216" s="25"/>
@@ -5538,7 +5538,7 @@
       <c r="K216" s="15"/>
       <c r="L216" s="15"/>
     </row>
-    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="16"/>
       <c r="B217" s="14"/>
       <c r="C217" s="25"/>
@@ -5552,7 +5552,7 @@
       <c r="K217" s="15"/>
       <c r="L217" s="15"/>
     </row>
-    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="16"/>
       <c r="B218" s="14"/>
       <c r="C218" s="25"/>
@@ -5566,7 +5566,7 @@
       <c r="K218" s="15"/>
       <c r="L218" s="15"/>
     </row>
-    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
       <c r="B219" s="14"/>
       <c r="C219" s="25"/>
@@ -5580,7 +5580,7 @@
       <c r="K219" s="15"/>
       <c r="L219" s="15"/>
     </row>
-    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
       <c r="B220" s="14"/>
       <c r="C220" s="25"/>
@@ -5594,7 +5594,7 @@
       <c r="K220" s="15"/>
       <c r="L220" s="15"/>
     </row>
-    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="14"/>
       <c r="C221" s="25"/>
@@ -5608,7 +5608,7 @@
       <c r="K221" s="15"/>
       <c r="L221" s="15"/>
     </row>
-    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="14"/>
       <c r="C222" s="25"/>
@@ -5622,7 +5622,7 @@
       <c r="K222" s="15"/>
       <c r="L222" s="15"/>
     </row>
-    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="16"/>
       <c r="B223" s="14"/>
       <c r="C223" s="25"/>
@@ -5636,7 +5636,7 @@
       <c r="K223" s="15"/>
       <c r="L223" s="15"/>
     </row>
-    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="16"/>
       <c r="B224" s="14"/>
       <c r="C224" s="25"/>
@@ -5650,7 +5650,7 @@
       <c r="K224" s="15"/>
       <c r="L224" s="15"/>
     </row>
-    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="16"/>
       <c r="B225" s="14"/>
       <c r="C225" s="25"/>
@@ -5664,7 +5664,7 @@
       <c r="K225" s="15"/>
       <c r="L225" s="15"/>
     </row>
-    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="16"/>
       <c r="B226" s="14"/>
       <c r="C226" s="25"/>
@@ -5678,7 +5678,7 @@
       <c r="K226" s="15"/>
       <c r="L226" s="15"/>
     </row>
-    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="16"/>
       <c r="B227" s="14"/>
       <c r="C227" s="25"/>
@@ -5692,7 +5692,7 @@
       <c r="K227" s="15"/>
       <c r="L227" s="15"/>
     </row>
-    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="16"/>
       <c r="B228" s="14"/>
       <c r="C228" s="25"/>
@@ -5706,7 +5706,7 @@
       <c r="K228" s="15"/>
       <c r="L228" s="15"/>
     </row>
-    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="25"/>
@@ -5720,7 +5720,7 @@
       <c r="K229" s="15"/>
       <c r="L229" s="15"/>
     </row>
-    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="25"/>
@@ -5734,7 +5734,7 @@
       <c r="K230" s="15"/>
       <c r="L230" s="15"/>
     </row>
-    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="16"/>
       <c r="B231" s="14"/>
       <c r="C231" s="25"/>
@@ -5748,7 +5748,7 @@
       <c r="K231" s="15"/>
       <c r="L231" s="15"/>
     </row>
-    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="16"/>
       <c r="B232" s="14"/>
       <c r="C232" s="25"/>
@@ -5762,7 +5762,7 @@
       <c r="K232" s="15"/>
       <c r="L232" s="15"/>
     </row>
-    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="16"/>
       <c r="B233" s="14"/>
       <c r="C233" s="25"/>
@@ -5776,7 +5776,7 @@
       <c r="K233" s="15"/>
       <c r="L233" s="15"/>
     </row>
-    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="16"/>
       <c r="B234" s="14"/>
       <c r="C234" s="25"/>
@@ -5790,7 +5790,7 @@
       <c r="K234" s="15"/>
       <c r="L234" s="15"/>
     </row>
-    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="25"/>
@@ -5804,7 +5804,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
     </row>
-    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="25"/>
@@ -5818,7 +5818,7 @@
       <c r="K236" s="15"/>
       <c r="L236" s="15"/>
     </row>
-    <row r="237" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21"/>
       <c r="B237" s="14"/>
       <c r="C237" s="25"/>
@@ -5832,7 +5832,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
     </row>
-    <row r="238" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="21"/>
       <c r="B238" s="14"/>
       <c r="C238" s="25"/>
@@ -5846,7 +5846,7 @@
       <c r="K238" s="15"/>
       <c r="L238" s="15"/>
     </row>
-    <row r="239" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="21"/>
       <c r="B239" s="14"/>
       <c r="C239" s="25"/>
@@ -5860,7 +5860,7 @@
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
     </row>
-    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="21"/>
       <c r="B240" s="14"/>
       <c r="C240" s="25"/>
@@ -5874,7 +5874,7 @@
       <c r="K240" s="15"/>
       <c r="L240" s="15"/>
     </row>
-    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="16"/>
       <c r="B241" s="14"/>
       <c r="C241" s="25"/>
@@ -5888,7 +5888,7 @@
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
     </row>
-    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="16"/>
       <c r="B242" s="14"/>
       <c r="C242" s="25"/>
@@ -5902,7 +5902,7 @@
       <c r="K242" s="15"/>
       <c r="L242" s="15"/>
     </row>
-    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="16"/>
       <c r="B243" s="14"/>
       <c r="C243" s="25"/>
@@ -5916,7 +5916,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="15"/>
     </row>
-    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="16"/>
       <c r="B244" s="14"/>
       <c r="C244" s="25"/>
@@ -5930,7 +5930,7 @@
       <c r="K244" s="15"/>
       <c r="L244" s="15"/>
     </row>
-    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="16"/>
       <c r="B245" s="14"/>
       <c r="C245" s="25"/>
@@ -5944,7 +5944,7 @@
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
     </row>
-    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="16"/>
       <c r="B246" s="14"/>
       <c r="C246" s="25"/>
@@ -5958,7 +5958,7 @@
       <c r="K246" s="15"/>
       <c r="L246" s="15"/>
     </row>
-    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="16"/>
       <c r="B247" s="14"/>
       <c r="C247" s="25"/>
@@ -5972,7 +5972,7 @@
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
     </row>
-    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="16"/>
       <c r="B248" s="14"/>
       <c r="C248" s="25"/>
@@ -5986,7 +5986,7 @@
       <c r="K248" s="15"/>
       <c r="L248" s="15"/>
     </row>
-    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="16"/>
       <c r="B249" s="14"/>
       <c r="C249" s="25"/>
@@ -6000,7 +6000,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="15"/>
     </row>
-    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="16"/>
       <c r="B250" s="14"/>
       <c r="C250" s="25"/>
@@ -6014,7 +6014,7 @@
       <c r="K250" s="15"/>
       <c r="L250" s="15"/>
     </row>
-    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="16"/>
       <c r="B251" s="14"/>
       <c r="C251" s="25"/>
@@ -6028,7 +6028,7 @@
       <c r="K251" s="15"/>
       <c r="L251" s="15"/>
     </row>
-    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="16"/>
       <c r="B252" s="14"/>
       <c r="C252" s="25"/>
@@ -6042,7 +6042,7 @@
       <c r="K252" s="15"/>
       <c r="L252" s="15"/>
     </row>
-    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="16"/>
       <c r="B253" s="14"/>
       <c r="C253" s="25"/>
@@ -6056,7 +6056,7 @@
       <c r="K253" s="15"/>
       <c r="L253" s="15"/>
     </row>
-    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="16"/>
       <c r="B254" s="14"/>
       <c r="C254" s="25"/>
@@ -6070,7 +6070,7 @@
       <c r="K254" s="15"/>
       <c r="L254" s="15"/>
     </row>
-    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="16"/>
       <c r="B255" s="14"/>
       <c r="C255" s="25"/>
@@ -6084,7 +6084,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
     </row>
-    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="25"/>
@@ -6098,7 +6098,7 @@
       <c r="K256" s="15"/>
       <c r="L256" s="15"/>
     </row>
-    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
       <c r="C257" s="25"/>
@@ -6112,7 +6112,7 @@
       <c r="K257" s="15"/>
       <c r="L257" s="15"/>
     </row>
-    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="16"/>
       <c r="B258" s="14"/>
       <c r="C258" s="25"/>
@@ -6126,7 +6126,7 @@
       <c r="K258" s="22"/>
       <c r="L258" s="22"/>
     </row>
-    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="16"/>
       <c r="B259" s="14"/>
       <c r="C259" s="25"/>
@@ -6140,7 +6140,7 @@
       <c r="K259" s="22"/>
       <c r="L259" s="22"/>
     </row>
-    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="25"/>
@@ -6154,7 +6154,7 @@
       <c r="K260" s="22"/>
       <c r="L260" s="22"/>
     </row>
-    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="16"/>
       <c r="B261" s="14"/>
       <c r="C261" s="25"/>
@@ -6168,7 +6168,7 @@
       <c r="K261" s="22"/>
       <c r="L261" s="22"/>
     </row>
-    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="16"/>
       <c r="B262" s="14"/>
       <c r="C262" s="25"/>
@@ -6182,7 +6182,7 @@
       <c r="K262" s="22"/>
       <c r="L262" s="22"/>
     </row>
-    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="16"/>
       <c r="B263" s="14"/>
       <c r="C263" s="25"/>
@@ -6196,7 +6196,7 @@
       <c r="K263" s="22"/>
       <c r="L263" s="22"/>
     </row>
-    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="16"/>
       <c r="B264" s="14"/>
       <c r="C264" s="25"/>
@@ -6210,7 +6210,7 @@
       <c r="K264" s="22"/>
       <c r="L264" s="22"/>
     </row>
-    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="16"/>
       <c r="B265" s="14"/>
       <c r="C265" s="25"/>
@@ -6224,7 +6224,7 @@
       <c r="K265" s="22"/>
       <c r="L265" s="22"/>
     </row>
-    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="16"/>
       <c r="B266" s="14"/>
       <c r="C266" s="25"/>
@@ -6238,7 +6238,7 @@
       <c r="K266" s="22"/>
       <c r="L266" s="22"/>
     </row>
-    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="16"/>
       <c r="B267" s="14"/>
       <c r="C267" s="25"/>
@@ -6252,7 +6252,7 @@
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
     </row>
-    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="16"/>
       <c r="B268" s="14"/>
       <c r="C268" s="25"/>
@@ -6266,7 +6266,7 @@
       <c r="K268" s="15"/>
       <c r="L268" s="15"/>
     </row>
-    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="25"/>
@@ -6280,7 +6280,7 @@
       <c r="K269" s="15"/>
       <c r="L269" s="15"/>
     </row>
-    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="25"/>
@@ -6294,7 +6294,7 @@
       <c r="K270" s="15"/>
       <c r="L270" s="15"/>
     </row>
-    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="25"/>
@@ -6308,7 +6308,7 @@
       <c r="K271" s="15"/>
       <c r="L271" s="15"/>
     </row>
-    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="25"/>
@@ -6322,7 +6322,7 @@
       <c r="K272" s="15"/>
       <c r="L272" s="15"/>
     </row>
-    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="25"/>
@@ -6336,7 +6336,7 @@
       <c r="K273" s="15"/>
       <c r="L273" s="15"/>
     </row>
-    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="16"/>
       <c r="B274" s="14"/>
       <c r="C274" s="25"/>
@@ -6350,7 +6350,7 @@
       <c r="K274" s="15"/>
       <c r="L274" s="15"/>
     </row>
-    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="16"/>
       <c r="B275" s="14"/>
       <c r="C275" s="25"/>
@@ -6364,7 +6364,7 @@
       <c r="K275" s="15"/>
       <c r="L275" s="15"/>
     </row>
-    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="16"/>
       <c r="B276" s="14"/>
       <c r="C276" s="25"/>
@@ -6378,7 +6378,7 @@
       <c r="K276" s="15"/>
       <c r="L276" s="15"/>
     </row>
-    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="16"/>
       <c r="B277" s="14"/>
       <c r="C277" s="25"/>
@@ -6392,7 +6392,7 @@
       <c r="K277" s="15"/>
       <c r="L277" s="15"/>
     </row>
-    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="16"/>
       <c r="B278" s="14"/>
       <c r="C278" s="25"/>
@@ -6406,7 +6406,7 @@
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
     </row>
-    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="25"/>
@@ -6420,7 +6420,7 @@
       <c r="K279" s="15"/>
       <c r="L279" s="15"/>
     </row>
-    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="16"/>
       <c r="B280" s="14"/>
       <c r="C280" s="25"/>
@@ -6434,7 +6434,7 @@
       <c r="K280" s="15"/>
       <c r="L280" s="15"/>
     </row>
-    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="16"/>
       <c r="B281" s="14"/>
       <c r="C281" s="25"/>
@@ -6448,7 +6448,7 @@
       <c r="K281" s="15"/>
       <c r="L281" s="15"/>
     </row>
-    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="16"/>
       <c r="B282" s="14"/>
       <c r="C282" s="25"/>
@@ -6462,7 +6462,7 @@
       <c r="K282" s="15"/>
       <c r="L282" s="15"/>
     </row>
-    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="16"/>
       <c r="B283" s="14"/>
       <c r="C283" s="25"/>
@@ -6476,7 +6476,7 @@
       <c r="K283" s="15"/>
       <c r="L283" s="15"/>
     </row>
-    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="16"/>
       <c r="B284" s="14"/>
       <c r="C284" s="25"/>
@@ -6490,7 +6490,7 @@
       <c r="K284" s="15"/>
       <c r="L284" s="15"/>
     </row>
-    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="16"/>
       <c r="B285" s="14"/>
       <c r="C285" s="25"/>
@@ -6504,7 +6504,7 @@
       <c r="K285" s="15"/>
       <c r="L285" s="15"/>
     </row>
-    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="16"/>
       <c r="B286" s="14"/>
       <c r="C286" s="25"/>
@@ -6518,7 +6518,7 @@
       <c r="K286" s="15"/>
       <c r="L286" s="15"/>
     </row>
-    <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="16"/>
       <c r="B287" s="14"/>
       <c r="C287" s="25"/>
@@ -6532,7 +6532,7 @@
       <c r="K287" s="15"/>
       <c r="L287" s="15"/>
     </row>
-    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="16"/>
       <c r="B288" s="14"/>
       <c r="C288" s="25"/>
@@ -6546,7 +6546,7 @@
       <c r="K288" s="15"/>
       <c r="L288" s="15"/>
     </row>
-    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="16"/>
       <c r="B289" s="14"/>
       <c r="C289" s="25"/>
@@ -6560,7 +6560,7 @@
       <c r="K289" s="15"/>
       <c r="L289" s="15"/>
     </row>
-    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="16"/>
       <c r="B290" s="14"/>
       <c r="C290" s="25"/>
@@ -6574,7 +6574,7 @@
       <c r="K290" s="15"/>
       <c r="L290" s="15"/>
     </row>
-    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="16"/>
       <c r="B291" s="14"/>
       <c r="C291" s="25"/>
@@ -6588,7 +6588,7 @@
       <c r="K291" s="15"/>
       <c r="L291" s="15"/>
     </row>
-    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="16"/>
       <c r="B292" s="14"/>
       <c r="C292" s="25"/>
@@ -6602,7 +6602,7 @@
       <c r="K292" s="15"/>
       <c r="L292" s="15"/>
     </row>
-    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="16"/>
       <c r="B293" s="14"/>
       <c r="C293" s="25"/>
@@ -6616,7 +6616,7 @@
       <c r="K293" s="15"/>
       <c r="L293" s="15"/>
     </row>
-    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="16"/>
       <c r="B294" s="14"/>
       <c r="C294" s="25"/>
@@ -6630,7 +6630,7 @@
       <c r="K294" s="15"/>
       <c r="L294" s="15"/>
     </row>
-    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="25"/>
@@ -6644,7 +6644,7 @@
       <c r="K295" s="15"/>
       <c r="L295" s="15"/>
     </row>
-    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="16"/>
       <c r="B296" s="14"/>
       <c r="C296" s="25"/>
@@ -6658,7 +6658,7 @@
       <c r="K296" s="15"/>
       <c r="L296" s="15"/>
     </row>
-    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="14"/>
       <c r="C297" s="25"/>
@@ -6672,7 +6672,7 @@
       <c r="K297" s="15"/>
       <c r="L297" s="15"/>
     </row>
-    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="16"/>
       <c r="B298" s="14"/>
       <c r="C298" s="25"/>
@@ -6686,7 +6686,7 @@
       <c r="K298" s="15"/>
       <c r="L298" s="15"/>
     </row>
-    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="16"/>
       <c r="B299" s="14"/>
       <c r="C299" s="25"/>
@@ -6700,7 +6700,7 @@
       <c r="K299" s="15"/>
       <c r="L299" s="15"/>
     </row>
-    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="16"/>
       <c r="B300" s="14"/>
       <c r="C300" s="25"/>
@@ -6714,7 +6714,7 @@
       <c r="K300" s="15"/>
       <c r="L300" s="15"/>
     </row>
-    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="16"/>
       <c r="B301" s="14"/>
       <c r="C301" s="25"/>
@@ -6728,7 +6728,7 @@
       <c r="K301" s="15"/>
       <c r="L301" s="15"/>
     </row>
-    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="16"/>
       <c r="B302" s="14"/>
       <c r="C302" s="25"/>
@@ -6742,7 +6742,7 @@
       <c r="K302" s="15"/>
       <c r="L302" s="15"/>
     </row>
-    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="16"/>
       <c r="B303" s="14"/>
       <c r="C303" s="25"/>
@@ -6756,7 +6756,7 @@
       <c r="K303" s="15"/>
       <c r="L303" s="15"/>
     </row>
-    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="14"/>
       <c r="C304" s="25"/>
@@ -6770,7 +6770,7 @@
       <c r="K304" s="15"/>
       <c r="L304" s="15"/>
     </row>
-    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="16"/>
       <c r="B305" s="14"/>
       <c r="C305" s="25"/>
@@ -6784,7 +6784,7 @@
       <c r="K305" s="15"/>
       <c r="L305" s="15"/>
     </row>
-    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="24"/>
       <c r="B306" s="14"/>
       <c r="C306" s="25"/>
@@ -6798,7 +6798,7 @@
       <c r="K306" s="15"/>
       <c r="L306" s="15"/>
     </row>
-    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="24"/>
       <c r="B307" s="14"/>
       <c r="C307" s="25"/>
@@ -6812,7 +6812,7 @@
       <c r="K307" s="15"/>
       <c r="L307" s="15"/>
     </row>
-    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="25"/>
@@ -6826,7 +6826,7 @@
       <c r="K308" s="15"/>
       <c r="L308" s="15"/>
     </row>
-    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="25"/>
@@ -6840,7 +6840,7 @@
       <c r="K309" s="15"/>
       <c r="L309" s="15"/>
     </row>
-    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="25"/>
@@ -6854,7 +6854,7 @@
       <c r="K310" s="15"/>
       <c r="L310" s="15"/>
     </row>
-    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="25"/>
@@ -6868,7 +6868,7 @@
       <c r="K311" s="15"/>
       <c r="L311" s="15"/>
     </row>
-    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="25"/>
@@ -6882,7 +6882,7 @@
       <c r="K312" s="15"/>
       <c r="L312" s="15"/>
     </row>
-    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="25"/>
@@ -6896,7 +6896,7 @@
       <c r="K313" s="15"/>
       <c r="L313" s="15"/>
     </row>
-    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="25"/>
@@ -6910,7 +6910,7 @@
       <c r="K314" s="15"/>
       <c r="L314" s="15"/>
     </row>
-    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" s="16"/>
       <c r="B315" s="14"/>
       <c r="C315" s="25"/>
@@ -6924,7 +6924,7 @@
       <c r="K315" s="15"/>
       <c r="L315" s="15"/>
     </row>
-    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="16"/>
       <c r="B316" s="14"/>
       <c r="C316" s="25"/>
@@ -6938,7 +6938,7 @@
       <c r="K316" s="15"/>
       <c r="L316" s="15"/>
     </row>
-    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="16"/>
       <c r="B317" s="14"/>
       <c r="C317" s="25"/>
@@ -6952,7 +6952,7 @@
       <c r="K317" s="15"/>
       <c r="L317" s="15"/>
     </row>
-    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="16"/>
       <c r="B318" s="14"/>
       <c r="C318" s="25"/>
@@ -6966,7 +6966,7 @@
       <c r="K318" s="15"/>
       <c r="L318" s="15"/>
     </row>
-    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" s="16"/>
       <c r="B319" s="14"/>
       <c r="C319" s="25"/>
@@ -6980,7 +6980,7 @@
       <c r="K319" s="15"/>
       <c r="L319" s="15"/>
     </row>
-    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="16"/>
       <c r="B320" s="14"/>
       <c r="C320" s="25"/>
@@ -6994,7 +6994,7 @@
       <c r="K320" s="15"/>
       <c r="L320" s="15"/>
     </row>
-    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="16"/>
       <c r="B321" s="14"/>
       <c r="C321" s="25"/>
@@ -7008,7 +7008,7 @@
       <c r="K321" s="15"/>
       <c r="L321" s="15"/>
     </row>
-    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="16"/>
       <c r="B322" s="14"/>
       <c r="C322" s="25"/>
@@ -7022,7 +7022,7 @@
       <c r="K322" s="15"/>
       <c r="L322" s="15"/>
     </row>
-    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="16"/>
       <c r="B323" s="14"/>
       <c r="C323" s="25"/>
@@ -7036,7 +7036,7 @@
       <c r="K323" s="15"/>
       <c r="L323" s="15"/>
     </row>
-    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="16"/>
       <c r="B324" s="14"/>
       <c r="C324" s="25"/>
@@ -7050,7 +7050,7 @@
       <c r="K324" s="15"/>
       <c r="L324" s="15"/>
     </row>
-    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="16"/>
       <c r="B325" s="14"/>
       <c r="C325" s="25"/>
@@ -7064,7 +7064,7 @@
       <c r="K325" s="15"/>
       <c r="L325" s="15"/>
     </row>
-    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="25"/>
@@ -7078,7 +7078,7 @@
       <c r="K326" s="15"/>
       <c r="L326" s="15"/>
     </row>
-    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="24"/>
       <c r="B327" s="14"/>
       <c r="C327" s="25"/>
@@ -7092,7 +7092,7 @@
       <c r="K327" s="15"/>
       <c r="L327" s="15"/>
     </row>
-    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="16"/>
       <c r="B328" s="14"/>
       <c r="C328" s="25"/>
@@ -7106,7 +7106,7 @@
       <c r="K328" s="15"/>
       <c r="L328" s="15"/>
     </row>
-    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="21"/>
       <c r="B329" s="14"/>
       <c r="C329" s="25"/>
@@ -7120,7 +7120,7 @@
       <c r="K329" s="15"/>
       <c r="L329" s="15"/>
     </row>
-    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="16"/>
       <c r="B330" s="14"/>
       <c r="C330" s="25"/>
@@ -7134,7 +7134,7 @@
       <c r="K330" s="15"/>
       <c r="L330" s="15"/>
     </row>
-    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="16"/>
       <c r="B331" s="14"/>
       <c r="C331" s="25"/>
@@ -7148,7 +7148,7 @@
       <c r="K331" s="15"/>
       <c r="L331" s="15"/>
     </row>
-    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="16"/>
       <c r="B332" s="14"/>
       <c r="C332" s="25"/>
@@ -7162,7 +7162,7 @@
       <c r="K332" s="15"/>
       <c r="L332" s="15"/>
     </row>
-    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="16"/>
       <c r="B333" s="14"/>
       <c r="C333" s="25"/>
@@ -7176,7 +7176,7 @@
       <c r="K333" s="15"/>
       <c r="L333" s="15"/>
     </row>
-    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="16"/>
       <c r="B334" s="14"/>
       <c r="C334" s="25"/>
@@ -7190,7 +7190,7 @@
       <c r="K334" s="15"/>
       <c r="L334" s="15"/>
     </row>
-    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="16"/>
       <c r="B335" s="14"/>
       <c r="C335" s="25"/>
@@ -7204,7 +7204,7 @@
       <c r="K335" s="15"/>
       <c r="L335" s="15"/>
     </row>
-    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="25"/>
@@ -7218,7 +7218,7 @@
       <c r="K336" s="15"/>
       <c r="L336" s="15"/>
     </row>
-    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="25"/>
@@ -7232,7 +7232,7 @@
       <c r="K337" s="15"/>
       <c r="L337" s="15"/>
     </row>
-    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="25"/>
@@ -7246,7 +7246,7 @@
       <c r="K338" s="15"/>
       <c r="L338" s="15"/>
     </row>
-    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="16"/>
       <c r="B339" s="14"/>
       <c r="C339" s="25"/>
@@ -7260,7 +7260,7 @@
       <c r="K339" s="15"/>
       <c r="L339" s="15"/>
     </row>
-    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="16"/>
       <c r="B340" s="14"/>
       <c r="C340" s="25"/>
@@ -7274,7 +7274,7 @@
       <c r="K340" s="15"/>
       <c r="L340" s="15"/>
     </row>
-    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="16"/>
       <c r="B341" s="14"/>
       <c r="C341" s="25"/>
@@ -7288,7 +7288,7 @@
       <c r="K341" s="15"/>
       <c r="L341" s="15"/>
     </row>
-    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" s="16"/>
       <c r="B342" s="14"/>
       <c r="C342" s="25"/>
@@ -7302,7 +7302,7 @@
       <c r="K342" s="15"/>
       <c r="L342" s="15"/>
     </row>
-    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" s="16"/>
       <c r="B343" s="44"/>
       <c r="C343" s="25"/>
@@ -7316,7 +7316,7 @@
       <c r="K343" s="15"/>
       <c r="L343" s="15"/>
     </row>
-    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" s="16"/>
       <c r="B344" s="44"/>
       <c r="C344" s="25"/>
@@ -7330,7 +7330,7 @@
       <c r="K344" s="15"/>
       <c r="L344" s="15"/>
     </row>
-    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" s="16"/>
       <c r="B345" s="44"/>
       <c r="C345" s="25"/>
@@ -7344,7 +7344,7 @@
       <c r="K345" s="15"/>
       <c r="L345" s="15"/>
     </row>
-    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="16"/>
       <c r="B346" s="44"/>
       <c r="C346" s="25"/>
@@ -7358,7 +7358,7 @@
       <c r="K346" s="15"/>
       <c r="L346" s="15"/>
     </row>
-    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="52"/>
       <c r="B347" s="14"/>
       <c r="C347" s="25"/>
@@ -7372,7 +7372,7 @@
       <c r="K347" s="15"/>
       <c r="L347" s="15"/>
     </row>
-    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="16"/>
       <c r="B348" s="14"/>
       <c r="C348" s="25"/>
@@ -7386,7 +7386,7 @@
       <c r="K348" s="15"/>
       <c r="L348" s="15"/>
     </row>
-    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="16"/>
       <c r="B349" s="14"/>
       <c r="C349" s="25"/>
@@ -7400,7 +7400,7 @@
       <c r="K349" s="15"/>
       <c r="L349" s="15"/>
     </row>
-    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="16"/>
       <c r="B350" s="14"/>
       <c r="C350" s="25"/>
@@ -7414,7 +7414,7 @@
       <c r="K350" s="15"/>
       <c r="L350" s="15"/>
     </row>
-    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="16"/>
       <c r="B351" s="14"/>
       <c r="C351" s="25"/>
@@ -7428,7 +7428,7 @@
       <c r="K351" s="15"/>
       <c r="L351" s="15"/>
     </row>
-    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="16"/>
       <c r="B352" s="14"/>
       <c r="C352" s="25"/>
@@ -7442,7 +7442,7 @@
       <c r="K352" s="15"/>
       <c r="L352" s="15"/>
     </row>
-    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="16"/>
       <c r="B353" s="14"/>
       <c r="C353" s="25"/>
@@ -7456,7 +7456,7 @@
       <c r="K353" s="15"/>
       <c r="L353" s="15"/>
     </row>
-    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="16"/>
       <c r="B354" s="14"/>
       <c r="C354" s="25"/>
@@ -7470,7 +7470,7 @@
       <c r="K354" s="15"/>
       <c r="L354" s="15"/>
     </row>
-    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="16"/>
       <c r="B355" s="14"/>
       <c r="C355" s="25"/>
@@ -7484,7 +7484,7 @@
       <c r="K355" s="15"/>
       <c r="L355" s="15"/>
     </row>
-    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="16"/>
       <c r="B356" s="14"/>
       <c r="C356" s="25"/>
@@ -7498,7 +7498,7 @@
       <c r="K356" s="15"/>
       <c r="L356" s="15"/>
     </row>
-    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="16"/>
       <c r="B357" s="14"/>
       <c r="C357" s="25"/>
@@ -7512,7 +7512,7 @@
       <c r="K357" s="15"/>
       <c r="L357" s="15"/>
     </row>
-    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="53"/>
       <c r="B358" s="14"/>
       <c r="C358" s="54"/>
@@ -7526,7 +7526,7 @@
       <c r="K358" s="15"/>
       <c r="L358" s="15"/>
     </row>
-    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="16"/>
       <c r="B359" s="14"/>
       <c r="C359" s="25"/>
@@ -7540,7 +7540,7 @@
       <c r="K359" s="15"/>
       <c r="L359" s="15"/>
     </row>
-    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="16"/>
       <c r="B360" s="14"/>
       <c r="C360" s="25"/>
@@ -7554,7 +7554,7 @@
       <c r="K360" s="15"/>
       <c r="L360" s="15"/>
     </row>
-    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="16"/>
       <c r="B361" s="14"/>
       <c r="C361" s="25"/>
@@ -7568,7 +7568,7 @@
       <c r="K361" s="15"/>
       <c r="L361" s="15"/>
     </row>
-    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="16"/>
       <c r="B362" s="14"/>
       <c r="C362" s="25"/>
@@ -7582,7 +7582,7 @@
       <c r="K362" s="15"/>
       <c r="L362" s="15"/>
     </row>
-    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="16"/>
       <c r="B363" s="14"/>
       <c r="C363" s="25"/>
@@ -7596,7 +7596,7 @@
       <c r="K363" s="15"/>
       <c r="L363" s="15"/>
     </row>
-    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="16"/>
       <c r="B364" s="14"/>
       <c r="C364" s="25"/>
@@ -7610,7 +7610,7 @@
       <c r="K364" s="15"/>
       <c r="L364" s="15"/>
     </row>
-    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="16"/>
       <c r="B365" s="14"/>
       <c r="C365" s="25"/>
@@ -7624,7 +7624,7 @@
       <c r="K365" s="15"/>
       <c r="L365" s="15"/>
     </row>
-    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="16"/>
       <c r="B366" s="14"/>
       <c r="C366" s="25"/>
@@ -7638,7 +7638,7 @@
       <c r="K366" s="15"/>
       <c r="L366" s="15"/>
     </row>
-    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="16"/>
       <c r="B367" s="14"/>
       <c r="C367" s="25"/>
@@ -7652,7 +7652,7 @@
       <c r="K367" s="15"/>
       <c r="L367" s="15"/>
     </row>
-    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="16"/>
       <c r="B368" s="14"/>
       <c r="C368" s="25"/>
@@ -7666,7 +7666,7 @@
       <c r="K368" s="15"/>
       <c r="L368" s="15"/>
     </row>
-    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="16"/>
       <c r="B369" s="14"/>
       <c r="C369" s="25"/>
@@ -7680,7 +7680,7 @@
       <c r="K369" s="15"/>
       <c r="L369" s="15"/>
     </row>
-    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="16"/>
       <c r="B370" s="14"/>
       <c r="C370" s="25"/>
@@ -7694,7 +7694,7 @@
       <c r="K370" s="15"/>
       <c r="L370" s="15"/>
     </row>
-    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="16"/>
       <c r="B371" s="14"/>
       <c r="C371" s="25"/>
@@ -7708,7 +7708,7 @@
       <c r="K371" s="15"/>
       <c r="L371" s="15"/>
     </row>
-    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="16"/>
       <c r="B372" s="14"/>
       <c r="C372" s="25"/>
@@ -7722,7 +7722,7 @@
       <c r="K372" s="15"/>
       <c r="L372" s="15"/>
     </row>
-    <row r="373" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="53"/>
       <c r="B373" s="14"/>
       <c r="C373" s="54"/>
@@ -7736,7 +7736,7 @@
       <c r="K373" s="15"/>
       <c r="L373" s="15"/>
     </row>
-    <row r="374" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="53"/>
       <c r="B374" s="14"/>
       <c r="C374" s="54"/>
@@ -7750,7 +7750,7 @@
       <c r="K374" s="15"/>
       <c r="L374" s="15"/>
     </row>
-    <row r="375" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="53"/>
       <c r="B375" s="14"/>
       <c r="C375" s="54"/>
@@ -7764,7 +7764,7 @@
       <c r="K375" s="15"/>
       <c r="L375" s="15"/>
     </row>
-    <row r="376" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="53"/>
       <c r="B376" s="14"/>
       <c r="C376" s="54"/>
@@ -7778,7 +7778,7 @@
       <c r="K376" s="15"/>
       <c r="L376" s="15"/>
     </row>
-    <row r="377" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="53"/>
       <c r="B377" s="14"/>
       <c r="C377" s="54"/>
@@ -7792,7 +7792,7 @@
       <c r="K377" s="15"/>
       <c r="L377" s="15"/>
     </row>
-    <row r="378" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="53"/>
       <c r="B378" s="14"/>
       <c r="C378" s="54"/>
@@ -7806,7 +7806,7 @@
       <c r="K378" s="15"/>
       <c r="L378" s="15"/>
     </row>
-    <row r="379" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="53"/>
       <c r="B379" s="14"/>
       <c r="C379" s="54"/>
@@ -7820,7 +7820,7 @@
       <c r="K379" s="15"/>
       <c r="L379" s="15"/>
     </row>
-    <row r="380" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="53"/>
       <c r="B380" s="14"/>
       <c r="C380" s="54"/>
@@ -7834,7 +7834,7 @@
       <c r="K380" s="15"/>
       <c r="L380" s="15"/>
     </row>
-    <row r="381" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="53"/>
       <c r="B381" s="14"/>
       <c r="C381" s="54"/>
@@ -7848,7 +7848,7 @@
       <c r="K381" s="15"/>
       <c r="L381" s="15"/>
     </row>
-    <row r="382" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="53"/>
       <c r="B382" s="14"/>
       <c r="C382" s="54"/>
@@ -7862,7 +7862,7 @@
       <c r="K382" s="15"/>
       <c r="L382" s="15"/>
     </row>
-    <row r="383" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="53"/>
       <c r="B383" s="14"/>
       <c r="C383" s="54"/>
@@ -7876,7 +7876,7 @@
       <c r="K383" s="15"/>
       <c r="L383" s="15"/>
     </row>
-    <row r="384" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="53"/>
       <c r="B384" s="14"/>
       <c r="C384" s="54"/>
@@ -7890,7 +7890,7 @@
       <c r="K384" s="15"/>
       <c r="L384" s="15"/>
     </row>
-    <row r="385" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="53"/>
       <c r="B385" s="55"/>
       <c r="C385" s="56"/>
@@ -7904,7 +7904,7 @@
       <c r="K385" s="15"/>
       <c r="L385" s="15"/>
     </row>
-    <row r="386" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="53"/>
       <c r="B386" s="57"/>
       <c r="C386" s="54"/>
@@ -7918,7 +7918,7 @@
       <c r="K386" s="15"/>
       <c r="L386" s="15"/>
     </row>
-    <row r="387" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="58"/>
       <c r="B387" s="59"/>
       <c r="C387" s="60"/>
@@ -7932,7 +7932,7 @@
       <c r="K387" s="15"/>
       <c r="L387" s="15"/>
     </row>
-    <row r="388" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="53"/>
       <c r="B388" s="57"/>
       <c r="C388" s="54"/>
@@ -7946,7 +7946,7 @@
       <c r="K388" s="15"/>
       <c r="L388" s="15"/>
     </row>
-    <row r="389" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="53"/>
       <c r="B389" s="14"/>
       <c r="C389" s="54"/>
@@ -7960,7 +7960,7 @@
       <c r="K389" s="15"/>
       <c r="L389" s="15"/>
     </row>
-    <row r="390" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" s="53"/>
       <c r="B390" s="57"/>
       <c r="C390" s="54"/>
@@ -7974,7 +7974,7 @@
       <c r="K390" s="15"/>
       <c r="L390" s="15"/>
     </row>
-    <row r="391" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" s="61"/>
       <c r="B391" s="57"/>
       <c r="C391" s="54"/>
@@ -7988,7 +7988,7 @@
       <c r="K391" s="31"/>
       <c r="L391" s="31"/>
     </row>
-    <row r="392" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" s="52"/>
       <c r="B392" s="14"/>
       <c r="C392" s="54"/>
@@ -8002,7 +8002,7 @@
       <c r="K392" s="31"/>
       <c r="L392" s="31"/>
     </row>
-    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A393" s="62"/>
       <c r="B393" s="63"/>
       <c r="C393" s="64"/>
@@ -8016,7 +8016,7 @@
       <c r="K393" s="15"/>
       <c r="L393" s="15"/>
     </row>
-    <row r="394" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" s="53"/>
       <c r="B394" s="14"/>
       <c r="C394" s="54"/>
@@ -8030,7 +8030,7 @@
       <c r="K394" s="15"/>
       <c r="L394" s="15"/>
     </row>
-    <row r="395" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A395" s="53"/>
       <c r="B395" s="14"/>
       <c r="C395" s="54"/>
@@ -8044,7 +8044,7 @@
       <c r="K395" s="15"/>
       <c r="L395" s="15"/>
     </row>
-    <row r="396" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A396" s="53"/>
       <c r="B396" s="14"/>
       <c r="C396" s="54"/>
@@ -8058,7 +8058,7 @@
       <c r="K396" s="15"/>
       <c r="L396" s="15"/>
     </row>
-    <row r="397" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A397" s="53"/>
       <c r="B397" s="14"/>
       <c r="C397" s="54"/>
@@ -8072,7 +8072,7 @@
       <c r="K397" s="15"/>
       <c r="L397" s="15"/>
     </row>
-    <row r="398" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A398" s="53"/>
       <c r="B398" s="14"/>
       <c r="C398" s="54"/>
@@ -8086,7 +8086,7 @@
       <c r="K398" s="15"/>
       <c r="L398" s="15"/>
     </row>
-    <row r="399" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A399" s="53"/>
       <c r="B399" s="14"/>
       <c r="C399" s="54"/>
@@ -8100,7 +8100,7 @@
       <c r="K399" s="15"/>
       <c r="L399" s="15"/>
     </row>
-    <row r="400" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A400" s="53"/>
       <c r="B400" s="14"/>
       <c r="C400" s="54"/>
@@ -8114,7 +8114,7 @@
       <c r="K400" s="15"/>
       <c r="L400" s="15"/>
     </row>
-    <row r="401" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" s="53"/>
       <c r="B401" s="14"/>
       <c r="C401" s="54"/>
@@ -8128,7 +8128,7 @@
       <c r="K401" s="15"/>
       <c r="L401" s="15"/>
     </row>
-    <row r="402" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A402" s="53"/>
       <c r="B402" s="14"/>
       <c r="C402" s="54"/>
@@ -8142,7 +8142,7 @@
       <c r="K402" s="15"/>
       <c r="L402" s="15"/>
     </row>
-    <row r="403" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" s="53"/>
       <c r="B403" s="14"/>
       <c r="C403" s="54"/>
@@ -8156,7 +8156,7 @@
       <c r="K403" s="15"/>
       <c r="L403" s="15"/>
     </row>
-    <row r="404" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A404" s="53"/>
       <c r="B404" s="14"/>
       <c r="C404" s="54"/>
@@ -8170,7 +8170,7 @@
       <c r="K404" s="15"/>
       <c r="L404" s="15"/>
     </row>
-    <row r="405" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" s="65"/>
       <c r="B405" s="14"/>
       <c r="C405" s="54"/>
@@ -8184,7 +8184,7 @@
       <c r="K405" s="15"/>
       <c r="L405" s="15"/>
     </row>
-    <row r="406" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A406" s="65"/>
       <c r="B406" s="66"/>
       <c r="C406" s="56"/>
@@ -8198,7 +8198,7 @@
       <c r="K406" s="15"/>
       <c r="L406" s="15"/>
     </row>
-    <row r="407" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A407" s="65"/>
       <c r="B407" s="55"/>
       <c r="C407" s="54"/>
@@ -8212,7 +8212,7 @@
       <c r="K407" s="15"/>
       <c r="L407" s="15"/>
     </row>
-    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A408" s="67"/>
       <c r="B408" s="55"/>
       <c r="C408" s="56"/>
@@ -8226,7 +8226,7 @@
       <c r="K408" s="15"/>
       <c r="L408" s="15"/>
     </row>
-    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A409" s="67"/>
       <c r="B409" s="55"/>
       <c r="C409" s="56"/>
@@ -8240,7 +8240,7 @@
       <c r="K409" s="15"/>
       <c r="L409" s="15"/>
     </row>
-    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A410" s="67"/>
       <c r="B410" s="55"/>
       <c r="C410" s="56"/>
@@ -8254,7 +8254,7 @@
       <c r="K410" s="15"/>
       <c r="L410" s="15"/>
     </row>
-    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A411" s="67"/>
       <c r="B411" s="55"/>
       <c r="C411" s="56"/>
@@ -8268,7 +8268,7 @@
       <c r="K411" s="15"/>
       <c r="L411" s="15"/>
     </row>
-    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A412" s="67"/>
       <c r="B412" s="55"/>
       <c r="C412" s="56"/>
@@ -8282,7 +8282,7 @@
       <c r="K412" s="15"/>
       <c r="L412" s="15"/>
     </row>
-    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A413" s="67"/>
       <c r="B413" s="55"/>
       <c r="C413" s="56"/>
@@ -8296,7 +8296,7 @@
       <c r="K413" s="15"/>
       <c r="L413" s="15"/>
     </row>
-    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A414" s="67"/>
       <c r="B414" s="55"/>
       <c r="C414" s="56"/>
@@ -8310,7 +8310,7 @@
       <c r="K414" s="15"/>
       <c r="L414" s="15"/>
     </row>
-    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A415" s="67"/>
       <c r="B415" s="55"/>
       <c r="C415" s="56"/>
@@ -8324,7 +8324,7 @@
       <c r="K415" s="15"/>
       <c r="L415" s="15"/>
     </row>
-    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A416" s="67"/>
       <c r="B416" s="55"/>
       <c r="C416" s="56"/>
@@ -8338,7 +8338,7 @@
       <c r="K416" s="15"/>
       <c r="L416" s="15"/>
     </row>
-    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A417" s="67"/>
       <c r="B417" s="55"/>
       <c r="C417" s="56"/>
@@ -8352,7 +8352,7 @@
       <c r="K417" s="15"/>
       <c r="L417" s="15"/>
     </row>
-    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A418" s="67"/>
       <c r="B418" s="55"/>
       <c r="C418" s="56"/>
@@ -8366,7 +8366,7 @@
       <c r="K418" s="15"/>
       <c r="L418" s="15"/>
     </row>
-    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A419" s="67"/>
       <c r="B419" s="55"/>
       <c r="C419" s="56"/>
@@ -8380,7 +8380,7 @@
       <c r="K419" s="15"/>
       <c r="L419" s="15"/>
     </row>
-    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A420" s="67"/>
       <c r="B420" s="55"/>
       <c r="C420" s="56"/>
@@ -8394,7 +8394,7 @@
       <c r="K420" s="15"/>
       <c r="L420" s="15"/>
     </row>
-    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A421" s="67"/>
       <c r="B421" s="55"/>
       <c r="C421" s="56"/>
@@ -8408,7 +8408,7 @@
       <c r="K421" s="15"/>
       <c r="L421" s="15"/>
     </row>
-    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A422" s="67"/>
       <c r="B422" s="55"/>
       <c r="C422" s="56"/>
@@ -8422,7 +8422,7 @@
       <c r="K422" s="15"/>
       <c r="L422" s="15"/>
     </row>
-    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A423" s="67"/>
       <c r="B423" s="55"/>
       <c r="C423" s="56"/>
@@ -8436,7 +8436,7 @@
       <c r="K423" s="15"/>
       <c r="L423" s="15"/>
     </row>
-    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A424" s="67"/>
       <c r="B424" s="55"/>
       <c r="C424" s="56"/>
@@ -8450,7 +8450,7 @@
       <c r="K424" s="15"/>
       <c r="L424" s="15"/>
     </row>
-    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A425" s="67"/>
       <c r="B425" s="55"/>
       <c r="C425" s="56"/>
@@ -8464,7 +8464,7 @@
       <c r="K425" s="15"/>
       <c r="L425" s="15"/>
     </row>
-    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A426" s="67"/>
       <c r="B426" s="55"/>
       <c r="C426" s="56"/>
@@ -8478,7 +8478,7 @@
       <c r="K426" s="15"/>
       <c r="L426" s="15"/>
     </row>
-    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A427" s="67"/>
       <c r="B427" s="55"/>
       <c r="C427" s="56"/>
@@ -8492,7 +8492,7 @@
       <c r="K427" s="15"/>
       <c r="L427" s="15"/>
     </row>
-    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A428" s="67"/>
       <c r="B428" s="55"/>
       <c r="C428" s="56"/>
@@ -8506,7 +8506,7 @@
       <c r="K428" s="15"/>
       <c r="L428" s="15"/>
     </row>
-    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A429" s="67"/>
       <c r="B429" s="55"/>
       <c r="C429" s="56"/>
@@ -8520,7 +8520,7 @@
       <c r="K429" s="15"/>
       <c r="L429" s="15"/>
     </row>
-    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A430" s="67"/>
       <c r="B430" s="55"/>
       <c r="C430" s="56"/>
@@ -8534,7 +8534,7 @@
       <c r="K430" s="15"/>
       <c r="L430" s="15"/>
     </row>
-    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A431" s="67"/>
       <c r="B431" s="55"/>
       <c r="C431" s="56"/>
@@ -8548,7 +8548,7 @@
       <c r="K431" s="15"/>
       <c r="L431" s="15"/>
     </row>
-    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A432" s="67"/>
       <c r="B432" s="55"/>
       <c r="C432" s="56"/>
@@ -8562,7 +8562,7 @@
       <c r="K432" s="15"/>
       <c r="L432" s="15"/>
     </row>
-    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A433" s="67"/>
       <c r="B433" s="55"/>
       <c r="C433" s="56"/>
@@ -8576,7 +8576,7 @@
       <c r="K433" s="15"/>
       <c r="L433" s="15"/>
     </row>
-    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A434" s="15"/>
       <c r="B434" s="55"/>
       <c r="C434" s="68"/>
@@ -8590,7 +8590,7 @@
       <c r="K434" s="15"/>
       <c r="L434" s="15"/>
     </row>
-    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A435" s="15"/>
       <c r="B435" s="55"/>
       <c r="C435" s="68"/>
@@ -8604,7 +8604,7 @@
       <c r="K435" s="15"/>
       <c r="L435" s="15"/>
     </row>
-    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A436" s="15"/>
       <c r="B436" s="55"/>
       <c r="C436" s="68"/>
@@ -8618,7 +8618,7 @@
       <c r="K436" s="15"/>
       <c r="L436" s="15"/>
     </row>
-    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A437" s="15"/>
       <c r="B437" s="55"/>
       <c r="C437" s="68"/>
@@ -8632,7 +8632,7 @@
       <c r="K437" s="15"/>
       <c r="L437" s="15"/>
     </row>
-    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A438" s="15"/>
       <c r="B438" s="55"/>
       <c r="C438" s="68"/>
@@ -8646,7 +8646,7 @@
       <c r="K438" s="15"/>
       <c r="L438" s="15"/>
     </row>
-    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A439" s="15"/>
       <c r="B439" s="55"/>
       <c r="C439" s="68"/>
@@ -8660,7 +8660,7 @@
       <c r="K439" s="15"/>
       <c r="L439" s="15"/>
     </row>
-    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A440" s="15"/>
       <c r="B440" s="55"/>
       <c r="C440" s="68"/>
@@ -8674,7 +8674,7 @@
       <c r="K440" s="15"/>
       <c r="L440" s="15"/>
     </row>
-    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A441" s="15"/>
       <c r="B441" s="55"/>
       <c r="C441" s="68"/>
@@ -8688,7 +8688,7 @@
       <c r="K441" s="15"/>
       <c r="L441" s="15"/>
     </row>
-    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A442" s="15"/>
       <c r="B442" s="55"/>
       <c r="C442" s="68"/>
@@ -8702,7 +8702,7 @@
       <c r="K442" s="15"/>
       <c r="L442" s="15"/>
     </row>
-    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A443" s="15"/>
       <c r="B443" s="55"/>
       <c r="C443" s="68"/>
@@ -8716,7 +8716,7 @@
       <c r="K443" s="15"/>
       <c r="L443" s="15"/>
     </row>
-    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A444" s="15"/>
       <c r="B444" s="55"/>
       <c r="C444" s="68"/>
@@ -8730,7 +8730,7 @@
       <c r="K444" s="15"/>
       <c r="L444" s="15"/>
     </row>
-    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A445" s="15"/>
       <c r="B445" s="55"/>
       <c r="C445" s="68"/>
@@ -8744,7 +8744,7 @@
       <c r="K445" s="15"/>
       <c r="L445" s="15"/>
     </row>
-    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A446" s="15"/>
       <c r="B446" s="55"/>
       <c r="C446" s="68"/>
@@ -8758,7 +8758,7 @@
       <c r="K446" s="15"/>
       <c r="L446" s="15"/>
     </row>
-    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A447" s="15"/>
       <c r="B447" s="55"/>
       <c r="C447" s="68"/>
@@ -8772,7 +8772,7 @@
       <c r="K447" s="15"/>
       <c r="L447" s="15"/>
     </row>
-    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A448" s="15"/>
       <c r="B448" s="55"/>
       <c r="C448" s="68"/>
@@ -8786,7 +8786,7 @@
       <c r="K448" s="15"/>
       <c r="L448" s="15"/>
     </row>
-    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A449" s="15"/>
       <c r="B449" s="55"/>
       <c r="C449" s="68"/>
@@ -8800,7 +8800,7 @@
       <c r="K449" s="15"/>
       <c r="L449" s="15"/>
     </row>
-    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A450" s="15"/>
       <c r="B450" s="55"/>
       <c r="C450" s="68"/>
@@ -8814,7 +8814,7 @@
       <c r="K450" s="15"/>
       <c r="L450" s="15"/>
     </row>
-    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A451" s="15"/>
       <c r="B451" s="55"/>
       <c r="C451" s="68"/>
@@ -8828,7 +8828,7 @@
       <c r="K451" s="15"/>
       <c r="L451" s="15"/>
     </row>
-    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A452" s="15"/>
       <c r="B452" s="55"/>
       <c r="C452" s="68"/>
@@ -8842,7 +8842,7 @@
       <c r="K452" s="15"/>
       <c r="L452" s="15"/>
     </row>
-    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A453" s="15"/>
       <c r="B453" s="55"/>
       <c r="C453" s="68"/>
@@ -8856,7 +8856,7 @@
       <c r="K453" s="15"/>
       <c r="L453" s="15"/>
     </row>
-    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A454" s="15"/>
       <c r="B454" s="55"/>
       <c r="C454" s="68"/>
@@ -8870,7 +8870,7 @@
       <c r="K454" s="15"/>
       <c r="L454" s="15"/>
     </row>
-    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A455" s="15"/>
       <c r="B455" s="55"/>
       <c r="C455" s="68"/>
@@ -8884,7 +8884,7 @@
       <c r="K455" s="15"/>
       <c r="L455" s="15"/>
     </row>
-    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A456" s="15"/>
       <c r="B456" s="55"/>
       <c r="C456" s="68"/>
@@ -8898,7 +8898,7 @@
       <c r="K456" s="15"/>
       <c r="L456" s="15"/>
     </row>
-    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A457" s="15"/>
       <c r="B457" s="55"/>
       <c r="C457" s="68"/>
@@ -8912,7 +8912,7 @@
       <c r="K457" s="15"/>
       <c r="L457" s="15"/>
     </row>
-    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A458" s="15"/>
       <c r="B458" s="55"/>
       <c r="C458" s="68"/>
@@ -8926,7 +8926,7 @@
       <c r="K458" s="15"/>
       <c r="L458" s="15"/>
     </row>
-    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A459" s="15"/>
       <c r="B459" s="55"/>
       <c r="C459" s="68"/>
@@ -8940,7 +8940,7 @@
       <c r="K459" s="15"/>
       <c r="L459" s="15"/>
     </row>
-    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A460" s="15"/>
       <c r="B460" s="55"/>
       <c r="C460" s="68"/>
@@ -8954,7 +8954,7 @@
       <c r="K460" s="15"/>
       <c r="L460" s="15"/>
     </row>
-    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A461" s="15"/>
       <c r="B461" s="55"/>
       <c r="C461" s="68"/>
@@ -8968,7 +8968,7 @@
       <c r="K461" s="15"/>
       <c r="L461" s="15"/>
     </row>
-    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A462" s="15"/>
       <c r="B462" s="55"/>
       <c r="C462" s="68"/>
@@ -8982,7 +8982,7 @@
       <c r="K462" s="15"/>
       <c r="L462" s="15"/>
     </row>
-    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A463" s="15"/>
       <c r="B463" s="55"/>
       <c r="C463" s="68"/>
@@ -8996,7 +8996,7 @@
       <c r="K463" s="15"/>
       <c r="L463" s="15"/>
     </row>
-    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A464" s="15"/>
       <c r="B464" s="55"/>
       <c r="C464" s="68"/>
@@ -9010,7 +9010,7 @@
       <c r="K464" s="15"/>
       <c r="L464" s="15"/>
     </row>
-    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A465" s="15"/>
       <c r="B465" s="55"/>
       <c r="C465" s="68"/>
@@ -9024,7 +9024,7 @@
       <c r="K465" s="15"/>
       <c r="L465" s="15"/>
     </row>
-    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A466" s="15"/>
       <c r="B466" s="55"/>
       <c r="C466" s="68"/>
@@ -9038,7 +9038,7 @@
       <c r="K466" s="15"/>
       <c r="L466" s="15"/>
     </row>
-    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A467" s="15"/>
       <c r="B467" s="55"/>
       <c r="C467" s="68"/>
@@ -9052,7 +9052,7 @@
       <c r="K467" s="15"/>
       <c r="L467" s="15"/>
     </row>
-    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A468" s="15"/>
       <c r="B468" s="55"/>
       <c r="C468" s="68"/>
@@ -9066,7 +9066,7 @@
       <c r="K468" s="15"/>
       <c r="L468" s="15"/>
     </row>
-    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A469" s="15"/>
       <c r="B469" s="55"/>
       <c r="C469" s="68"/>
@@ -9080,7 +9080,7 @@
       <c r="K469" s="15"/>
       <c r="L469" s="15"/>
     </row>
-    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A470" s="15"/>
       <c r="B470" s="55"/>
       <c r="C470" s="68"/>
@@ -9094,7 +9094,7 @@
       <c r="K470" s="15"/>
       <c r="L470" s="15"/>
     </row>
-    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A471" s="15"/>
       <c r="B471" s="55"/>
       <c r="C471" s="68"/>
@@ -9108,7 +9108,7 @@
       <c r="K471" s="15"/>
       <c r="L471" s="15"/>
     </row>
-    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A472" s="15"/>
       <c r="B472" s="55"/>
       <c r="C472" s="68"/>
@@ -9122,7 +9122,7 @@
       <c r="K472" s="15"/>
       <c r="L472" s="15"/>
     </row>
-    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A473" s="15"/>
       <c r="B473" s="55"/>
       <c r="C473" s="68"/>
@@ -9136,7 +9136,7 @@
       <c r="K473" s="15"/>
       <c r="L473" s="15"/>
     </row>
-    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A474" s="15"/>
       <c r="B474" s="55"/>
       <c r="C474" s="68"/>
@@ -9150,7 +9150,7 @@
       <c r="K474" s="15"/>
       <c r="L474" s="15"/>
     </row>
-    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A475" s="15"/>
       <c r="B475" s="55"/>
       <c r="C475" s="68"/>
@@ -9164,7 +9164,7 @@
       <c r="K475" s="15"/>
       <c r="L475" s="15"/>
     </row>
-    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A476" s="15"/>
       <c r="B476" s="55"/>
       <c r="C476" s="68"/>
@@ -9178,7 +9178,7 @@
       <c r="K476" s="15"/>
       <c r="L476" s="15"/>
     </row>
-    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A477" s="15"/>
       <c r="B477" s="55"/>
       <c r="C477" s="68"/>
@@ -9192,7 +9192,7 @@
       <c r="K477" s="15"/>
       <c r="L477" s="15"/>
     </row>
-    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A478" s="15"/>
       <c r="B478" s="55"/>
       <c r="C478" s="68"/>
@@ -9206,7 +9206,7 @@
       <c r="K478" s="15"/>
       <c r="L478" s="15"/>
     </row>
-    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A479" s="15"/>
       <c r="B479" s="55"/>
       <c r="C479" s="68"/>
@@ -9220,7 +9220,7 @@
       <c r="K479" s="15"/>
       <c r="L479" s="15"/>
     </row>
-    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A480" s="15"/>
       <c r="B480" s="55"/>
       <c r="C480" s="68"/>
@@ -9234,7 +9234,7 @@
       <c r="K480" s="15"/>
       <c r="L480" s="15"/>
     </row>
-    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A481" s="15"/>
       <c r="B481" s="55"/>
       <c r="C481" s="68"/>
@@ -9248,7 +9248,7 @@
       <c r="K481" s="15"/>
       <c r="L481" s="15"/>
     </row>
-    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A482" s="15"/>
       <c r="B482" s="55"/>
       <c r="C482" s="68"/>
@@ -9262,7 +9262,7 @@
       <c r="K482" s="15"/>
       <c r="L482" s="15"/>
     </row>
-    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A483" s="15"/>
       <c r="B483" s="55"/>
       <c r="C483" s="68"/>
@@ -9276,7 +9276,7 @@
       <c r="K483" s="15"/>
       <c r="L483" s="15"/>
     </row>
-    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A484" s="15"/>
       <c r="B484" s="55"/>
       <c r="C484" s="68"/>
@@ -9290,7 +9290,7 @@
       <c r="K484" s="15"/>
       <c r="L484" s="15"/>
     </row>
-    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A485" s="15"/>
       <c r="B485" s="55"/>
       <c r="C485" s="68"/>
@@ -9304,7 +9304,7 @@
       <c r="K485" s="15"/>
       <c r="L485" s="15"/>
     </row>
-    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A486" s="15"/>
       <c r="B486" s="55"/>
       <c r="C486" s="68"/>
@@ -9318,7 +9318,7 @@
       <c r="K486" s="15"/>
       <c r="L486" s="15"/>
     </row>
-    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A487" s="15"/>
       <c r="B487" s="55"/>
       <c r="C487" s="68"/>
@@ -9332,7 +9332,7 @@
       <c r="K487" s="15"/>
       <c r="L487" s="15"/>
     </row>
-    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A488" s="15"/>
       <c r="B488" s="55"/>
       <c r="C488" s="68"/>
@@ -9346,7 +9346,7 @@
       <c r="K488" s="15"/>
       <c r="L488" s="15"/>
     </row>
-    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A489" s="15"/>
       <c r="B489" s="55"/>
       <c r="C489" s="68"/>
@@ -9360,7 +9360,7 @@
       <c r="K489" s="15"/>
       <c r="L489" s="15"/>
     </row>
-    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A490" s="15"/>
       <c r="B490" s="55"/>
       <c r="C490" s="68"/>
@@ -9374,7 +9374,7 @@
       <c r="K490" s="15"/>
       <c r="L490" s="15"/>
     </row>
-    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A491" s="15"/>
       <c r="B491" s="55"/>
       <c r="C491" s="68"/>
@@ -9388,7 +9388,7 @@
       <c r="K491" s="15"/>
       <c r="L491" s="15"/>
     </row>
-    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A492" s="15"/>
       <c r="B492" s="55"/>
       <c r="C492" s="68"/>
@@ -9402,7 +9402,7 @@
       <c r="K492" s="15"/>
       <c r="L492" s="15"/>
     </row>
-    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A493" s="15"/>
       <c r="B493" s="55"/>
       <c r="C493" s="68"/>
@@ -9416,7 +9416,7 @@
       <c r="K493" s="15"/>
       <c r="L493" s="15"/>
     </row>
-    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A494" s="15"/>
       <c r="B494" s="55"/>
       <c r="C494" s="68"/>
@@ -9430,7 +9430,7 @@
       <c r="K494" s="15"/>
       <c r="L494" s="15"/>
     </row>
-    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A495" s="15"/>
       <c r="B495" s="55"/>
       <c r="C495" s="68"/>
@@ -9444,7 +9444,7 @@
       <c r="K495" s="15"/>
       <c r="L495" s="15"/>
     </row>
-    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A496" s="15"/>
       <c r="B496" s="55"/>
       <c r="C496" s="68"/>
@@ -9458,7 +9458,7 @@
       <c r="K496" s="15"/>
       <c r="L496" s="15"/>
     </row>
-    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A497" s="15"/>
       <c r="B497" s="55"/>
       <c r="C497" s="68"/>
@@ -9472,7 +9472,7 @@
       <c r="K497" s="15"/>
       <c r="L497" s="15"/>
     </row>
-    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A498" s="15"/>
       <c r="B498" s="55"/>
       <c r="C498" s="68"/>
@@ -9486,7 +9486,7 @@
       <c r="K498" s="15"/>
       <c r="L498" s="15"/>
     </row>
-    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A499" s="15"/>
       <c r="B499" s="55"/>
       <c r="C499" s="68"/>
@@ -9500,7 +9500,7 @@
       <c r="K499" s="15"/>
       <c r="L499" s="15"/>
     </row>
-    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A500" s="15"/>
       <c r="B500" s="55"/>
       <c r="C500" s="68"/>
@@ -9514,7 +9514,7 @@
       <c r="K500" s="15"/>
       <c r="L500" s="15"/>
     </row>
-    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A501" s="15"/>
       <c r="B501" s="55"/>
       <c r="C501" s="68"/>
@@ -9528,7 +9528,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="15"/>
     </row>
-    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A502" s="15"/>
       <c r="B502" s="55"/>
       <c r="C502" s="68"/>
@@ -9542,7 +9542,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="15"/>
     </row>
-    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A503" s="15"/>
       <c r="B503" s="55"/>
       <c r="C503" s="68"/>
@@ -9556,7 +9556,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="15"/>
     </row>
-    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A504" s="15"/>
       <c r="B504" s="55"/>
       <c r="C504" s="68"/>
@@ -9570,7 +9570,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="15"/>
     </row>
-    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A505" s="15"/>
       <c r="B505" s="55"/>
       <c r="C505" s="68"/>
@@ -9584,7 +9584,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="15"/>
     </row>
-    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A506" s="15"/>
       <c r="B506" s="55"/>
       <c r="C506" s="68"/>
@@ -9598,7 +9598,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="15"/>
     </row>
-    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A507" s="15"/>
       <c r="B507" s="55"/>
       <c r="C507" s="68"/>
@@ -9612,7 +9612,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="15"/>
     </row>
-    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A508" s="15"/>
       <c r="B508" s="55"/>
       <c r="C508" s="68"/>
@@ -9626,7 +9626,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="15"/>
     </row>
-    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A509" s="15"/>
       <c r="B509" s="55"/>
       <c r="C509" s="68"/>
@@ -9640,7 +9640,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="15"/>
     </row>
-    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A510" s="15"/>
       <c r="B510" s="55"/>
       <c r="C510" s="68"/>
@@ -9654,7 +9654,7 @@
       <c r="K510" s="15"/>
       <c r="L510" s="15"/>
     </row>
-    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A511" s="15"/>
       <c r="B511" s="55"/>
       <c r="C511" s="68"/>
@@ -9668,7 +9668,7 @@
       <c r="K511" s="15"/>
       <c r="L511" s="15"/>
     </row>
-    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A512" s="15"/>
       <c r="B512" s="55"/>
       <c r="C512" s="68"/>
@@ -9682,7 +9682,7 @@
       <c r="K512" s="15"/>
       <c r="L512" s="15"/>
     </row>
-    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A513" s="15"/>
       <c r="B513" s="55"/>
       <c r="C513" s="68"/>
@@ -9696,7 +9696,7 @@
       <c r="K513" s="15"/>
       <c r="L513" s="15"/>
     </row>
-    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A514" s="15"/>
       <c r="B514" s="55"/>
       <c r="C514" s="68"/>
@@ -9710,7 +9710,7 @@
       <c r="K514" s="15"/>
       <c r="L514" s="15"/>
     </row>
-    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A515" s="15"/>
       <c r="B515" s="55"/>
       <c r="C515" s="68"/>
@@ -9724,7 +9724,7 @@
       <c r="K515" s="15"/>
       <c r="L515" s="15"/>
     </row>
-    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A516" s="15"/>
       <c r="B516" s="55"/>
       <c r="C516" s="68"/>
@@ -9738,7 +9738,7 @@
       <c r="K516" s="15"/>
       <c r="L516" s="15"/>
     </row>
-    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A517" s="15"/>
       <c r="B517" s="55"/>
       <c r="C517" s="68"/>
@@ -9752,7 +9752,7 @@
       <c r="K517" s="15"/>
       <c r="L517" s="15"/>
     </row>
-    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A518" s="15"/>
       <c r="B518" s="55"/>
       <c r="C518" s="68"/>
@@ -9766,7 +9766,7 @@
       <c r="K518" s="15"/>
       <c r="L518" s="15"/>
     </row>
-    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A519" s="15"/>
       <c r="B519" s="55"/>
       <c r="C519" s="68"/>
@@ -9780,7 +9780,7 @@
       <c r="K519" s="15"/>
       <c r="L519" s="15"/>
     </row>
-    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A520" s="15"/>
       <c r="B520" s="55"/>
       <c r="C520" s="68"/>
@@ -9794,7 +9794,7 @@
       <c r="K520" s="15"/>
       <c r="L520" s="15"/>
     </row>
-    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A521" s="15"/>
       <c r="B521" s="55"/>
       <c r="C521" s="68"/>
@@ -9808,7 +9808,7 @@
       <c r="K521" s="15"/>
       <c r="L521" s="15"/>
     </row>
-    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A522" s="15"/>
       <c r="B522" s="55"/>
       <c r="C522" s="68"/>
@@ -9822,7 +9822,7 @@
       <c r="K522" s="15"/>
       <c r="L522" s="15"/>
     </row>
-    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A523" s="15"/>
       <c r="B523" s="55"/>
       <c r="C523" s="68"/>
@@ -9836,7 +9836,7 @@
       <c r="K523" s="15"/>
       <c r="L523" s="15"/>
     </row>
-    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A524" s="15"/>
       <c r="B524" s="55"/>
       <c r="C524" s="68"/>
@@ -9850,7 +9850,7 @@
       <c r="K524" s="15"/>
       <c r="L524" s="15"/>
     </row>
-    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A525" s="15"/>
       <c r="B525" s="55"/>
       <c r="C525" s="68"/>
@@ -9864,7 +9864,7 @@
       <c r="K525" s="15"/>
       <c r="L525" s="15"/>
     </row>
-    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A526" s="15"/>
       <c r="B526" s="55"/>
       <c r="C526" s="68"/>
@@ -9878,7 +9878,7 @@
       <c r="K526" s="15"/>
       <c r="L526" s="15"/>
     </row>
-    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A527" s="15"/>
       <c r="B527" s="55"/>
       <c r="C527" s="68"/>
@@ -9892,7 +9892,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="15"/>
     </row>
-    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A528" s="15"/>
       <c r="B528" s="55"/>
       <c r="C528" s="68"/>
@@ -9906,7 +9906,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="15"/>
     </row>
-    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A529" s="15"/>
       <c r="B529" s="55"/>
       <c r="C529" s="68"/>
@@ -9920,7 +9920,7 @@
       <c r="K529" s="15"/>
       <c r="L529" s="15"/>
     </row>
-    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A530" s="15"/>
       <c r="B530" s="55"/>
       <c r="C530" s="68"/>
@@ -9934,7 +9934,7 @@
       <c r="K530" s="15"/>
       <c r="L530" s="15"/>
     </row>
-    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A531" s="15"/>
       <c r="B531" s="55"/>
       <c r="C531" s="68"/>
@@ -9948,7 +9948,7 @@
       <c r="K531" s="15"/>
       <c r="L531" s="15"/>
     </row>
-    <row r="532" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A532" s="15"/>
       <c r="B532" s="55"/>
       <c r="C532" s="68"/>
@@ -9962,7 +9962,7 @@
       <c r="K532" s="15"/>
       <c r="L532" s="15"/>
     </row>
-    <row r="533" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A533" s="15"/>
       <c r="B533" s="55"/>
       <c r="C533" s="68"/>
@@ -9976,7 +9976,7 @@
       <c r="K533" s="15"/>
       <c r="L533" s="15"/>
     </row>
-    <row r="534" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A534" s="15"/>
       <c r="B534" s="55"/>
       <c r="C534" s="68"/>
@@ -9990,7 +9990,7 @@
       <c r="K534" s="15"/>
       <c r="L534" s="15"/>
     </row>
-    <row r="535" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A535" s="15"/>
       <c r="B535" s="55"/>
       <c r="C535" s="68"/>
@@ -10004,7 +10004,7 @@
       <c r="K535" s="15"/>
       <c r="L535" s="15"/>
     </row>
-    <row r="536" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A536" s="15"/>
       <c r="B536" s="55"/>
       <c r="C536" s="68"/>
@@ -10018,7 +10018,7 @@
       <c r="K536" s="15"/>
       <c r="L536" s="15"/>
     </row>
-    <row r="537" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A537" s="15"/>
       <c r="B537" s="55"/>
       <c r="C537" s="68"/>
@@ -10032,7 +10032,7 @@
       <c r="K537" s="15"/>
       <c r="L537" s="15"/>
     </row>
-    <row r="538" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A538" s="15"/>
       <c r="B538" s="55"/>
       <c r="C538" s="68"/>
@@ -10046,7 +10046,7 @@
       <c r="K538" s="15"/>
       <c r="L538" s="15"/>
     </row>
-    <row r="539" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A539" s="15"/>
       <c r="B539" s="55"/>
       <c r="C539" s="68"/>
@@ -10060,7 +10060,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="15"/>
     </row>
-    <row r="540" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A540" s="15"/>
       <c r="B540" s="55"/>
       <c r="C540" s="68"/>
@@ -10074,7 +10074,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="15"/>
     </row>
-    <row r="541" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A541" s="15"/>
       <c r="B541" s="55"/>
       <c r="C541" s="68"/>
@@ -10088,7 +10088,7 @@
       <c r="K541" s="15"/>
       <c r="L541" s="15"/>
     </row>
-    <row r="542" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A542" s="15"/>
       <c r="B542" s="55"/>
       <c r="C542" s="68"/>
@@ -10102,7 +10102,7 @@
       <c r="K542" s="15"/>
       <c r="L542" s="15"/>
     </row>
-    <row r="543" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A543" s="15"/>
       <c r="B543" s="55"/>
       <c r="C543" s="68"/>
@@ -10116,7 +10116,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="15"/>
     </row>
-    <row r="544" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A544" s="15"/>
       <c r="B544" s="55"/>
       <c r="C544" s="68"/>
@@ -10130,7 +10130,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="15"/>
     </row>
-    <row r="545" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A545" s="15"/>
       <c r="B545" s="55"/>
       <c r="C545" s="68"/>
@@ -10144,7 +10144,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="15"/>
     </row>
-    <row r="546" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A546" s="15"/>
       <c r="B546" s="55"/>
       <c r="C546" s="68"/>
@@ -10158,7 +10158,7 @@
       <c r="K546" s="15"/>
       <c r="L546" s="15"/>
     </row>
-    <row r="547" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A547" s="15"/>
       <c r="B547" s="55"/>
       <c r="C547" s="68"/>
@@ -10172,7 +10172,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="15"/>
     </row>
-    <row r="548" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A548" s="15"/>
       <c r="B548" s="55"/>
       <c r="C548" s="68"/>
@@ -10186,7 +10186,7 @@
       <c r="K548" s="15"/>
       <c r="L548" s="15"/>
     </row>
-    <row r="549" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A549" s="15"/>
       <c r="B549" s="55"/>
       <c r="C549" s="68"/>
@@ -10200,2181 +10200,2181 @@
       <c r="K549" s="15"/>
       <c r="L549" s="15"/>
     </row>
-    <row r="550" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A550" s="15"/>
       <c r="B550" s="55"/>
       <c r="C550" s="68"/>
     </row>
-    <row r="551" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B551" s="55"/>
     </row>
-    <row r="552" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B552" s="55"/>
     </row>
-    <row r="553" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B553" s="55"/>
     </row>
-    <row r="554" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B554" s="55"/>
     </row>
-    <row r="555" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B555" s="55"/>
     </row>
-    <row r="556" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B556" s="55"/>
     </row>
-    <row r="557" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B557" s="55"/>
     </row>
-    <row r="558" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B558" s="55"/>
     </row>
-    <row r="559" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B559" s="55"/>
     </row>
-    <row r="560" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B560" s="55"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B561" s="55"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B562" s="55"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B563" s="55"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B564" s="55"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B565" s="55"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B566" s="55"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B567" s="55"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B568" s="55"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B569" s="55"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B570" s="55"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B571" s="55"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B572" s="55"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B573" s="55"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B574" s="55"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B575" s="55"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B576" s="55"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B577" s="55"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B578" s="55"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B579" s="55"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B580" s="55"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B581" s="55"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B582" s="55"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B583" s="55"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B584" s="55"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B585" s="55"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B586" s="55"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B587" s="55"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B588" s="55"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B589" s="55"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B590" s="55"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B591" s="55"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B592" s="55"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B593" s="55"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B594" s="55"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B595" s="55"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B596" s="55"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B597" s="55"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B598" s="55"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B599" s="55"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B600" s="55"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B601" s="55"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B602" s="55"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B603" s="55"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B604" s="55"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B605" s="55"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B606" s="55"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B607" s="55"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B608" s="55"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B609" s="55"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B610" s="55"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B611" s="55"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B612" s="55"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B613" s="55"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B614" s="55"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B615" s="55"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B616" s="55"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B617" s="55"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B618" s="55"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B619" s="55"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B620" s="55"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B621" s="55"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B622" s="55"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B623" s="55"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B624" s="55"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B625" s="55"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B626" s="55"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B627" s="55"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B628" s="55"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B629" s="55"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B630" s="55"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B631" s="55"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B632" s="55"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B633" s="55"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B634" s="55"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B635" s="55"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B636" s="55"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B637" s="55"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B638" s="55"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B639" s="55"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B640" s="55"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B641" s="55"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B642" s="55"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B643" s="55"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B644" s="55"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B645" s="55"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B646" s="55"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B647" s="55"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B648" s="55"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B649" s="55"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B650" s="55"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B651" s="55"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B652" s="55"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B653" s="55"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B654" s="55"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B655" s="55"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B656" s="55"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B657" s="55"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B658" s="55"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B659" s="55"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B660" s="55"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B661" s="55"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B662" s="55"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B663" s="55"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B664" s="55"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B665" s="55"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B666" s="55"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B667" s="55"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B668" s="55"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B669" s="55"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B670" s="55"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B671" s="55"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B672" s="55"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B673" s="55"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B674" s="55"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B675" s="55"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B676" s="55"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B677" s="55"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B678" s="55"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B679" s="55"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B680" s="55"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B681" s="55"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B682" s="55"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B683" s="55"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B684" s="55"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B685" s="55"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B686" s="55"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B687" s="55"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B688" s="55"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B689" s="55"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B690" s="55"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B691" s="55"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B692" s="55"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B693" s="55"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B694" s="55"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B695" s="55"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B696" s="55"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B697" s="55"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B698" s="55"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B699" s="55"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B700" s="55"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B701" s="55"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B702" s="55"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B703" s="55"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B704" s="55"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B705" s="55"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B706" s="55"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B707" s="55"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B708" s="55"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B709" s="55"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B710" s="55"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B711" s="55"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B712" s="55"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B713" s="55"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B714" s="55"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B715" s="55"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B716" s="55"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B717" s="55"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B718" s="55"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B719" s="55"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B720" s="55"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B721" s="55"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B722" s="55"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B723" s="55"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B724" s="55"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B725" s="55"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B726" s="55"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B727" s="55"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B728" s="55"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B729" s="55"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B730" s="55"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B731" s="55"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B732" s="55"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B733" s="55"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B734" s="55"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B735" s="55"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B736" s="55"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B737" s="55"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B738" s="55"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B739" s="55"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B740" s="55"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B741" s="55"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B742" s="55"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B743" s="55"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B744" s="55"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B745" s="55"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B746" s="55"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B747" s="55"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B748" s="55"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B749" s="55"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B750" s="55"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B751" s="55"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B752" s="55"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B753" s="55"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B754" s="55"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B755" s="55"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B756" s="55"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B757" s="55"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B758" s="55"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B759" s="55"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B760" s="55"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B761" s="55"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B762" s="55"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B763" s="55"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B764" s="55"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B765" s="55"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B766" s="55"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B767" s="55"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B768" s="55"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B769" s="55"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B770" s="55"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B771" s="55"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B772" s="55"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B773" s="55"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B774" s="55"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B775" s="55"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B776" s="55"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B777" s="55"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B778" s="55"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B779" s="55"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B780" s="55"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B781" s="55"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B782" s="55"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B783" s="55"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B784" s="55"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B785" s="55"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B786" s="55"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B787" s="55"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B788" s="55"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B789" s="55"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B790" s="55"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B791" s="55"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B792" s="55"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B793" s="55"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B794" s="55"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B795" s="55"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B796" s="55"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B797" s="55"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B798" s="55"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B799" s="55"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B800" s="55"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B801" s="55"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B802" s="55"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B803" s="55"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B804" s="55"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B805" s="55"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B806" s="55"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B807" s="55"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B808" s="55"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B809" s="55"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B810" s="55"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B811" s="55"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B812" s="55"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B813" s="55"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B814" s="55"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B815" s="55"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B816" s="55"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B817" s="55"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B818" s="55"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B819" s="55"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B820" s="55"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B821" s="55"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B822" s="55"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B823" s="55"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B824" s="55"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B825" s="55"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B826" s="55"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B827" s="55"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B828" s="55"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B829" s="55"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B830" s="55"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B831" s="55"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B832" s="55"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B833" s="55"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B834" s="55"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B835" s="55"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B836" s="55"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B837" s="55"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B838" s="55"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B839" s="55"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B840" s="55"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B841" s="55"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B842" s="55"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B843" s="55"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B844" s="55"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B845" s="55"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B846" s="55"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B847" s="55"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B848" s="55"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B849" s="55"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B850" s="55"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B851" s="55"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B852" s="55"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B853" s="55"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B854" s="55"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B855" s="55"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B856" s="55"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B857" s="55"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B858" s="55"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B859" s="55"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B860" s="55"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B861" s="55"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B862" s="55"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B863" s="55"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B864" s="55"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B865" s="55"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B866" s="55"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B867" s="55"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B868" s="55"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B869" s="55"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B870" s="55"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B871" s="55"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B872" s="55"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B873" s="55"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B874" s="55"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B875" s="55"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B876" s="55"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B877" s="55"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B878" s="55"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B879" s="55"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B880" s="55"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B881" s="55"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B882" s="55"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B883" s="55"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B884" s="55"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B885" s="55"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B886" s="55"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B887" s="55"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B888" s="55"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B889" s="55"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B890" s="55"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B891" s="55"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B892" s="55"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B893" s="55"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B894" s="55"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B895" s="55"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B896" s="55"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B897" s="55"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B898" s="55"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B899" s="55"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B900" s="55"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B901" s="55"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B902" s="55"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B903" s="55"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B904" s="55"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B905" s="55"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B906" s="55"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B907" s="55"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B908" s="55"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B909" s="55"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B910" s="55"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B911" s="55"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B912" s="55"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B913" s="55"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B914" s="55"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B915" s="55"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B916" s="55"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B917" s="55"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B918" s="55"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B919" s="55"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B920" s="55"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B921" s="55"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B922" s="55"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B923" s="55"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B924" s="55"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B925" s="55"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B926" s="55"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B927" s="55"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B928" s="55"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B929" s="55"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B930" s="55"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B931" s="55"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B932" s="55"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B933" s="55"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B934" s="55"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B935" s="55"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B936" s="55"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B937" s="55"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B938" s="55"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B939" s="55"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B940" s="55"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B941" s="55"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B942" s="55"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B943" s="55"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B944" s="55"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B945" s="55"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B946" s="55"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B947" s="55"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B948" s="55"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B949" s="55"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B950" s="55"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B951" s="55"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B952" s="55"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B953" s="55"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B954" s="55"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B955" s="55"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B956" s="55"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B957" s="55"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B958" s="55"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B959" s="55"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B960" s="55"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B961" s="55"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B962" s="55"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B963" s="55"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B964" s="55"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B965" s="55"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B966" s="55"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B967" s="55"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B968" s="55"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B969" s="55"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B970" s="55"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B971" s="55"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B972" s="55"/>
     </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B973" s="55"/>
     </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B974" s="55"/>
     </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B975" s="55"/>
     </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B976" s="55"/>
     </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B977" s="55"/>
     </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B978" s="55"/>
     </row>
-    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B979" s="55"/>
     </row>
-    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B980" s="55"/>
     </row>
-    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B981" s="55"/>
     </row>
-    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B982" s="55"/>
     </row>
-    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B983" s="55"/>
     </row>
-    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B984" s="55"/>
     </row>
-    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B985" s="55"/>
     </row>
-    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B986" s="55"/>
     </row>
-    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B987" s="55"/>
     </row>
-    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B988" s="55"/>
     </row>
-    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B989" s="55"/>
     </row>
-    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B990" s="55"/>
     </row>
-    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B991" s="55"/>
     </row>
-    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B992" s="55"/>
     </row>
-    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B993" s="55"/>
     </row>
-    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B994" s="55"/>
     </row>
-    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B995" s="55"/>
     </row>
-    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B996" s="55"/>
     </row>
-    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B997" s="55"/>
     </row>
-    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B998" s="55"/>
     </row>
-    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B999" s="55"/>
     </row>
-    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1000" s="55"/>
     </row>
-    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1001" s="55"/>
     </row>
-    <row r="1002" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1002" s="55"/>
     </row>
-    <row r="1003" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1003" s="55"/>
     </row>
-    <row r="1004" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1004" s="55"/>
     </row>
-    <row r="1005" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1005" s="55"/>
     </row>
-    <row r="1006" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1006" s="55"/>
     </row>
-    <row r="1007" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1007" s="55"/>
     </row>
-    <row r="1008" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1008" s="55"/>
     </row>
-    <row r="1009" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1009" s="55"/>
     </row>
-    <row r="1010" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1010" s="55"/>
     </row>
-    <row r="1011" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1011" s="55"/>
     </row>
-    <row r="1012" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1012" s="55"/>
     </row>
-    <row r="1013" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1013" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1013" s="55"/>
     </row>
-    <row r="1014" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1014" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1014" s="55"/>
     </row>
-    <row r="1015" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1015" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1015" s="55"/>
     </row>
-    <row r="1016" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1016" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1016" s="55"/>
     </row>
-    <row r="1017" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1017" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1017" s="55"/>
     </row>
-    <row r="1018" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1018" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1018" s="55"/>
     </row>
-    <row r="1019" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1019" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1019" s="55"/>
     </row>
-    <row r="1020" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1020" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1020" s="55"/>
     </row>
-    <row r="1021" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1021" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1021" s="55"/>
     </row>
-    <row r="1022" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1022" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1022" s="55"/>
     </row>
-    <row r="1023" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1023" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1023" s="55"/>
     </row>
-    <row r="1024" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1024" s="55"/>
     </row>
-    <row r="1025" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1025" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1025" s="55"/>
     </row>
-    <row r="1026" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1026" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1026" s="55"/>
     </row>
-    <row r="1027" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1027" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1027" s="55"/>
     </row>
-    <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1028" s="55"/>
     </row>
-    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1029" s="55"/>
     </row>
-    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1030" s="55"/>
     </row>
-    <row r="1031" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1031" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1031" s="55"/>
     </row>
-    <row r="1032" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1032" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1032" s="55"/>
     </row>
-    <row r="1033" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1033" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1033" s="55"/>
     </row>
-    <row r="1034" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1034" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1034" s="55"/>
     </row>
-    <row r="1035" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1035" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1035" s="55"/>
     </row>
-    <row r="1036" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1036" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1036" s="55"/>
     </row>
-    <row r="1037" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1037" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1037" s="55"/>
     </row>
-    <row r="1038" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1038" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1038" s="55"/>
     </row>
-    <row r="1039" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1039" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1039" s="55"/>
     </row>
-    <row r="1040" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1040" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1040" s="55"/>
     </row>
-    <row r="1041" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1041" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1041" s="55"/>
     </row>
-    <row r="1042" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1042" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1042" s="55"/>
     </row>
-    <row r="1043" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1043" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1043" s="55"/>
     </row>
-    <row r="1044" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1044" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1044" s="55"/>
     </row>
-    <row r="1045" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1045" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1045" s="55"/>
     </row>
-    <row r="1046" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1046" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1046" s="55"/>
     </row>
-    <row r="1047" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1047" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1047" s="55"/>
     </row>
-    <row r="1048" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1048" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1048" s="55"/>
     </row>
-    <row r="1049" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1049" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1049" s="55"/>
     </row>
-    <row r="1050" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1050" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1050" s="55"/>
     </row>
-    <row r="1051" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1051" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1051" s="55"/>
     </row>
-    <row r="1052" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1052" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1052" s="55"/>
     </row>
-    <row r="1053" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1053" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1053" s="55"/>
     </row>
-    <row r="1054" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1054" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1054" s="55"/>
     </row>
-    <row r="1055" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1055" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1055" s="55"/>
     </row>
-    <row r="1056" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1056" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1056" s="55"/>
     </row>
-    <row r="1057" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1057" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1057" s="55"/>
     </row>
-    <row r="1058" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1058" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1058" s="55"/>
     </row>
-    <row r="1059" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1059" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1059" s="55"/>
     </row>
-    <row r="1060" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1060" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1060" s="55"/>
     </row>
-    <row r="1061" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1061" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1061" s="55"/>
     </row>
-    <row r="1062" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1062" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1062" s="55"/>
     </row>
-    <row r="1063" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1063" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1063" s="55"/>
     </row>
-    <row r="1064" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1064" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1064" s="55"/>
     </row>
-    <row r="1065" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1065" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1065" s="55"/>
     </row>
-    <row r="1066" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1066" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1066" s="55"/>
     </row>
-    <row r="1067" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1067" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1067" s="55"/>
     </row>
-    <row r="1068" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1068" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1068" s="55"/>
     </row>
-    <row r="1069" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1069" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1069" s="55"/>
     </row>
-    <row r="1070" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1070" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1070" s="55"/>
     </row>
-    <row r="1071" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1071" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1071" s="55"/>
     </row>
-    <row r="1072" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1072" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1072" s="55"/>
     </row>
-    <row r="1073" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1073" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1073" s="55"/>
     </row>
-    <row r="1074" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1074" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1074" s="55"/>
     </row>
-    <row r="1075" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1075" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1075" s="55"/>
     </row>
-    <row r="1076" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1076" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1076" s="55"/>
     </row>
-    <row r="1077" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1077" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1077" s="55"/>
     </row>
-    <row r="1078" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1078" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1078" s="55"/>
     </row>
-    <row r="1079" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1079" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1079" s="55"/>
     </row>
-    <row r="1080" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1080" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1080" s="55"/>
     </row>
-    <row r="1081" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1081" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1081" s="55"/>
     </row>
-    <row r="1082" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1082" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1082" s="55"/>
     </row>
-    <row r="1083" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1083" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1083" s="55"/>
     </row>
-    <row r="1084" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1084" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1084" s="55"/>
     </row>
-    <row r="1085" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1085" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1085" s="55"/>
     </row>
-    <row r="1086" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1086" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1086" s="55"/>
     </row>
-    <row r="1087" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1087" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1087" s="55"/>
     </row>
-    <row r="1088" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1088" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1088" s="55"/>
     </row>
-    <row r="1089" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1089" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1089" s="55"/>
     </row>
-    <row r="1090" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1090" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1090" s="55"/>
     </row>
-    <row r="1091" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1091" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1091" s="55"/>
     </row>
-    <row r="1092" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1092" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1092" s="55"/>
     </row>
-    <row r="1093" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1093" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1093" s="55"/>
     </row>
-    <row r="1094" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1094" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1094" s="55"/>
     </row>
-    <row r="1095" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1095" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1095" s="55"/>
     </row>
-    <row r="1096" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1096" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1096" s="55"/>
     </row>
-    <row r="1097" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1097" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1097" s="55"/>
     </row>
-    <row r="1098" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1098" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1098" s="55"/>
     </row>
-    <row r="1099" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1099" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1099" s="55"/>
     </row>
-    <row r="1100" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1100" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1100" s="55"/>
     </row>
-    <row r="1101" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1101" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1101" s="55"/>
     </row>
-    <row r="1102" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1102" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1102" s="55"/>
     </row>
-    <row r="1103" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1103" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1103" s="55"/>
     </row>
-    <row r="1104" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1104" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1104" s="55"/>
     </row>
-    <row r="1105" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1105" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1105" s="55"/>
     </row>
-    <row r="1106" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1106" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1106" s="55"/>
     </row>
-    <row r="1107" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1107" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1107" s="55"/>
     </row>
-    <row r="1108" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1108" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1108" s="55"/>
     </row>
-    <row r="1109" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1109" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1109" s="55"/>
     </row>
-    <row r="1110" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1110" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1110" s="55"/>
     </row>
-    <row r="1111" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1111" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1111" s="55"/>
     </row>
-    <row r="1112" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1112" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1112" s="55"/>
     </row>
-    <row r="1113" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1113" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1113" s="55"/>
     </row>
-    <row r="1114" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1114" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1114" s="55"/>
     </row>
-    <row r="1115" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1115" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1115" s="55"/>
     </row>
-    <row r="1116" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1116" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1116" s="55"/>
     </row>
-    <row r="1117" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1117" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1117" s="55"/>
     </row>
-    <row r="1118" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1118" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1118" s="55"/>
     </row>
-    <row r="1119" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1119" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1119" s="55"/>
     </row>
-    <row r="1120" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1120" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1120" s="55"/>
     </row>
-    <row r="1121" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1121" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1121" s="55"/>
     </row>
-    <row r="1122" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1122" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1122" s="55"/>
     </row>
-    <row r="1123" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1123" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1123" s="55"/>
     </row>
-    <row r="1124" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1124" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1124" s="55"/>
     </row>
-    <row r="1125" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1125" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1125" s="55"/>
     </row>
-    <row r="1126" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1126" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1126" s="55"/>
     </row>
-    <row r="1127" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1127" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1127" s="55"/>
     </row>
-    <row r="1128" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1128" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1128" s="55"/>
     </row>
-    <row r="1129" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1129" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1129" s="55"/>
     </row>
-    <row r="1130" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1130" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1130" s="55"/>
     </row>
-    <row r="1131" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1131" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1131" s="55"/>
     </row>
-    <row r="1132" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1132" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1132" s="55"/>
     </row>
-    <row r="1133" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1133" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1133" s="55"/>
     </row>
-    <row r="1134" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1134" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1134" s="55"/>
     </row>
-    <row r="1135" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1135" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1135" s="55"/>
     </row>
-    <row r="1136" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1136" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1136" s="55"/>
     </row>
-    <row r="1137" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1137" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1137" s="55"/>
     </row>
-    <row r="1138" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1138" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1138" s="55"/>
     </row>
-    <row r="1139" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1139" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1139" s="55"/>
     </row>
-    <row r="1140" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1140" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1140" s="55"/>
     </row>
-    <row r="1141" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1141" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1141" s="55"/>
     </row>
-    <row r="1142" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1142" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1142" s="55"/>
     </row>
-    <row r="1143" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1143" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1143" s="55"/>
     </row>
-    <row r="1144" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1144" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1144" s="55"/>
     </row>
-    <row r="1145" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1145" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1145" s="55"/>
     </row>
-    <row r="1146" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1146" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1146" s="55"/>
     </row>
-    <row r="1147" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1147" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1147" s="55"/>
     </row>
-    <row r="1148" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1148" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1148" s="55"/>
     </row>
-    <row r="1149" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1149" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1149" s="55"/>
     </row>
-    <row r="1150" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1150" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1150" s="55"/>
     </row>
-    <row r="1151" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1151" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1151" s="55"/>
     </row>
-    <row r="1152" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1152" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1152" s="55"/>
     </row>
-    <row r="1153" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1153" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1153" s="55"/>
     </row>
-    <row r="1154" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1154" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1154" s="55"/>
     </row>
-    <row r="1155" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1155" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1155" s="55"/>
     </row>
-    <row r="1156" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1156" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1156" s="55"/>
     </row>
-    <row r="1157" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1157" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1157" s="55"/>
     </row>
-    <row r="1158" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1158" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1158" s="55"/>
     </row>
-    <row r="1159" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1159" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1159" s="55"/>
     </row>
-    <row r="1160" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1160" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1160" s="55"/>
     </row>
-    <row r="1161" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1161" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1161" s="55"/>
     </row>
-    <row r="1162" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1162" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1162" s="55"/>
     </row>
-    <row r="1163" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1163" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1163" s="55"/>
     </row>
-    <row r="1164" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1164" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1164" s="55"/>
     </row>
-    <row r="1165" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1165" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1165" s="55"/>
     </row>
-    <row r="1166" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1166" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1166" s="55"/>
     </row>
-    <row r="1167" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1167" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1167" s="55"/>
     </row>
-    <row r="1168" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1168" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1168" s="55"/>
     </row>
-    <row r="1169" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1169" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1169" s="55"/>
     </row>
-    <row r="1170" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1170" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1170" s="55"/>
     </row>
-    <row r="1171" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1171" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1171" s="55"/>
     </row>
-    <row r="1172" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1172" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1172" s="55"/>
     </row>
-    <row r="1173" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1173" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1173" s="55"/>
     </row>
-    <row r="1174" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1174" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1174" s="55"/>
     </row>
-    <row r="1175" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1175" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1175" s="55"/>
     </row>
-    <row r="1176" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1176" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1176" s="55"/>
     </row>
-    <row r="1177" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1177" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1177" s="55"/>
     </row>
-    <row r="1178" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1178" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1178" s="55"/>
     </row>
-    <row r="1179" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1179" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1179" s="55"/>
     </row>
-    <row r="1180" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1180" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1180" s="55"/>
     </row>
-    <row r="1181" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1181" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1181" s="55"/>
     </row>
-    <row r="1182" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1182" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1182" s="55"/>
     </row>
-    <row r="1183" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1183" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1183" s="55"/>
     </row>
-    <row r="1184" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1184" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1184" s="55"/>
     </row>
-    <row r="1185" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1185" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1185" s="55"/>
     </row>
-    <row r="1186" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1186" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1186" s="55"/>
     </row>
-    <row r="1187" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1187" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1187" s="55"/>
     </row>
-    <row r="1188" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1188" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1188" s="55"/>
     </row>
-    <row r="1189" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1189" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1189" s="55"/>
     </row>
-    <row r="1190" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1190" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1190" s="55"/>
     </row>
-    <row r="1191" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1191" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1191" s="55"/>
     </row>
-    <row r="1192" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1192" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1192" s="55"/>
     </row>
-    <row r="1193" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1193" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1193" s="55"/>
     </row>
-    <row r="1194" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1194" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1194" s="55"/>
     </row>
-    <row r="1195" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1195" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1195" s="55"/>
     </row>
-    <row r="1196" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1196" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1196" s="55"/>
     </row>
-    <row r="1197" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1197" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1197" s="55"/>
     </row>
-    <row r="1198" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1198" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1198" s="55"/>
     </row>
-    <row r="1199" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1199" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1199" s="55"/>
     </row>
-    <row r="1200" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1200" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1200" s="55"/>
     </row>
-    <row r="1201" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1201" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1201" s="55"/>
     </row>
-    <row r="1202" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1202" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1202" s="55"/>
     </row>
-    <row r="1203" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1203" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1203" s="55"/>
     </row>
-    <row r="1204" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1204" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1204" s="55"/>
     </row>
-    <row r="1205" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1205" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1205" s="55"/>
     </row>
-    <row r="1206" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1206" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1206" s="55"/>
     </row>
-    <row r="1207" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1207" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1207" s="55"/>
     </row>
-    <row r="1208" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1208" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1208" s="55"/>
     </row>
-    <row r="1209" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1209" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1209" s="55"/>
     </row>
-    <row r="1210" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1210" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1210" s="55"/>
     </row>
-    <row r="1211" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1211" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1211" s="55"/>
     </row>
-    <row r="1212" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1212" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1212" s="55"/>
     </row>
-    <row r="1213" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1213" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1213" s="55"/>
     </row>
-    <row r="1214" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1214" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1214" s="55"/>
     </row>
-    <row r="1215" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1215" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1215" s="55"/>
     </row>
-    <row r="1216" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1216" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1216" s="55"/>
     </row>
-    <row r="1217" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1217" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1217" s="55"/>
     </row>
-    <row r="1218" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1218" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1218" s="55"/>
     </row>
-    <row r="1219" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1219" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1219" s="55"/>
     </row>
-    <row r="1220" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1220" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1220" s="55"/>
     </row>
-    <row r="1221" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1221" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1221" s="55"/>
     </row>
-    <row r="1222" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1222" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1222" s="55"/>
     </row>
-    <row r="1223" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1223" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1223" s="55"/>
     </row>
-    <row r="1224" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1224" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1224" s="55"/>
     </row>
-    <row r="1225" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1225" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1225" s="55"/>
     </row>
-    <row r="1226" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1226" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1226" s="55"/>
     </row>
-    <row r="1227" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1227" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1227" s="55"/>
     </row>
-    <row r="1228" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1228" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1228" s="55"/>
     </row>
-    <row r="1229" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1229" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1229" s="55"/>
     </row>
-    <row r="1230" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1230" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1230" s="55"/>
     </row>
-    <row r="1231" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1231" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1231" s="55"/>
     </row>
-    <row r="1232" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1232" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1232" s="55"/>
     </row>
-    <row r="1233" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1233" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1233" s="55"/>
     </row>
-    <row r="1234" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1234" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1234" s="55"/>
     </row>
-    <row r="1235" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1235" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1235" s="55"/>
     </row>
-    <row r="1236" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1236" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1236" s="55"/>
     </row>
-    <row r="1237" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1237" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1237" s="55"/>
     </row>
-    <row r="1238" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1238" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1238" s="55"/>
     </row>
-    <row r="1239" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1239" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1239" s="55"/>
     </row>
-    <row r="1240" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1240" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1240" s="55"/>
     </row>
-    <row r="1241" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1241" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1241" s="55"/>
     </row>
-    <row r="1242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1242" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1242" s="55"/>
     </row>
-    <row r="1243" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1243" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1243" s="55"/>
     </row>
-    <row r="1244" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1244" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1244" s="55"/>
     </row>
-    <row r="1245" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1245" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1245" s="55"/>
     </row>
-    <row r="1246" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1246" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1246" s="55"/>
     </row>
-    <row r="1247" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1247" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1247" s="55"/>
     </row>
-    <row r="1248" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1248" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1248" s="55"/>
     </row>
-    <row r="1249" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1249" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1249" s="55"/>
     </row>
-    <row r="1250" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1250" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1250" s="55"/>
     </row>
-    <row r="1251" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1251" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1251" s="55"/>
     </row>
-    <row r="1252" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1252" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1252" s="55"/>
     </row>
-    <row r="1253" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1253" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1253" s="55"/>
     </row>
-    <row r="1254" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1254" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1254" s="55"/>
     </row>
-    <row r="1255" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1255" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1255" s="55"/>
     </row>
-    <row r="1256" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1256" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1256" s="55"/>
     </row>
-    <row r="1257" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1257" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1257" s="55"/>
     </row>
-    <row r="1258" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1258" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1258" s="55"/>
     </row>
-    <row r="1259" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1259" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1259" s="55"/>
     </row>
-    <row r="1260" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1260" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1260" s="55"/>
     </row>
-    <row r="1261" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1261" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1261" s="55"/>
     </row>
-    <row r="1262" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1262" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1262" s="55"/>
     </row>
-    <row r="1263" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1263" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1263" s="55"/>
     </row>
-    <row r="1264" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1264" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1264" s="55"/>
     </row>
-    <row r="1265" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1265" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1265" s="55"/>
     </row>
-    <row r="1266" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1266" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1266" s="55"/>
     </row>
-    <row r="1267" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1267" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1267" s="55"/>
     </row>
-    <row r="1268" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1268" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1268" s="55"/>
     </row>
-    <row r="1269" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1269" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1269" s="55"/>
     </row>
-    <row r="1270" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1270" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1270" s="55"/>
     </row>
-    <row r="1271" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1271" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1271" s="55"/>
     </row>
-    <row r="1272" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1272" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1272" s="55"/>
     </row>
-    <row r="1273" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1273" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B1273" s="55"/>
     </row>
-    <row r="1274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="2:2" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1274" s="55"/>
     </row>
   </sheetData>
@@ -12395,12 +12395,12 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -12433,19 +12433,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -12457,13 +12457,13 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
@@ -12522,13 +12522,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="I15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>31</v>
       </c>
@@ -12539,6 +12539,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100394901649B02EC40AECEE74373C2BCFB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c548092ed7ffde5bf55cdde70e885909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a610d30-47f5-48fa-993a-ebd5f6c01eb5" xmlns:ns4="8ef9ae36-75f4-4361-98b4-d13e7bd566ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="311fce01ccce723253d76312a734f73f" ns3:_="" ns4:_="">
     <xsd:import namespace="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
@@ -12761,36 +12776,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D5E42A-DB13-41EF-BF50-8CA2F680B9CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFFBAE0-186B-4BB1-AA49-34BDB2C855C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
-    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12813,9 +12802,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFFBAE0-186B-4BB1-AA49-34BDB2C855C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D5E42A-DB13-41EF-BF50-8CA2F680B9CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
+    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Camp RIO groups 21-22.xlsx
+++ b/data/Camp RIO groups 21-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideapublicschoolsorg-my.sharepoint.com/personal/aline_orr_ideapublicschools_org/Documents/Documents/Github/Camp-Rio-Year-3-21-22-/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{75D87B55-CA95-447F-8846-9A58417475AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="114_{75D87B55-CA95-447F-8846-9A58417475AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEAC1FEA-D814-4C68-ABE6-F78B40CC5538}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20238" windowHeight="11431" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="19176" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-2022" sheetId="9" r:id="rId1"/>
@@ -1008,16 +1008,16 @@
   <dimension ref="A1:L1274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" style="69" customWidth="1"/>
-    <col min="4" max="16384" width="14.3984375" style="28"/>
+    <col min="1" max="1" width="17.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,13 +1036,13 @@
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
-        <v>44499</v>
+        <v>44508</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C2" s="25">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -1056,15 +1056,15 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
-        <v>44508</v>
+        <v>44469</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C3" s="25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -1078,15 +1078,15 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
-        <v>44469</v>
+        <v>44454</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="25">
-        <v>8</v>
+      <c r="C4" s="35">
+        <v>9</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -1100,15 +1100,15 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
-        <v>44454</v>
+        <v>44530</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -1122,15 +1122,15 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
-        <v>44530</v>
+        <v>44517</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="35">
-        <v>10</v>
+      <c r="C6" s="25">
+        <v>11</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -1144,15 +1144,15 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="42.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>44517</v>
+    <row r="7" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>44613</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -1166,15 +1166,15 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
-        <v>44613</v>
+        <v>44609</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -1188,15 +1188,15 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>44609</v>
+    <row r="9" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>44461</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -1210,15 +1210,15 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="33.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -1232,15 +1232,15 @@
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>44463</v>
+    <row r="11" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>44678</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -1254,7 +1254,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="54.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>44545</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>44483</v>
       </c>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
-        <v>44481</v>
+        <v>44684</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C28" s="25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="15">
         <v>0</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
-        <v>44501</v>
+        <v>44698</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C29" s="25">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <v>44488</v>
+        <v>44481</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C30" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>44489</v>
+        <v>44501</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C31" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
@@ -1687,14 +1687,14 @@
       <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
-        <v>44475</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="16">
+        <v>44488</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="15">
         <v>0</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -1731,14 +1731,14 @@
       <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>44476</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="38">
+        <v>44475</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="15">
         <v>0</v>
@@ -1753,14 +1753,14 @@
       <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
-        <v>44546</v>
+      <c r="A35" s="16">
+        <v>44490</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
-        <v>44600</v>
+        <v>44476</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="15">
         <v>0</v>
@@ -1793,14 +1793,14 @@
       <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>44601</v>
+      <c r="A37" s="13">
+        <v>44546</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -1813,16 +1813,16 @@
       <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
-        <v>44603</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="25">
-        <v>5</v>
-      </c>
-      <c r="D38" s="15">
+      <c r="A38" s="71">
+        <v>44701</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="73">
+        <v>6</v>
+      </c>
+      <c r="D38" s="74">
         <v>0</v>
       </c>
       <c r="E38" s="15"/>
@@ -1835,14 +1835,14 @@
       <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
-        <v>44603</v>
+      <c r="A39" s="16">
+        <v>44600</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
@@ -1855,14 +1855,14 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>44627</v>
+      <c r="A40" s="16">
+        <v>44601</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" s="15">
         <v>0</v>
@@ -1877,14 +1877,14 @@
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="38">
-        <v>44602</v>
+      <c r="A41" s="13">
+        <v>44603</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C41" s="25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
@@ -1899,17 +1899,17 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>44596</v>
+      <c r="A42" s="13">
+        <v>44603</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C42" s="25">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D42" s="15">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -1921,17 +1921,17 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="37">
-        <v>44610</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="26">
-        <v>99</v>
-      </c>
-      <c r="D43" s="29">
-        <v>99</v>
+      <c r="A43" s="13">
+        <v>44627</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="25">
+        <v>6</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
-        <v>44566</v>
+        <v>44699</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -1965,14 +1965,14 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>44565</v>
+      <c r="A45" s="38">
+        <v>44602</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="35">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="C45" s="25">
+        <v>3</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -1988,13 +1988,13 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
-        <v>44460</v>
+        <v>44499</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C46" s="25">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D46" s="15">
         <v>0</v>
@@ -2009,17 +2009,17 @@
       <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>44505</v>
+      <c r="A47" s="16">
+        <v>44596</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C47" s="25">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2031,28 +2031,28 @@
       <c r="L47" s="15"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>44455</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="25">
-        <v>2</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0</v>
+      <c r="A48" s="37">
+        <v>44610</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="26">
+        <v>99</v>
+      </c>
+      <c r="D48" s="29">
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="38">
-        <v>44454</v>
+      <c r="A49" s="16">
+        <v>44566</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49" s="15">
         <v>0</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
-        <v>44461</v>
+        <v>44565</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="25">
-        <v>4</v>
+      <c r="C50" s="35">
+        <v>9</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="25">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
@@ -2109,14 +2109,14 @@
       <c r="L51" s="15"/>
     </row>
     <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>44487</v>
+      <c r="A52" s="40">
+        <v>44505</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
@@ -2131,14 +2131,14 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>44606</v>
+      <c r="A53" s="16">
+        <v>44455</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="35">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C53" s="25">
+        <v>2</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
@@ -2153,14 +2153,14 @@
       <c r="L53" s="15"/>
     </row>
     <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>44615</v>
+      <c r="A54" s="38">
+        <v>44454</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C54" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" s="15">
         <v>0</v>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
-        <v>44453</v>
+        <v>44461</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C55" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D55" s="15">
         <v>0</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
-        <v>44453</v>
+        <v>44468</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C56" s="25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" s="15">
         <v>0</v>
@@ -2219,14 +2219,14 @@
       <c r="L56" s="15"/>
     </row>
     <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
-        <v>44456</v>
+      <c r="A57" s="16">
+        <v>44487</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C57" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -2241,14 +2241,14 @@
       <c r="L57" s="15"/>
     </row>
     <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>44463</v>
+      <c r="A58" s="13">
+        <v>44606</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="25">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="C58" s="35">
+        <v>10</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -2263,11 +2263,11 @@
       <c r="L58" s="15"/>
     </row>
     <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
-        <v>44579</v>
+      <c r="A59" s="16">
+        <v>44615</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" s="25">
         <v>6</v>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
-        <v>44607</v>
+        <v>44453</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D60" s="15">
         <v>0</v>
@@ -2307,14 +2307,14 @@
       <c r="L60" s="15"/>
     </row>
     <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
-        <v>44620</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>75</v>
+      <c r="A61" s="16">
+        <v>44453</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C61" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -2330,13 +2330,13 @@
     </row>
     <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
-        <v>44621</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>75</v>
+        <v>44456</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C62" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62" s="15">
         <v>0</v>
@@ -2351,14 +2351,14 @@
       <c r="L62" s="15"/>
     </row>
     <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
-        <v>44622</v>
+      <c r="A63" s="16">
+        <v>44463</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C63" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
-        <v>44623</v>
+        <v>44579</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C64" s="25">
         <v>6</v>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
-        <v>44616</v>
+        <v>44607</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C65" s="25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -2417,14 +2417,14 @@
       <c r="L65" s="15"/>
     </row>
     <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>44575</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>66</v>
+      <c r="A66" s="13">
+        <v>44620</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C66" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="15">
         <v>0</v>
@@ -2439,14 +2439,14 @@
       <c r="L66" s="15"/>
     </row>
     <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>44594</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>52</v>
+      <c r="A67" s="13">
+        <v>44621</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="C67" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="15">
         <v>0</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
-        <v>44579</v>
+        <v>44622</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C68" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -2483,14 +2483,14 @@
       <c r="L68" s="15"/>
     </row>
     <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
-        <v>44599</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="35">
-        <v>9</v>
+      <c r="A69" s="13">
+        <v>44623</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="25">
+        <v>6</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
@@ -2506,13 +2506,13 @@
     </row>
     <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
-        <v>44573</v>
+        <v>44616</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C70" s="25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" s="15">
         <v>0</v>
@@ -2525,14 +2525,14 @@
       <c r="L70" s="15"/>
     </row>
     <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
-        <v>44545</v>
+      <c r="A71" s="16">
+        <v>44575</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C71" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -2545,14 +2545,14 @@
       <c r="L71" s="15"/>
     </row>
     <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="13">
-        <v>44544</v>
+      <c r="A72" s="16">
+        <v>44594</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C72" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="43">
-        <v>44543</v>
+        <v>44579</v>
       </c>
       <c r="B73" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="46">
-        <v>44532</v>
-      </c>
-      <c r="B74" s="14" t="s">
+        <v>44599</v>
+      </c>
+      <c r="B74" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="25">
-        <v>5</v>
+      <c r="C74" s="35">
+        <v>9</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="46">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C75" s="25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -2631,14 +2631,14 @@
       <c r="L75" s="15"/>
     </row>
     <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <v>44470</v>
+      <c r="A76" s="13">
+        <v>44545</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C76" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -2653,14 +2653,14 @@
       <c r="L76" s="15"/>
     </row>
     <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <v>44488</v>
+      <c r="A77" s="13">
+        <v>44544</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C77" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D77" s="15">
         <v>0</v>
@@ -2676,13 +2676,13 @@
     </row>
     <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="36">
-        <v>44459</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="35">
-        <v>10</v>
+        <v>44543</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="50">
+        <v>4</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
-        <v>44498</v>
+        <v>44532</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C79" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -2719,14 +2719,14 @@
       <c r="L79" s="15"/>
     </row>
     <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <v>44474</v>
+      <c r="A80" s="38">
+        <v>44587</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C80" s="25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
-        <v>44620</v>
+        <v>44470</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C81" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
-        <v>44462</v>
+        <v>44488</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D82" s="15">
         <v>0</v>
@@ -2785,14 +2785,14 @@
       <c r="L82" s="15"/>
     </row>
     <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
-        <v>44572</v>
+      <c r="A83" s="36">
+        <v>44459</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="25">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="C83" s="35">
+        <v>10</v>
       </c>
       <c r="D83" s="15">
         <v>0</v>
@@ -2807,14 +2807,14 @@
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
-        <v>44494</v>
+      <c r="A84" s="38">
+        <v>44498</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C84" s="25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
-        <v>44505</v>
-      </c>
-      <c r="B85" s="47" t="s">
+        <v>44474</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -2850,16 +2850,16 @@
     </row>
     <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
-        <v>44483</v>
+        <v>44620</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C86" s="25">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D86" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
-        <v>44580</v>
+        <v>44462</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" s="25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
-        <v>44615</v>
+        <v>44572</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" s="25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D88" s="15">
         <v>0</v>
@@ -2916,13 +2916,13 @@
     </row>
     <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
-        <v>44573</v>
-      </c>
-      <c r="B89" s="47" t="s">
-        <v>76</v>
+        <v>44494</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C89" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
@@ -2937,14 +2937,14 @@
       <c r="L89" s="15"/>
     </row>
     <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="13">
-        <v>44512</v>
+      <c r="A90" s="16">
+        <v>44505</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C90" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90" s="15">
         <v>0</v>
@@ -2960,16 +2960,16 @@
     </row>
     <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
-        <v>44455</v>
-      </c>
-      <c r="B91" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="35">
-        <v>9</v>
+        <v>44483</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="25">
+        <v>99</v>
       </c>
       <c r="D91" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -2980,15 +2980,15 @@
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
-        <v>44531</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="35">
-        <v>10</v>
+        <v>44580</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="25">
+        <v>8</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
@@ -3002,15 +3002,15 @@
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="1:12" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
-        <v>44540</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>76</v>
+        <v>44615</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C93" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
@@ -3025,14 +3025,14 @@
       <c r="L93" s="15"/>
     </row>
     <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="13">
-        <v>44536</v>
+      <c r="A94" s="16">
+        <v>44573</v>
       </c>
       <c r="B94" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C94" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" s="15">
         <v>0</v>
@@ -3047,14 +3047,14 @@
       <c r="L94" s="15"/>
     </row>
     <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
-        <v>44484</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>37</v>
+      <c r="A95" s="13">
+        <v>44512</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C95" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
@@ -3070,13 +3070,13 @@
     </row>
     <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
-        <v>44467</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="25">
-        <v>8</v>
+        <v>44455</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="35">
+        <v>9</v>
       </c>
       <c r="D96" s="15">
         <v>0</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="97" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
-        <v>44491</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>37</v>
+        <v>44531</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C97" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="98" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
-        <v>44596</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>69</v>
+        <v>44540</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C98" s="25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
@@ -3133,14 +3133,14 @@
       <c r="L98" s="15"/>
     </row>
     <row r="99" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
-        <v>44574</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>55</v>
+      <c r="A99" s="13">
+        <v>44536</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>76</v>
       </c>
       <c r="C99" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
@@ -3156,13 +3156,13 @@
     </row>
     <row r="100" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
-        <v>44575</v>
+        <v>44693</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C100" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D100" s="15">
         <v>0</v>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="101" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
-        <v>44538</v>
+        <v>44484</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C101" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -3200,13 +3200,13 @@
     </row>
     <row r="102" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
-        <v>44206</v>
+        <v>44467</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C102" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" s="15">
         <v>0</v>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="103" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
-        <v>44572</v>
+        <v>44491</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="25">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C103" s="35">
+        <v>9</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
@@ -3242,15 +3242,15 @@
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
-        <v>44537</v>
+        <v>44596</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C104" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="15">
         <v>0</v>
@@ -3264,15 +3264,15 @@
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
-        <v>44539</v>
+        <v>44574</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C105" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D105" s="15">
         <v>0</v>
@@ -3286,15 +3286,15 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
-    <row r="106" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
-        <v>44567</v>
+        <v>44575</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C106" s="25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="107" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
-        <v>44501</v>
+        <v>44538</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C107" s="25">
         <v>2</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="108" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
-        <v>44496</v>
+        <v>44206</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C108" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D108" s="15">
         <v>0</v>
@@ -3353,11 +3353,11 @@
       <c r="L108" s="15"/>
     </row>
     <row r="109" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="13">
-        <v>44536</v>
+      <c r="A109" s="16">
+        <v>44572</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C109" s="25">
         <v>6</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="110" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
-        <v>44627</v>
+        <v>44537</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C110" s="25">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D110" s="15">
         <v>0</v>
@@ -3396,13 +3396,13 @@
     </row>
     <row r="111" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
-        <v>44475</v>
+        <v>44539</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C111" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="112" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
-        <v>44624</v>
+        <v>44567</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C112" s="35">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="C112" s="25">
+        <v>12</v>
       </c>
       <c r="D112" s="15">
         <v>0</v>
@@ -3439,14 +3439,14 @@
       <c r="L112" s="29"/>
     </row>
     <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="13">
-        <v>44547</v>
+      <c r="A113" s="16">
+        <v>44501</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C113" s="25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
@@ -3461,14 +3461,14 @@
       <c r="L113" s="15"/>
     </row>
     <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="13">
-        <v>44547</v>
+      <c r="A114" s="16">
+        <v>44496</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C114" s="25">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D114" s="15">
         <v>0</v>
@@ -3483,14 +3483,14 @@
       <c r="L114" s="15"/>
     </row>
     <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>44594</v>
+      <c r="A115" s="13">
+        <v>44536</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C115" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
@@ -3505,14 +3505,14 @@
       <c r="L115" s="15"/>
     </row>
     <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="13">
-        <v>44608</v>
+      <c r="A116" s="16">
+        <v>44627</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C116" s="25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
-        <v>44607</v>
+        <v>44475</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C117" s="25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D117" s="15">
         <v>0</v>
@@ -3549,14 +3549,14 @@
       <c r="L117" s="15"/>
     </row>
     <row r="118" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="13">
-        <v>44456</v>
+      <c r="A118" s="16">
+        <v>44624</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="25">
-        <v>6</v>
+      <c r="C118" s="35">
+        <v>9</v>
       </c>
       <c r="D118" s="15">
         <v>0</v>
@@ -3571,14 +3571,14 @@
       <c r="L118" s="15"/>
     </row>
     <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="21">
-        <v>44613</v>
+      <c r="A119" s="13">
+        <v>44547</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C119" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -3593,14 +3593,14 @@
       <c r="L119" s="15"/>
     </row>
     <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="16">
-        <v>44469</v>
+      <c r="A120" s="13">
+        <v>44547</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C120" s="25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D120" s="15">
         <v>0</v>
@@ -3615,14 +3615,14 @@
       <c r="L120" s="15"/>
     </row>
     <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="13">
-        <v>44503</v>
+      <c r="A121" s="16">
+        <v>44594</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C121" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -3637,14 +3637,14 @@
       <c r="L121" s="15"/>
     </row>
     <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="16">
-        <v>44460</v>
+      <c r="A122" s="13">
+        <v>44608</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C122" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" s="15">
         <v>0</v>
@@ -3660,13 +3660,13 @@
     </row>
     <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C123" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" s="15">
         <v>0</v>
@@ -3681,14 +3681,14 @@
       <c r="L123" s="15"/>
     </row>
     <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="16">
-        <v>44530</v>
+      <c r="A124" s="13">
+        <v>44456</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C124" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" s="15">
         <v>0</v>
@@ -3703,11 +3703,11 @@
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
-        <v>71</v>
+      <c r="A125" s="21">
+        <v>44613</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C125" s="25">
         <v>12</v>
@@ -3726,13 +3726,13 @@
     </row>
     <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
-        <v>44497</v>
+        <v>44469</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C126" s="25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D126" s="15">
         <v>0</v>
@@ -3747,14 +3747,14 @@
       <c r="L126" s="15"/>
     </row>
     <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="16">
-        <v>44498</v>
+      <c r="A127" s="13">
+        <v>44503</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C127" s="25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D127" s="15">
         <v>0</v>
@@ -3769,11 +3769,11 @@
       <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="13">
-        <v>44515</v>
+      <c r="A128" s="16">
+        <v>44460</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C128" s="25">
         <v>3</v>
@@ -3789,11 +3789,11 @@
       <c r="L128" s="15"/>
     </row>
     <row r="129" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="13">
-        <v>44512</v>
+      <c r="A129" s="16">
+        <v>44606</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C129" s="25">
         <v>4</v>
@@ -3810,16 +3810,16 @@
     </row>
     <row r="130" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C130" s="25">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D130" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
@@ -3829,11 +3829,11 @@
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="48">
-        <v>44592</v>
+      <c r="A131" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C131" s="25">
         <v>12</v>
@@ -3851,14 +3851,14 @@
       <c r="L131" s="15"/>
     </row>
     <row r="132" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="48">
-        <v>44593</v>
+      <c r="A132" s="16">
+        <v>44497</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C132" s="25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D132" s="15">
         <v>0</v>
@@ -3873,14 +3873,14 @@
       <c r="L132" s="15"/>
     </row>
     <row r="133" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="48">
-        <v>44593</v>
+      <c r="A133" s="16">
+        <v>44498</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C133" s="25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -3895,14 +3895,14 @@
       <c r="L133" s="15"/>
     </row>
     <row r="134" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="16">
-        <v>44532</v>
+      <c r="A134" s="13">
+        <v>44515</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C134" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D134" s="15">
         <v>0</v>
@@ -3917,14 +3917,14 @@
       <c r="L134" s="15"/>
     </row>
     <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="16">
-        <v>44529</v>
+      <c r="A135" s="13">
+        <v>44512</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C135" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -3940,16 +3940,16 @@
     </row>
     <row r="136" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="35">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="C136" s="25">
+        <v>99</v>
       </c>
       <c r="D136" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -3961,14 +3961,14 @@
       <c r="L136" s="15"/>
     </row>
     <row r="137" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="16">
-        <v>44466</v>
+      <c r="A137" s="48">
+        <v>44592</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" s="35">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="C137" s="25">
+        <v>12</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -3983,11 +3983,11 @@
       <c r="L137" s="15"/>
     </row>
     <row r="138" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="16">
-        <v>44473</v>
+      <c r="A138" s="48">
+        <v>44593</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C138" s="25">
         <v>12</v>
@@ -4005,14 +4005,14 @@
       <c r="L138" s="15"/>
     </row>
     <row r="139" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="16">
-        <v>44540</v>
+      <c r="A139" s="48">
+        <v>44593</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C139" s="25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D139" s="15">
         <v>0</v>
@@ -4028,13 +4028,13 @@
     </row>
     <row r="140" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
-        <v>44519</v>
+        <v>44532</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D140" s="15">
         <v>0</v>
@@ -4050,13 +4050,13 @@
     </row>
     <row r="141" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
-        <v>44495</v>
+        <v>44529</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C141" s="25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D141" s="15">
         <v>0</v>
@@ -4072,13 +4072,13 @@
     </row>
     <row r="142" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
-        <v>44462</v>
+        <v>44531</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C142" s="25">
-        <v>5</v>
+      <c r="C142" s="35">
+        <v>9</v>
       </c>
       <c r="D142" s="15">
         <v>0</v>
@@ -4093,14 +4093,14 @@
       <c r="L142" s="15"/>
     </row>
     <row r="143" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="13">
-        <v>44544</v>
+      <c r="A143" s="16">
+        <v>44466</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C143" s="25">
-        <v>6</v>
+      <c r="C143" s="35">
+        <v>10</v>
       </c>
       <c r="D143" s="15">
         <v>0</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="144" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
-        <v>44502</v>
+        <v>44473</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C144" s="25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D144" s="15">
         <v>0</v>
@@ -4137,14 +4137,14 @@
       <c r="L144" s="15"/>
     </row>
     <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="13">
-        <v>44614</v>
-      </c>
-      <c r="B145" s="47" t="s">
-        <v>77</v>
+      <c r="A145" s="16">
+        <v>44540</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C145" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" s="15">
         <v>0</v>
@@ -4159,14 +4159,14 @@
       <c r="L145" s="15"/>
     </row>
     <row r="146" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="16">
         <v>44519</v>
       </c>
-      <c r="B146" s="47" t="s">
-        <v>77</v>
+      <c r="B146" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C146" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D146" s="15">
         <v>0</v>
@@ -4182,13 +4182,13 @@
     </row>
     <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
-        <v>44503</v>
-      </c>
-      <c r="B147" s="47" t="s">
-        <v>78</v>
+        <v>44495</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C147" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D147" s="15">
         <v>0</v>
@@ -4203,14 +4203,14 @@
       <c r="L147" s="15"/>
     </row>
     <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="13">
-        <v>44504</v>
-      </c>
-      <c r="B148" s="47" t="s">
-        <v>78</v>
+      <c r="A148" s="16">
+        <v>44462</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C148" s="25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D148" s="15">
         <v>0</v>
@@ -4225,14 +4225,14 @@
       <c r="L148" s="15"/>
     </row>
     <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="16">
-        <v>44508</v>
-      </c>
-      <c r="B149" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149" s="35">
-        <v>9</v>
+      <c r="A149" s="13">
+        <v>44544</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="25">
+        <v>6</v>
       </c>
       <c r="D149" s="15">
         <v>0</v>
@@ -4248,13 +4248,13 @@
     </row>
     <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
-        <v>44509</v>
-      </c>
-      <c r="B150" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C150" s="35">
-        <v>10</v>
+        <v>44502</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="25">
+        <v>4</v>
       </c>
       <c r="D150" s="15">
         <v>0</v>
@@ -4269,17 +4269,17 @@
       <c r="L150" s="15"/>
     </row>
     <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="36">
-        <v>44510</v>
-      </c>
-      <c r="B151" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C151" s="50">
-        <v>11</v>
+      <c r="A151" s="13">
+        <v>44614</v>
+      </c>
+      <c r="B151" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="25">
+        <v>3</v>
       </c>
       <c r="D151" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="152" spans="1:12" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C152" s="25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D152" s="15">
         <v>0</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B153" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C153" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D153" s="15">
         <v>0</v>
@@ -4335,14 +4335,14 @@
       <c r="L153" s="15"/>
     </row>
     <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="16">
-        <v>44491</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="35">
-        <v>10</v>
+      <c r="A154" s="13">
+        <v>44504</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154" s="25">
+        <v>8</v>
       </c>
       <c r="D154" s="15">
         <v>0</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
-        <v>44470</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="25">
-        <v>11</v>
+        <v>44508</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="35">
+        <v>9</v>
       </c>
       <c r="D155" s="15">
         <v>0</v>
@@ -4379,14 +4379,14 @@
       <c r="L155" s="15"/>
     </row>
     <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="13">
+      <c r="A156" s="16">
         <v>44509</v>
       </c>
-      <c r="B156" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" s="25">
-        <v>1</v>
+      <c r="B156" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="35">
+        <v>10</v>
       </c>
       <c r="D156" s="15">
         <v>0</v>
@@ -4401,17 +4401,17 @@
       <c r="L156" s="15"/>
     </row>
     <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="13">
+      <c r="A157" s="36">
         <v>44510</v>
       </c>
-      <c r="B157" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C157" s="25">
-        <v>2</v>
+      <c r="B157" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="50">
+        <v>11</v>
       </c>
       <c r="D157" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
@@ -4424,11 +4424,11 @@
       <c r="A158" s="13">
         <v>44511</v>
       </c>
-      <c r="B158" s="14" t="s">
-        <v>54</v>
+      <c r="B158" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="C158" s="25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D158" s="15">
         <v>0</v>
@@ -4444,13 +4444,13 @@
     </row>
     <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
-        <v>44581</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>62</v>
+        <v>44502</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="C159" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D159" s="15">
         <v>0</v>
@@ -4465,14 +4465,14 @@
       <c r="L159" s="15"/>
     </row>
     <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="16">
-        <v>44571</v>
+      <c r="A160" s="13">
+        <v>44677</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C160" s="35">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="C160" s="25">
+        <v>6</v>
       </c>
       <c r="D160" s="15">
         <v>0</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
-        <v>44571</v>
+        <v>44491</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C161" s="35">
         <v>10</v>
@@ -4510,13 +4510,13 @@
     </row>
     <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
-        <v>44516</v>
+        <v>44470</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C162" s="25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D162" s="15">
         <v>0</v>
@@ -4531,14 +4531,14 @@
       <c r="L162" s="15"/>
     </row>
     <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="51">
-        <v>44518</v>
+      <c r="A163" s="13">
+        <v>44509</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C163" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D163" s="15">
         <v>0</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
-        <v>44515</v>
+        <v>44510</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C164" s="35">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="C164" s="25">
+        <v>2</v>
       </c>
       <c r="D164" s="15">
         <v>0</v>
@@ -4575,14 +4575,14 @@
       <c r="L164" s="15"/>
     </row>
     <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="16">
-        <v>44494</v>
+      <c r="A165" s="13">
+        <v>44511</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C165" s="35">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="C165" s="25">
+        <v>3</v>
       </c>
       <c r="D165" s="15">
         <v>0</v>
@@ -4598,13 +4598,13 @@
     </row>
     <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
-        <v>44473</v>
+        <v>44581</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C166" s="25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D166" s="15">
         <v>0</v>
@@ -4618,15 +4618,15 @@
       <c r="K166" s="15"/>
       <c r="L166" s="15"/>
     </row>
-    <row r="167" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
-        <v>44468</v>
+        <v>44571</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" s="25">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="C167" s="35">
+        <v>9</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -4642,13 +4642,13 @@
     </row>
     <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
-        <v>44484</v>
+        <v>44571</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C168" s="25">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="C168" s="35">
+        <v>10</v>
       </c>
       <c r="D168" s="15">
         <v>0</v>
@@ -4664,13 +4664,13 @@
     </row>
     <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
-        <v>44467</v>
+        <v>44516</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C169" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -4685,14 +4685,14 @@
       <c r="L169" s="15"/>
     </row>
     <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="16">
-        <v>44490</v>
+      <c r="A170" s="51">
+        <v>44518</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C170" s="25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D170" s="15">
         <v>0</v>
@@ -4707,14 +4707,14 @@
       <c r="L170" s="15"/>
     </row>
     <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="16">
-        <v>44487</v>
+      <c r="A171" s="13">
+        <v>44515</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C171" s="25">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="C171" s="35">
+        <v>9</v>
       </c>
       <c r="D171" s="15">
         <v>0</v>
@@ -4730,13 +4730,13 @@
     </row>
     <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
-        <v>44496</v>
+        <v>44494</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C172" s="25">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="C172" s="35">
+        <v>10</v>
       </c>
       <c r="D172" s="15">
         <v>0</v>
@@ -4752,13 +4752,13 @@
     </row>
     <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
-        <v>44495</v>
+        <v>44473</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C173" s="25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -4774,13 +4774,13 @@
     </row>
     <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" s="35">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="C174" s="25">
+        <v>2</v>
       </c>
       <c r="D174" s="15">
         <v>0</v>
@@ -4795,14 +4795,14 @@
       <c r="L174" s="15"/>
     </row>
     <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="38">
-        <v>44504</v>
-      </c>
-      <c r="B175" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="35">
-        <v>10</v>
+      <c r="A175" s="16">
+        <v>44484</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="25">
+        <v>3</v>
       </c>
       <c r="D175" s="15">
         <v>0</v>
@@ -4816,15 +4816,15 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
     </row>
-    <row r="176" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="13">
-        <v>44516</v>
+    <row r="176" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="16">
+        <v>44467</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C176" s="25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D176" s="15">
         <v>0</v>
@@ -4838,15 +4838,15 @@
       <c r="K176" s="15"/>
       <c r="L176" s="15"/>
     </row>
-    <row r="177" spans="1:12" ht="15.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="51">
-        <v>44518</v>
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="16">
+        <v>44490</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C177" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D177" s="15">
         <v>0</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
-        <v>44476</v>
+        <v>44685</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C178" s="25">
         <v>6</v>
@@ -4875,14 +4875,14 @@
       <c r="L178" s="29"/>
     </row>
     <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="13">
-        <v>44609</v>
+      <c r="A179" s="16">
+        <v>44487</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C179" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D179" s="15">
         <v>0</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
-        <v>44586</v>
-      </c>
-      <c r="B180" s="47" t="s">
-        <v>79</v>
+        <v>44496</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C180" s="25">
         <v>7</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
-        <v>44587</v>
-      </c>
-      <c r="B181" s="47" t="s">
-        <v>79</v>
+        <v>44495</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C181" s="25">
         <v>8</v>
@@ -4937,14 +4937,14 @@
       <c r="L181" s="15"/>
     </row>
     <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="13">
-        <v>44608</v>
-      </c>
-      <c r="B182" s="47" t="s">
-        <v>79</v>
+      <c r="A182" s="16">
+        <v>44517</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C182" s="35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D182" s="15">
         <v>0</v>
@@ -4959,14 +4959,14 @@
       <c r="L182" s="15"/>
     </row>
     <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="48">
-        <v>44592</v>
-      </c>
-      <c r="B183" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C183" s="25">
-        <v>11</v>
+      <c r="A183" s="38">
+        <v>44504</v>
+      </c>
+      <c r="B183" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="35">
+        <v>10</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -4981,14 +4981,14 @@
       <c r="L183" s="15"/>
     </row>
     <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="16">
-        <v>44593</v>
-      </c>
-      <c r="B184" s="47" t="s">
-        <v>79</v>
+      <c r="A184" s="13">
+        <v>44516</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C184" s="25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184" s="15">
         <v>0</v>
@@ -5003,14 +5003,14 @@
       <c r="L184" s="15"/>
     </row>
     <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="16">
-        <v>44574</v>
-      </c>
-      <c r="B185" s="47" t="s">
-        <v>79</v>
+      <c r="A185" s="51">
+        <v>44518</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C185" s="25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D185" s="15">
         <v>0</v>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
-        <v>44466</v>
-      </c>
-      <c r="B186" s="47" t="s">
-        <v>79</v>
+        <v>44476</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C186" s="25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D186" s="15">
         <v>0</v>
@@ -5043,14 +5043,14 @@
       <c r="L186" s="15"/>
     </row>
     <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187" s="16">
-        <v>44459</v>
-      </c>
-      <c r="B187" s="47" t="s">
-        <v>79</v>
+      <c r="A187" s="13">
+        <v>44609</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C187" s="25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D187" s="15">
         <v>0</v>
@@ -5064,13 +5064,13 @@
     </row>
     <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
-        <v>44489</v>
+        <v>44586</v>
       </c>
       <c r="B188" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C188" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D188" s="15">
         <v>0</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B189" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C189" s="25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D189" s="15">
         <v>0</v>
@@ -5106,13 +5106,13 @@
     </row>
     <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
-        <v>44677</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C190" s="25">
-        <v>6</v>
+        <v>44608</v>
+      </c>
+      <c r="B190" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" s="35">
+        <v>10</v>
       </c>
       <c r="D190" s="15">
         <v>0</v>
@@ -5127,14 +5127,14 @@
       <c r="L190" s="15"/>
     </row>
     <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="13">
-        <v>44678</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>56</v>
+      <c r="A191" s="48">
+        <v>44592</v>
+      </c>
+      <c r="B191" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C191" s="25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D191" s="15">
         <v>0</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
-        <v>44684</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>39</v>
+        <v>44593</v>
+      </c>
+      <c r="B192" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C192" s="25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D192" s="15">
         <v>0</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
-        <v>44685</v>
-      </c>
-      <c r="B193" s="14" t="s">
-        <v>45</v>
+        <v>44574</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C193" s="25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D193" s="15">
         <v>0</v>
@@ -5194,13 +5194,13 @@
     </row>
     <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
-        <v>44693</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>76</v>
+        <v>44466</v>
+      </c>
+      <c r="B194" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C194" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194" s="15">
         <v>0</v>
@@ -5216,13 +5216,13 @@
     </row>
     <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
-        <v>44698</v>
-      </c>
-      <c r="B195" s="14" t="s">
-        <v>39</v>
+        <v>44459</v>
+      </c>
+      <c r="B195" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C195" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D195" s="15">
         <v>0</v>
@@ -5238,13 +5238,13 @@
     </row>
     <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
-        <v>44699</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>40</v>
+        <v>44489</v>
+      </c>
+      <c r="B196" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C196" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D196" s="15">
         <v>0</v>
@@ -5259,16 +5259,16 @@
       <c r="L196" s="15"/>
     </row>
     <row r="197" spans="1:12" s="74" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="71">
-        <v>44701</v>
-      </c>
-      <c r="B197" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C197" s="73">
+      <c r="A197" s="16">
+        <v>44586</v>
+      </c>
+      <c r="B197" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="25">
         <v>6</v>
       </c>
-      <c r="D197" s="74">
+      <c r="D197" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
     </row>
-    <row r="236" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="25"/>
@@ -5818,7 +5818,7 @@
       <c r="K236" s="15"/>
       <c r="L236" s="15"/>
     </row>
-    <row r="237" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21"/>
       <c r="B237" s="14"/>
       <c r="C237" s="25"/>
@@ -5832,7 +5832,7 @@
       <c r="K237" s="15"/>
       <c r="L237" s="15"/>
     </row>
-    <row r="238" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="21"/>
       <c r="B238" s="14"/>
       <c r="C238" s="25"/>
@@ -5846,7 +5846,7 @@
       <c r="K238" s="15"/>
       <c r="L238" s="15"/>
     </row>
-    <row r="239" spans="1:12" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="21"/>
       <c r="B239" s="14"/>
       <c r="C239" s="25"/>
@@ -6070,7 +6070,7 @@
       <c r="K254" s="15"/>
       <c r="L254" s="15"/>
     </row>
-    <row r="255" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="16"/>
       <c r="B255" s="14"/>
       <c r="C255" s="25"/>
@@ -6084,7 +6084,7 @@
       <c r="K255" s="15"/>
       <c r="L255" s="15"/>
     </row>
-    <row r="256" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="25"/>
@@ -6098,7 +6098,7 @@
       <c r="K256" s="15"/>
       <c r="L256" s="15"/>
     </row>
-    <row r="257" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
       <c r="C257" s="25"/>
@@ -8002,7 +8002,7 @@
       <c r="K392" s="31"/>
       <c r="L392" s="31"/>
     </row>
-    <row r="393" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="62"/>
       <c r="B393" s="63"/>
       <c r="C393" s="64"/>
@@ -8212,7 +8212,7 @@
       <c r="K407" s="15"/>
       <c r="L407" s="15"/>
     </row>
-    <row r="408" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="67"/>
       <c r="B408" s="55"/>
       <c r="C408" s="56"/>
@@ -8226,7 +8226,7 @@
       <c r="K408" s="15"/>
       <c r="L408" s="15"/>
     </row>
-    <row r="409" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="67"/>
       <c r="B409" s="55"/>
       <c r="C409" s="56"/>
@@ -8240,7 +8240,7 @@
       <c r="K409" s="15"/>
       <c r="L409" s="15"/>
     </row>
-    <row r="410" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="67"/>
       <c r="B410" s="55"/>
       <c r="C410" s="56"/>
@@ -8254,7 +8254,7 @@
       <c r="K410" s="15"/>
       <c r="L410" s="15"/>
     </row>
-    <row r="411" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="67"/>
       <c r="B411" s="55"/>
       <c r="C411" s="56"/>
@@ -8268,7 +8268,7 @@
       <c r="K411" s="15"/>
       <c r="L411" s="15"/>
     </row>
-    <row r="412" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="67"/>
       <c r="B412" s="55"/>
       <c r="C412" s="56"/>
@@ -8282,7 +8282,7 @@
       <c r="K412" s="15"/>
       <c r="L412" s="15"/>
     </row>
-    <row r="413" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="67"/>
       <c r="B413" s="55"/>
       <c r="C413" s="56"/>
@@ -8296,7 +8296,7 @@
       <c r="K413" s="15"/>
       <c r="L413" s="15"/>
     </row>
-    <row r="414" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="67"/>
       <c r="B414" s="55"/>
       <c r="C414" s="56"/>
@@ -8310,7 +8310,7 @@
       <c r="K414" s="15"/>
       <c r="L414" s="15"/>
     </row>
-    <row r="415" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="67"/>
       <c r="B415" s="55"/>
       <c r="C415" s="56"/>
@@ -8324,7 +8324,7 @@
       <c r="K415" s="15"/>
       <c r="L415" s="15"/>
     </row>
-    <row r="416" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="67"/>
       <c r="B416" s="55"/>
       <c r="C416" s="56"/>
@@ -8338,7 +8338,7 @@
       <c r="K416" s="15"/>
       <c r="L416" s="15"/>
     </row>
-    <row r="417" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="67"/>
       <c r="B417" s="55"/>
       <c r="C417" s="56"/>
@@ -8352,7 +8352,7 @@
       <c r="K417" s="15"/>
       <c r="L417" s="15"/>
     </row>
-    <row r="418" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="67"/>
       <c r="B418" s="55"/>
       <c r="C418" s="56"/>
@@ -8366,7 +8366,7 @@
       <c r="K418" s="15"/>
       <c r="L418" s="15"/>
     </row>
-    <row r="419" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="67"/>
       <c r="B419" s="55"/>
       <c r="C419" s="56"/>
@@ -8380,7 +8380,7 @@
       <c r="K419" s="15"/>
       <c r="L419" s="15"/>
     </row>
-    <row r="420" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="67"/>
       <c r="B420" s="55"/>
       <c r="C420" s="56"/>
@@ -8394,7 +8394,7 @@
       <c r="K420" s="15"/>
       <c r="L420" s="15"/>
     </row>
-    <row r="421" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="67"/>
       <c r="B421" s="55"/>
       <c r="C421" s="56"/>
@@ -8408,7 +8408,7 @@
       <c r="K421" s="15"/>
       <c r="L421" s="15"/>
     </row>
-    <row r="422" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="67"/>
       <c r="B422" s="55"/>
       <c r="C422" s="56"/>
@@ -8422,7 +8422,7 @@
       <c r="K422" s="15"/>
       <c r="L422" s="15"/>
     </row>
-    <row r="423" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="67"/>
       <c r="B423" s="55"/>
       <c r="C423" s="56"/>
@@ -8436,7 +8436,7 @@
       <c r="K423" s="15"/>
       <c r="L423" s="15"/>
     </row>
-    <row r="424" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="67"/>
       <c r="B424" s="55"/>
       <c r="C424" s="56"/>
@@ -8450,7 +8450,7 @@
       <c r="K424" s="15"/>
       <c r="L424" s="15"/>
     </row>
-    <row r="425" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="67"/>
       <c r="B425" s="55"/>
       <c r="C425" s="56"/>
@@ -8464,7 +8464,7 @@
       <c r="K425" s="15"/>
       <c r="L425" s="15"/>
     </row>
-    <row r="426" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="67"/>
       <c r="B426" s="55"/>
       <c r="C426" s="56"/>
@@ -8478,7 +8478,7 @@
       <c r="K426" s="15"/>
       <c r="L426" s="15"/>
     </row>
-    <row r="427" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="67"/>
       <c r="B427" s="55"/>
       <c r="C427" s="56"/>
@@ -8492,7 +8492,7 @@
       <c r="K427" s="15"/>
       <c r="L427" s="15"/>
     </row>
-    <row r="428" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="67"/>
       <c r="B428" s="55"/>
       <c r="C428" s="56"/>
@@ -8506,7 +8506,7 @@
       <c r="K428" s="15"/>
       <c r="L428" s="15"/>
     </row>
-    <row r="429" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="67"/>
       <c r="B429" s="55"/>
       <c r="C429" s="56"/>
@@ -8520,7 +8520,7 @@
       <c r="K429" s="15"/>
       <c r="L429" s="15"/>
     </row>
-    <row r="430" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="67"/>
       <c r="B430" s="55"/>
       <c r="C430" s="56"/>
@@ -8534,7 +8534,7 @@
       <c r="K430" s="15"/>
       <c r="L430" s="15"/>
     </row>
-    <row r="431" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="67"/>
       <c r="B431" s="55"/>
       <c r="C431" s="56"/>
@@ -8548,7 +8548,7 @@
       <c r="K431" s="15"/>
       <c r="L431" s="15"/>
     </row>
-    <row r="432" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="67"/>
       <c r="B432" s="55"/>
       <c r="C432" s="56"/>
@@ -8562,7 +8562,7 @@
       <c r="K432" s="15"/>
       <c r="L432" s="15"/>
     </row>
-    <row r="433" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="67"/>
       <c r="B433" s="55"/>
       <c r="C433" s="56"/>
@@ -8576,7 +8576,7 @@
       <c r="K433" s="15"/>
       <c r="L433" s="15"/>
     </row>
-    <row r="434" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="15"/>
       <c r="B434" s="55"/>
       <c r="C434" s="68"/>
@@ -8590,7 +8590,7 @@
       <c r="K434" s="15"/>
       <c r="L434" s="15"/>
     </row>
-    <row r="435" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="15"/>
       <c r="B435" s="55"/>
       <c r="C435" s="68"/>
@@ -8604,7 +8604,7 @@
       <c r="K435" s="15"/>
       <c r="L435" s="15"/>
     </row>
-    <row r="436" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="15"/>
       <c r="B436" s="55"/>
       <c r="C436" s="68"/>
@@ -8618,7 +8618,7 @@
       <c r="K436" s="15"/>
       <c r="L436" s="15"/>
     </row>
-    <row r="437" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="15"/>
       <c r="B437" s="55"/>
       <c r="C437" s="68"/>
@@ -8632,7 +8632,7 @@
       <c r="K437" s="15"/>
       <c r="L437" s="15"/>
     </row>
-    <row r="438" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="15"/>
       <c r="B438" s="55"/>
       <c r="C438" s="68"/>
@@ -8646,7 +8646,7 @@
       <c r="K438" s="15"/>
       <c r="L438" s="15"/>
     </row>
-    <row r="439" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="15"/>
       <c r="B439" s="55"/>
       <c r="C439" s="68"/>
@@ -8660,7 +8660,7 @@
       <c r="K439" s="15"/>
       <c r="L439" s="15"/>
     </row>
-    <row r="440" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="15"/>
       <c r="B440" s="55"/>
       <c r="C440" s="68"/>
@@ -8674,7 +8674,7 @@
       <c r="K440" s="15"/>
       <c r="L440" s="15"/>
     </row>
-    <row r="441" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="15"/>
       <c r="B441" s="55"/>
       <c r="C441" s="68"/>
@@ -8688,7 +8688,7 @@
       <c r="K441" s="15"/>
       <c r="L441" s="15"/>
     </row>
-    <row r="442" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="15"/>
       <c r="B442" s="55"/>
       <c r="C442" s="68"/>
@@ -8702,7 +8702,7 @@
       <c r="K442" s="15"/>
       <c r="L442" s="15"/>
     </row>
-    <row r="443" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="15"/>
       <c r="B443" s="55"/>
       <c r="C443" s="68"/>
@@ -8716,7 +8716,7 @@
       <c r="K443" s="15"/>
       <c r="L443" s="15"/>
     </row>
-    <row r="444" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="15"/>
       <c r="B444" s="55"/>
       <c r="C444" s="68"/>
@@ -8730,7 +8730,7 @@
       <c r="K444" s="15"/>
       <c r="L444" s="15"/>
     </row>
-    <row r="445" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="15"/>
       <c r="B445" s="55"/>
       <c r="C445" s="68"/>
@@ -8744,7 +8744,7 @@
       <c r="K445" s="15"/>
       <c r="L445" s="15"/>
     </row>
-    <row r="446" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="15"/>
       <c r="B446" s="55"/>
       <c r="C446" s="68"/>
@@ -8758,7 +8758,7 @@
       <c r="K446" s="15"/>
       <c r="L446" s="15"/>
     </row>
-    <row r="447" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="15"/>
       <c r="B447" s="55"/>
       <c r="C447" s="68"/>
@@ -8772,7 +8772,7 @@
       <c r="K447" s="15"/>
       <c r="L447" s="15"/>
     </row>
-    <row r="448" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="15"/>
       <c r="B448" s="55"/>
       <c r="C448" s="68"/>
@@ -8786,7 +8786,7 @@
       <c r="K448" s="15"/>
       <c r="L448" s="15"/>
     </row>
-    <row r="449" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="15"/>
       <c r="B449" s="55"/>
       <c r="C449" s="68"/>
@@ -8800,7 +8800,7 @@
       <c r="K449" s="15"/>
       <c r="L449" s="15"/>
     </row>
-    <row r="450" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="15"/>
       <c r="B450" s="55"/>
       <c r="C450" s="68"/>
@@ -8814,7 +8814,7 @@
       <c r="K450" s="15"/>
       <c r="L450" s="15"/>
     </row>
-    <row r="451" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="15"/>
       <c r="B451" s="55"/>
       <c r="C451" s="68"/>
@@ -8828,7 +8828,7 @@
       <c r="K451" s="15"/>
       <c r="L451" s="15"/>
     </row>
-    <row r="452" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="15"/>
       <c r="B452" s="55"/>
       <c r="C452" s="68"/>
@@ -8842,7 +8842,7 @@
       <c r="K452" s="15"/>
       <c r="L452" s="15"/>
     </row>
-    <row r="453" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="15"/>
       <c r="B453" s="55"/>
       <c r="C453" s="68"/>
@@ -8856,7 +8856,7 @@
       <c r="K453" s="15"/>
       <c r="L453" s="15"/>
     </row>
-    <row r="454" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="15"/>
       <c r="B454" s="55"/>
       <c r="C454" s="68"/>
@@ -8870,7 +8870,7 @@
       <c r="K454" s="15"/>
       <c r="L454" s="15"/>
     </row>
-    <row r="455" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="15"/>
       <c r="B455" s="55"/>
       <c r="C455" s="68"/>
@@ -8884,7 +8884,7 @@
       <c r="K455" s="15"/>
       <c r="L455" s="15"/>
     </row>
-    <row r="456" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="15"/>
       <c r="B456" s="55"/>
       <c r="C456" s="68"/>
@@ -8898,7 +8898,7 @@
       <c r="K456" s="15"/>
       <c r="L456" s="15"/>
     </row>
-    <row r="457" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="15"/>
       <c r="B457" s="55"/>
       <c r="C457" s="68"/>
@@ -8912,7 +8912,7 @@
       <c r="K457" s="15"/>
       <c r="L457" s="15"/>
     </row>
-    <row r="458" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="15"/>
       <c r="B458" s="55"/>
       <c r="C458" s="68"/>
@@ -8926,7 +8926,7 @@
       <c r="K458" s="15"/>
       <c r="L458" s="15"/>
     </row>
-    <row r="459" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="15"/>
       <c r="B459" s="55"/>
       <c r="C459" s="68"/>
@@ -8940,7 +8940,7 @@
       <c r="K459" s="15"/>
       <c r="L459" s="15"/>
     </row>
-    <row r="460" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="15"/>
       <c r="B460" s="55"/>
       <c r="C460" s="68"/>
@@ -8954,7 +8954,7 @@
       <c r="K460" s="15"/>
       <c r="L460" s="15"/>
     </row>
-    <row r="461" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="15"/>
       <c r="B461" s="55"/>
       <c r="C461" s="68"/>
@@ -8968,7 +8968,7 @@
       <c r="K461" s="15"/>
       <c r="L461" s="15"/>
     </row>
-    <row r="462" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="15"/>
       <c r="B462" s="55"/>
       <c r="C462" s="68"/>
@@ -8982,7 +8982,7 @@
       <c r="K462" s="15"/>
       <c r="L462" s="15"/>
     </row>
-    <row r="463" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="15"/>
       <c r="B463" s="55"/>
       <c r="C463" s="68"/>
@@ -8996,7 +8996,7 @@
       <c r="K463" s="15"/>
       <c r="L463" s="15"/>
     </row>
-    <row r="464" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="15"/>
       <c r="B464" s="55"/>
       <c r="C464" s="68"/>
@@ -9010,7 +9010,7 @@
       <c r="K464" s="15"/>
       <c r="L464" s="15"/>
     </row>
-    <row r="465" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="15"/>
       <c r="B465" s="55"/>
       <c r="C465" s="68"/>
@@ -9024,7 +9024,7 @@
       <c r="K465" s="15"/>
       <c r="L465" s="15"/>
     </row>
-    <row r="466" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="15"/>
       <c r="B466" s="55"/>
       <c r="C466" s="68"/>
@@ -9038,7 +9038,7 @@
       <c r="K466" s="15"/>
       <c r="L466" s="15"/>
     </row>
-    <row r="467" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="15"/>
       <c r="B467" s="55"/>
       <c r="C467" s="68"/>
@@ -9052,7 +9052,7 @@
       <c r="K467" s="15"/>
       <c r="L467" s="15"/>
     </row>
-    <row r="468" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="15"/>
       <c r="B468" s="55"/>
       <c r="C468" s="68"/>
@@ -9066,7 +9066,7 @@
       <c r="K468" s="15"/>
       <c r="L468" s="15"/>
     </row>
-    <row r="469" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="15"/>
       <c r="B469" s="55"/>
       <c r="C469" s="68"/>
@@ -9080,7 +9080,7 @@
       <c r="K469" s="15"/>
       <c r="L469" s="15"/>
     </row>
-    <row r="470" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="15"/>
       <c r="B470" s="55"/>
       <c r="C470" s="68"/>
@@ -9094,7 +9094,7 @@
       <c r="K470" s="15"/>
       <c r="L470" s="15"/>
     </row>
-    <row r="471" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="15"/>
       <c r="B471" s="55"/>
       <c r="C471" s="68"/>
@@ -9108,7 +9108,7 @@
       <c r="K471" s="15"/>
       <c r="L471" s="15"/>
     </row>
-    <row r="472" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="15"/>
       <c r="B472" s="55"/>
       <c r="C472" s="68"/>
@@ -9122,7 +9122,7 @@
       <c r="K472" s="15"/>
       <c r="L472" s="15"/>
     </row>
-    <row r="473" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="15"/>
       <c r="B473" s="55"/>
       <c r="C473" s="68"/>
@@ -9136,7 +9136,7 @@
       <c r="K473" s="15"/>
       <c r="L473" s="15"/>
     </row>
-    <row r="474" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="15"/>
       <c r="B474" s="55"/>
       <c r="C474" s="68"/>
@@ -9150,7 +9150,7 @@
       <c r="K474" s="15"/>
       <c r="L474" s="15"/>
     </row>
-    <row r="475" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="15"/>
       <c r="B475" s="55"/>
       <c r="C475" s="68"/>
@@ -9164,7 +9164,7 @@
       <c r="K475" s="15"/>
       <c r="L475" s="15"/>
     </row>
-    <row r="476" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="15"/>
       <c r="B476" s="55"/>
       <c r="C476" s="68"/>
@@ -9178,7 +9178,7 @@
       <c r="K476" s="15"/>
       <c r="L476" s="15"/>
     </row>
-    <row r="477" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="15"/>
       <c r="B477" s="55"/>
       <c r="C477" s="68"/>
@@ -9192,7 +9192,7 @@
       <c r="K477" s="15"/>
       <c r="L477" s="15"/>
     </row>
-    <row r="478" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="15"/>
       <c r="B478" s="55"/>
       <c r="C478" s="68"/>
@@ -9206,7 +9206,7 @@
       <c r="K478" s="15"/>
       <c r="L478" s="15"/>
     </row>
-    <row r="479" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="15"/>
       <c r="B479" s="55"/>
       <c r="C479" s="68"/>
@@ -9220,7 +9220,7 @@
       <c r="K479" s="15"/>
       <c r="L479" s="15"/>
     </row>
-    <row r="480" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="15"/>
       <c r="B480" s="55"/>
       <c r="C480" s="68"/>
@@ -9234,7 +9234,7 @@
       <c r="K480" s="15"/>
       <c r="L480" s="15"/>
     </row>
-    <row r="481" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="15"/>
       <c r="B481" s="55"/>
       <c r="C481" s="68"/>
@@ -9248,7 +9248,7 @@
       <c r="K481" s="15"/>
       <c r="L481" s="15"/>
     </row>
-    <row r="482" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="15"/>
       <c r="B482" s="55"/>
       <c r="C482" s="68"/>
@@ -9262,7 +9262,7 @@
       <c r="K482" s="15"/>
       <c r="L482" s="15"/>
     </row>
-    <row r="483" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="15"/>
       <c r="B483" s="55"/>
       <c r="C483" s="68"/>
@@ -9276,7 +9276,7 @@
       <c r="K483" s="15"/>
       <c r="L483" s="15"/>
     </row>
-    <row r="484" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="15"/>
       <c r="B484" s="55"/>
       <c r="C484" s="68"/>
@@ -9290,7 +9290,7 @@
       <c r="K484" s="15"/>
       <c r="L484" s="15"/>
     </row>
-    <row r="485" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="15"/>
       <c r="B485" s="55"/>
       <c r="C485" s="68"/>
@@ -9304,7 +9304,7 @@
       <c r="K485" s="15"/>
       <c r="L485" s="15"/>
     </row>
-    <row r="486" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="15"/>
       <c r="B486" s="55"/>
       <c r="C486" s="68"/>
@@ -9318,7 +9318,7 @@
       <c r="K486" s="15"/>
       <c r="L486" s="15"/>
     </row>
-    <row r="487" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="15"/>
       <c r="B487" s="55"/>
       <c r="C487" s="68"/>
@@ -9332,7 +9332,7 @@
       <c r="K487" s="15"/>
       <c r="L487" s="15"/>
     </row>
-    <row r="488" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="15"/>
       <c r="B488" s="55"/>
       <c r="C488" s="68"/>
@@ -9346,7 +9346,7 @@
       <c r="K488" s="15"/>
       <c r="L488" s="15"/>
     </row>
-    <row r="489" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="15"/>
       <c r="B489" s="55"/>
       <c r="C489" s="68"/>
@@ -9360,7 +9360,7 @@
       <c r="K489" s="15"/>
       <c r="L489" s="15"/>
     </row>
-    <row r="490" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="15"/>
       <c r="B490" s="55"/>
       <c r="C490" s="68"/>
@@ -9374,7 +9374,7 @@
       <c r="K490" s="15"/>
       <c r="L490" s="15"/>
     </row>
-    <row r="491" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="15"/>
       <c r="B491" s="55"/>
       <c r="C491" s="68"/>
@@ -9388,7 +9388,7 @@
       <c r="K491" s="15"/>
       <c r="L491" s="15"/>
     </row>
-    <row r="492" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="15"/>
       <c r="B492" s="55"/>
       <c r="C492" s="68"/>
@@ -9402,7 +9402,7 @@
       <c r="K492" s="15"/>
       <c r="L492" s="15"/>
     </row>
-    <row r="493" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="15"/>
       <c r="B493" s="55"/>
       <c r="C493" s="68"/>
@@ -9416,7 +9416,7 @@
       <c r="K493" s="15"/>
       <c r="L493" s="15"/>
     </row>
-    <row r="494" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="15"/>
       <c r="B494" s="55"/>
       <c r="C494" s="68"/>
@@ -9430,7 +9430,7 @@
       <c r="K494" s="15"/>
       <c r="L494" s="15"/>
     </row>
-    <row r="495" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="15"/>
       <c r="B495" s="55"/>
       <c r="C495" s="68"/>
@@ -9444,7 +9444,7 @@
       <c r="K495" s="15"/>
       <c r="L495" s="15"/>
     </row>
-    <row r="496" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="15"/>
       <c r="B496" s="55"/>
       <c r="C496" s="68"/>
@@ -9458,7 +9458,7 @@
       <c r="K496" s="15"/>
       <c r="L496" s="15"/>
     </row>
-    <row r="497" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="15"/>
       <c r="B497" s="55"/>
       <c r="C497" s="68"/>
@@ -9472,7 +9472,7 @@
       <c r="K497" s="15"/>
       <c r="L497" s="15"/>
     </row>
-    <row r="498" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="15"/>
       <c r="B498" s="55"/>
       <c r="C498" s="68"/>
@@ -9486,7 +9486,7 @@
       <c r="K498" s="15"/>
       <c r="L498" s="15"/>
     </row>
-    <row r="499" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="15"/>
       <c r="B499" s="55"/>
       <c r="C499" s="68"/>
@@ -9500,7 +9500,7 @@
       <c r="K499" s="15"/>
       <c r="L499" s="15"/>
     </row>
-    <row r="500" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="15"/>
       <c r="B500" s="55"/>
       <c r="C500" s="68"/>
@@ -9514,7 +9514,7 @@
       <c r="K500" s="15"/>
       <c r="L500" s="15"/>
     </row>
-    <row r="501" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="15"/>
       <c r="B501" s="55"/>
       <c r="C501" s="68"/>
@@ -9528,7 +9528,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="15"/>
     </row>
-    <row r="502" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="15"/>
       <c r="B502" s="55"/>
       <c r="C502" s="68"/>
@@ -9542,7 +9542,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="15"/>
     </row>
-    <row r="503" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="15"/>
       <c r="B503" s="55"/>
       <c r="C503" s="68"/>
@@ -9556,7 +9556,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="15"/>
     </row>
-    <row r="504" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="15"/>
       <c r="B504" s="55"/>
       <c r="C504" s="68"/>
@@ -9570,7 +9570,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="15"/>
     </row>
-    <row r="505" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="15"/>
       <c r="B505" s="55"/>
       <c r="C505" s="68"/>
@@ -9584,7 +9584,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="15"/>
     </row>
-    <row r="506" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="15"/>
       <c r="B506" s="55"/>
       <c r="C506" s="68"/>
@@ -9598,7 +9598,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="15"/>
     </row>
-    <row r="507" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="15"/>
       <c r="B507" s="55"/>
       <c r="C507" s="68"/>
@@ -9612,7 +9612,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="15"/>
     </row>
-    <row r="508" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="15"/>
       <c r="B508" s="55"/>
       <c r="C508" s="68"/>
@@ -9626,7 +9626,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="15"/>
     </row>
-    <row r="509" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="15"/>
       <c r="B509" s="55"/>
       <c r="C509" s="68"/>
@@ -9640,7 +9640,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="15"/>
     </row>
-    <row r="510" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="15"/>
       <c r="B510" s="55"/>
       <c r="C510" s="68"/>
@@ -9654,7 +9654,7 @@
       <c r="K510" s="15"/>
       <c r="L510" s="15"/>
     </row>
-    <row r="511" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="15"/>
       <c r="B511" s="55"/>
       <c r="C511" s="68"/>
@@ -9668,7 +9668,7 @@
       <c r="K511" s="15"/>
       <c r="L511" s="15"/>
     </row>
-    <row r="512" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="15"/>
       <c r="B512" s="55"/>
       <c r="C512" s="68"/>
@@ -9682,7 +9682,7 @@
       <c r="K512" s="15"/>
       <c r="L512" s="15"/>
     </row>
-    <row r="513" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="15"/>
       <c r="B513" s="55"/>
       <c r="C513" s="68"/>
@@ -9696,7 +9696,7 @@
       <c r="K513" s="15"/>
       <c r="L513" s="15"/>
     </row>
-    <row r="514" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="15"/>
       <c r="B514" s="55"/>
       <c r="C514" s="68"/>
@@ -9710,7 +9710,7 @@
       <c r="K514" s="15"/>
       <c r="L514" s="15"/>
     </row>
-    <row r="515" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="15"/>
       <c r="B515" s="55"/>
       <c r="C515" s="68"/>
@@ -9724,7 +9724,7 @@
       <c r="K515" s="15"/>
       <c r="L515" s="15"/>
     </row>
-    <row r="516" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="15"/>
       <c r="B516" s="55"/>
       <c r="C516" s="68"/>
@@ -9738,7 +9738,7 @@
       <c r="K516" s="15"/>
       <c r="L516" s="15"/>
     </row>
-    <row r="517" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="15"/>
       <c r="B517" s="55"/>
       <c r="C517" s="68"/>
@@ -9752,7 +9752,7 @@
       <c r="K517" s="15"/>
       <c r="L517" s="15"/>
     </row>
-    <row r="518" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="15"/>
       <c r="B518" s="55"/>
       <c r="C518" s="68"/>
@@ -9766,7 +9766,7 @@
       <c r="K518" s="15"/>
       <c r="L518" s="15"/>
     </row>
-    <row r="519" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="15"/>
       <c r="B519" s="55"/>
       <c r="C519" s="68"/>
@@ -9780,7 +9780,7 @@
       <c r="K519" s="15"/>
       <c r="L519" s="15"/>
     </row>
-    <row r="520" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="15"/>
       <c r="B520" s="55"/>
       <c r="C520" s="68"/>
@@ -9794,7 +9794,7 @@
       <c r="K520" s="15"/>
       <c r="L520" s="15"/>
     </row>
-    <row r="521" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="15"/>
       <c r="B521" s="55"/>
       <c r="C521" s="68"/>
@@ -9808,7 +9808,7 @@
       <c r="K521" s="15"/>
       <c r="L521" s="15"/>
     </row>
-    <row r="522" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="15"/>
       <c r="B522" s="55"/>
       <c r="C522" s="68"/>
@@ -9822,7 +9822,7 @@
       <c r="K522" s="15"/>
       <c r="L522" s="15"/>
     </row>
-    <row r="523" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="15"/>
       <c r="B523" s="55"/>
       <c r="C523" s="68"/>
@@ -9836,7 +9836,7 @@
       <c r="K523" s="15"/>
       <c r="L523" s="15"/>
     </row>
-    <row r="524" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="15"/>
       <c r="B524" s="55"/>
       <c r="C524" s="68"/>
@@ -9850,7 +9850,7 @@
       <c r="K524" s="15"/>
       <c r="L524" s="15"/>
     </row>
-    <row r="525" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="15"/>
       <c r="B525" s="55"/>
       <c r="C525" s="68"/>
@@ -9864,7 +9864,7 @@
       <c r="K525" s="15"/>
       <c r="L525" s="15"/>
     </row>
-    <row r="526" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="15"/>
       <c r="B526" s="55"/>
       <c r="C526" s="68"/>
@@ -9878,7 +9878,7 @@
       <c r="K526" s="15"/>
       <c r="L526" s="15"/>
     </row>
-    <row r="527" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="15"/>
       <c r="B527" s="55"/>
       <c r="C527" s="68"/>
@@ -9892,7 +9892,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="15"/>
     </row>
-    <row r="528" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="15"/>
       <c r="B528" s="55"/>
       <c r="C528" s="68"/>
@@ -9906,7 +9906,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="15"/>
     </row>
-    <row r="529" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="15"/>
       <c r="B529" s="55"/>
       <c r="C529" s="68"/>
@@ -9920,7 +9920,7 @@
       <c r="K529" s="15"/>
       <c r="L529" s="15"/>
     </row>
-    <row r="530" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="15"/>
       <c r="B530" s="55"/>
       <c r="C530" s="68"/>
@@ -9934,7 +9934,7 @@
       <c r="K530" s="15"/>
       <c r="L530" s="15"/>
     </row>
-    <row r="531" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="15"/>
       <c r="B531" s="55"/>
       <c r="C531" s="68"/>
@@ -9948,7 +9948,7 @@
       <c r="K531" s="15"/>
       <c r="L531" s="15"/>
     </row>
-    <row r="532" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="15"/>
       <c r="B532" s="55"/>
       <c r="C532" s="68"/>
@@ -9962,7 +9962,7 @@
       <c r="K532" s="15"/>
       <c r="L532" s="15"/>
     </row>
-    <row r="533" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="15"/>
       <c r="B533" s="55"/>
       <c r="C533" s="68"/>
@@ -9976,7 +9976,7 @@
       <c r="K533" s="15"/>
       <c r="L533" s="15"/>
     </row>
-    <row r="534" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="15"/>
       <c r="B534" s="55"/>
       <c r="C534" s="68"/>
@@ -9990,7 +9990,7 @@
       <c r="K534" s="15"/>
       <c r="L534" s="15"/>
     </row>
-    <row r="535" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="15"/>
       <c r="B535" s="55"/>
       <c r="C535" s="68"/>
@@ -10004,7 +10004,7 @@
       <c r="K535" s="15"/>
       <c r="L535" s="15"/>
     </row>
-    <row r="536" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="15"/>
       <c r="B536" s="55"/>
       <c r="C536" s="68"/>
@@ -10018,7 +10018,7 @@
       <c r="K536" s="15"/>
       <c r="L536" s="15"/>
     </row>
-    <row r="537" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="15"/>
       <c r="B537" s="55"/>
       <c r="C537" s="68"/>
@@ -10032,7 +10032,7 @@
       <c r="K537" s="15"/>
       <c r="L537" s="15"/>
     </row>
-    <row r="538" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="15"/>
       <c r="B538" s="55"/>
       <c r="C538" s="68"/>
@@ -10046,7 +10046,7 @@
       <c r="K538" s="15"/>
       <c r="L538" s="15"/>
     </row>
-    <row r="539" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="15"/>
       <c r="B539" s="55"/>
       <c r="C539" s="68"/>
@@ -10060,7 +10060,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="15"/>
     </row>
-    <row r="540" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="15"/>
       <c r="B540" s="55"/>
       <c r="C540" s="68"/>
@@ -10074,7 +10074,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="15"/>
     </row>
-    <row r="541" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="15"/>
       <c r="B541" s="55"/>
       <c r="C541" s="68"/>
@@ -10088,7 +10088,7 @@
       <c r="K541" s="15"/>
       <c r="L541" s="15"/>
     </row>
-    <row r="542" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="15"/>
       <c r="B542" s="55"/>
       <c r="C542" s="68"/>
@@ -10102,7 +10102,7 @@
       <c r="K542" s="15"/>
       <c r="L542" s="15"/>
     </row>
-    <row r="543" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="15"/>
       <c r="B543" s="55"/>
       <c r="C543" s="68"/>
@@ -10116,7 +10116,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="15"/>
     </row>
-    <row r="544" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="15"/>
       <c r="B544" s="55"/>
       <c r="C544" s="68"/>
@@ -10130,7 +10130,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="15"/>
     </row>
-    <row r="545" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="15"/>
       <c r="B545" s="55"/>
       <c r="C545" s="68"/>
@@ -10144,7 +10144,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="15"/>
     </row>
-    <row r="546" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="15"/>
       <c r="B546" s="55"/>
       <c r="C546" s="68"/>
@@ -10158,7 +10158,7 @@
       <c r="K546" s="15"/>
       <c r="L546" s="15"/>
     </row>
-    <row r="547" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="15"/>
       <c r="B547" s="55"/>
       <c r="C547" s="68"/>
@@ -10172,7 +10172,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="15"/>
     </row>
-    <row r="548" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="15"/>
       <c r="B548" s="55"/>
       <c r="C548" s="68"/>
@@ -10186,7 +10186,7 @@
       <c r="K548" s="15"/>
       <c r="L548" s="15"/>
     </row>
-    <row r="549" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="15"/>
       <c r="B549" s="55"/>
       <c r="C549" s="68"/>
@@ -10200,2186 +10200,2186 @@
       <c r="K549" s="15"/>
       <c r="L549" s="15"/>
     </row>
-    <row r="550" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="15"/>
       <c r="B550" s="55"/>
       <c r="C550" s="68"/>
     </row>
-    <row r="551" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B551" s="55"/>
     </row>
-    <row r="552" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B552" s="55"/>
     </row>
-    <row r="553" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B553" s="55"/>
     </row>
-    <row r="554" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B554" s="55"/>
     </row>
-    <row r="555" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B555" s="55"/>
     </row>
-    <row r="556" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B556" s="55"/>
     </row>
-    <row r="557" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B557" s="55"/>
     </row>
-    <row r="558" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B558" s="55"/>
     </row>
-    <row r="559" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B559" s="55"/>
     </row>
-    <row r="560" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B560" s="55"/>
     </row>
-    <row r="561" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B561" s="55"/>
     </row>
-    <row r="562" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B562" s="55"/>
     </row>
-    <row r="563" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B563" s="55"/>
     </row>
-    <row r="564" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B564" s="55"/>
     </row>
-    <row r="565" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B565" s="55"/>
     </row>
-    <row r="566" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B566" s="55"/>
     </row>
-    <row r="567" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B567" s="55"/>
     </row>
-    <row r="568" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B568" s="55"/>
     </row>
-    <row r="569" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B569" s="55"/>
     </row>
-    <row r="570" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B570" s="55"/>
     </row>
-    <row r="571" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B571" s="55"/>
     </row>
-    <row r="572" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B572" s="55"/>
     </row>
-    <row r="573" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B573" s="55"/>
     </row>
-    <row r="574" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B574" s="55"/>
     </row>
-    <row r="575" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B575" s="55"/>
     </row>
-    <row r="576" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B576" s="55"/>
     </row>
-    <row r="577" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B577" s="55"/>
     </row>
-    <row r="578" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B578" s="55"/>
     </row>
-    <row r="579" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B579" s="55"/>
     </row>
-    <row r="580" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B580" s="55"/>
     </row>
-    <row r="581" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B581" s="55"/>
     </row>
-    <row r="582" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B582" s="55"/>
     </row>
-    <row r="583" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B583" s="55"/>
     </row>
-    <row r="584" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B584" s="55"/>
     </row>
-    <row r="585" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B585" s="55"/>
     </row>
-    <row r="586" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B586" s="55"/>
     </row>
-    <row r="587" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B587" s="55"/>
     </row>
-    <row r="588" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B588" s="55"/>
     </row>
-    <row r="589" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B589" s="55"/>
     </row>
-    <row r="590" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B590" s="55"/>
     </row>
-    <row r="591" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B591" s="55"/>
     </row>
-    <row r="592" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B592" s="55"/>
     </row>
-    <row r="593" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B593" s="55"/>
     </row>
-    <row r="594" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B594" s="55"/>
     </row>
-    <row r="595" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B595" s="55"/>
     </row>
-    <row r="596" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B596" s="55"/>
     </row>
-    <row r="597" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B597" s="55"/>
     </row>
-    <row r="598" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B598" s="55"/>
     </row>
-    <row r="599" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B599" s="55"/>
     </row>
-    <row r="600" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B600" s="55"/>
     </row>
-    <row r="601" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B601" s="55"/>
     </row>
-    <row r="602" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B602" s="55"/>
     </row>
-    <row r="603" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B603" s="55"/>
     </row>
-    <row r="604" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B604" s="55"/>
     </row>
-    <row r="605" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B605" s="55"/>
     </row>
-    <row r="606" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B606" s="55"/>
     </row>
-    <row r="607" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B607" s="55"/>
     </row>
-    <row r="608" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B608" s="55"/>
     </row>
-    <row r="609" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B609" s="55"/>
     </row>
-    <row r="610" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B610" s="55"/>
     </row>
-    <row r="611" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B611" s="55"/>
     </row>
-    <row r="612" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B612" s="55"/>
     </row>
-    <row r="613" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B613" s="55"/>
     </row>
-    <row r="614" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B614" s="55"/>
     </row>
-    <row r="615" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B615" s="55"/>
     </row>
-    <row r="616" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B616" s="55"/>
     </row>
-    <row r="617" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B617" s="55"/>
     </row>
-    <row r="618" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B618" s="55"/>
     </row>
-    <row r="619" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B619" s="55"/>
     </row>
-    <row r="620" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B620" s="55"/>
     </row>
-    <row r="621" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B621" s="55"/>
     </row>
-    <row r="622" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B622" s="55"/>
     </row>
-    <row r="623" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B623" s="55"/>
     </row>
-    <row r="624" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B624" s="55"/>
     </row>
-    <row r="625" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B625" s="55"/>
     </row>
-    <row r="626" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B626" s="55"/>
     </row>
-    <row r="627" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B627" s="55"/>
     </row>
-    <row r="628" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B628" s="55"/>
     </row>
-    <row r="629" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B629" s="55"/>
     </row>
-    <row r="630" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B630" s="55"/>
     </row>
-    <row r="631" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B631" s="55"/>
     </row>
-    <row r="632" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B632" s="55"/>
     </row>
-    <row r="633" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B633" s="55"/>
     </row>
-    <row r="634" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B634" s="55"/>
     </row>
-    <row r="635" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B635" s="55"/>
     </row>
-    <row r="636" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B636" s="55"/>
     </row>
-    <row r="637" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B637" s="55"/>
     </row>
-    <row r="638" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B638" s="55"/>
     </row>
-    <row r="639" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B639" s="55"/>
     </row>
-    <row r="640" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B640" s="55"/>
     </row>
-    <row r="641" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B641" s="55"/>
     </row>
-    <row r="642" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B642" s="55"/>
     </row>
-    <row r="643" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B643" s="55"/>
     </row>
-    <row r="644" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B644" s="55"/>
     </row>
-    <row r="645" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B645" s="55"/>
     </row>
-    <row r="646" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B646" s="55"/>
     </row>
-    <row r="647" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B647" s="55"/>
     </row>
-    <row r="648" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B648" s="55"/>
     </row>
-    <row r="649" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B649" s="55"/>
     </row>
-    <row r="650" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B650" s="55"/>
     </row>
-    <row r="651" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B651" s="55"/>
     </row>
-    <row r="652" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B652" s="55"/>
     </row>
-    <row r="653" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B653" s="55"/>
     </row>
-    <row r="654" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B654" s="55"/>
     </row>
-    <row r="655" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B655" s="55"/>
     </row>
-    <row r="656" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B656" s="55"/>
     </row>
-    <row r="657" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B657" s="55"/>
     </row>
-    <row r="658" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B658" s="55"/>
     </row>
-    <row r="659" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B659" s="55"/>
     </row>
-    <row r="660" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B660" s="55"/>
     </row>
-    <row r="661" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B661" s="55"/>
     </row>
-    <row r="662" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B662" s="55"/>
     </row>
-    <row r="663" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B663" s="55"/>
     </row>
-    <row r="664" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B664" s="55"/>
     </row>
-    <row r="665" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B665" s="55"/>
     </row>
-    <row r="666" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B666" s="55"/>
     </row>
-    <row r="667" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B667" s="55"/>
     </row>
-    <row r="668" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B668" s="55"/>
     </row>
-    <row r="669" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B669" s="55"/>
     </row>
-    <row r="670" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B670" s="55"/>
     </row>
-    <row r="671" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B671" s="55"/>
     </row>
-    <row r="672" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B672" s="55"/>
     </row>
-    <row r="673" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B673" s="55"/>
     </row>
-    <row r="674" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B674" s="55"/>
     </row>
-    <row r="675" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B675" s="55"/>
     </row>
-    <row r="676" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B676" s="55"/>
     </row>
-    <row r="677" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B677" s="55"/>
     </row>
-    <row r="678" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B678" s="55"/>
     </row>
-    <row r="679" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B679" s="55"/>
     </row>
-    <row r="680" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B680" s="55"/>
     </row>
-    <row r="681" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B681" s="55"/>
     </row>
-    <row r="682" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B682" s="55"/>
     </row>
-    <row r="683" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B683" s="55"/>
     </row>
-    <row r="684" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B684" s="55"/>
     </row>
-    <row r="685" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B685" s="55"/>
     </row>
-    <row r="686" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B686" s="55"/>
     </row>
-    <row r="687" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B687" s="55"/>
     </row>
-    <row r="688" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B688" s="55"/>
     </row>
-    <row r="689" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B689" s="55"/>
     </row>
-    <row r="690" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B690" s="55"/>
     </row>
-    <row r="691" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B691" s="55"/>
     </row>
-    <row r="692" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B692" s="55"/>
     </row>
-    <row r="693" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B693" s="55"/>
     </row>
-    <row r="694" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B694" s="55"/>
     </row>
-    <row r="695" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B695" s="55"/>
     </row>
-    <row r="696" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B696" s="55"/>
     </row>
-    <row r="697" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B697" s="55"/>
     </row>
-    <row r="698" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B698" s="55"/>
     </row>
-    <row r="699" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B699" s="55"/>
     </row>
-    <row r="700" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B700" s="55"/>
     </row>
-    <row r="701" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B701" s="55"/>
     </row>
-    <row r="702" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B702" s="55"/>
     </row>
-    <row r="703" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B703" s="55"/>
     </row>
-    <row r="704" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B704" s="55"/>
     </row>
-    <row r="705" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B705" s="55"/>
     </row>
-    <row r="706" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B706" s="55"/>
     </row>
-    <row r="707" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B707" s="55"/>
     </row>
-    <row r="708" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B708" s="55"/>
     </row>
-    <row r="709" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B709" s="55"/>
     </row>
-    <row r="710" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B710" s="55"/>
     </row>
-    <row r="711" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B711" s="55"/>
     </row>
-    <row r="712" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B712" s="55"/>
     </row>
-    <row r="713" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B713" s="55"/>
     </row>
-    <row r="714" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B714" s="55"/>
     </row>
-    <row r="715" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B715" s="55"/>
     </row>
-    <row r="716" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B716" s="55"/>
     </row>
-    <row r="717" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B717" s="55"/>
     </row>
-    <row r="718" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B718" s="55"/>
     </row>
-    <row r="719" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B719" s="55"/>
     </row>
-    <row r="720" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B720" s="55"/>
     </row>
-    <row r="721" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B721" s="55"/>
     </row>
-    <row r="722" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B722" s="55"/>
     </row>
-    <row r="723" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B723" s="55"/>
     </row>
-    <row r="724" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B724" s="55"/>
     </row>
-    <row r="725" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B725" s="55"/>
     </row>
-    <row r="726" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B726" s="55"/>
     </row>
-    <row r="727" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B727" s="55"/>
     </row>
-    <row r="728" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B728" s="55"/>
     </row>
-    <row r="729" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B729" s="55"/>
     </row>
-    <row r="730" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B730" s="55"/>
     </row>
-    <row r="731" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B731" s="55"/>
     </row>
-    <row r="732" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B732" s="55"/>
     </row>
-    <row r="733" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B733" s="55"/>
     </row>
-    <row r="734" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B734" s="55"/>
     </row>
-    <row r="735" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B735" s="55"/>
     </row>
-    <row r="736" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B736" s="55"/>
     </row>
-    <row r="737" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B737" s="55"/>
     </row>
-    <row r="738" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B738" s="55"/>
     </row>
-    <row r="739" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B739" s="55"/>
     </row>
-    <row r="740" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B740" s="55"/>
     </row>
-    <row r="741" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B741" s="55"/>
     </row>
-    <row r="742" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B742" s="55"/>
     </row>
-    <row r="743" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B743" s="55"/>
     </row>
-    <row r="744" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B744" s="55"/>
     </row>
-    <row r="745" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B745" s="55"/>
     </row>
-    <row r="746" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B746" s="55"/>
     </row>
-    <row r="747" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B747" s="55"/>
     </row>
-    <row r="748" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B748" s="55"/>
     </row>
-    <row r="749" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B749" s="55"/>
     </row>
-    <row r="750" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B750" s="55"/>
     </row>
-    <row r="751" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B751" s="55"/>
     </row>
-    <row r="752" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B752" s="55"/>
     </row>
-    <row r="753" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B753" s="55"/>
     </row>
-    <row r="754" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B754" s="55"/>
     </row>
-    <row r="755" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B755" s="55"/>
     </row>
-    <row r="756" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B756" s="55"/>
     </row>
-    <row r="757" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B757" s="55"/>
     </row>
-    <row r="758" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B758" s="55"/>
     </row>
-    <row r="759" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B759" s="55"/>
     </row>
-    <row r="760" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B760" s="55"/>
     </row>
-    <row r="761" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B761" s="55"/>
     </row>
-    <row r="762" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B762" s="55"/>
     </row>
-    <row r="763" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B763" s="55"/>
     </row>
-    <row r="764" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B764" s="55"/>
     </row>
-    <row r="765" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B765" s="55"/>
     </row>
-    <row r="766" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B766" s="55"/>
     </row>
-    <row r="767" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B767" s="55"/>
     </row>
-    <row r="768" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B768" s="55"/>
     </row>
-    <row r="769" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B769" s="55"/>
     </row>
-    <row r="770" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B770" s="55"/>
     </row>
-    <row r="771" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B771" s="55"/>
     </row>
-    <row r="772" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B772" s="55"/>
     </row>
-    <row r="773" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B773" s="55"/>
     </row>
-    <row r="774" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B774" s="55"/>
     </row>
-    <row r="775" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B775" s="55"/>
     </row>
-    <row r="776" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B776" s="55"/>
     </row>
-    <row r="777" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B777" s="55"/>
     </row>
-    <row r="778" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B778" s="55"/>
     </row>
-    <row r="779" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B779" s="55"/>
     </row>
-    <row r="780" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B780" s="55"/>
     </row>
-    <row r="781" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B781" s="55"/>
     </row>
-    <row r="782" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B782" s="55"/>
     </row>
-    <row r="783" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B783" s="55"/>
     </row>
-    <row r="784" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B784" s="55"/>
     </row>
-    <row r="785" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B785" s="55"/>
     </row>
-    <row r="786" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B786" s="55"/>
     </row>
-    <row r="787" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B787" s="55"/>
     </row>
-    <row r="788" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B788" s="55"/>
     </row>
-    <row r="789" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B789" s="55"/>
     </row>
-    <row r="790" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B790" s="55"/>
     </row>
-    <row r="791" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B791" s="55"/>
     </row>
-    <row r="792" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B792" s="55"/>
     </row>
-    <row r="793" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B793" s="55"/>
     </row>
-    <row r="794" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B794" s="55"/>
     </row>
-    <row r="795" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B795" s="55"/>
     </row>
-    <row r="796" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B796" s="55"/>
     </row>
-    <row r="797" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B797" s="55"/>
     </row>
-    <row r="798" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B798" s="55"/>
     </row>
-    <row r="799" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B799" s="55"/>
     </row>
-    <row r="800" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B800" s="55"/>
     </row>
-    <row r="801" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B801" s="55"/>
     </row>
-    <row r="802" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B802" s="55"/>
     </row>
-    <row r="803" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B803" s="55"/>
     </row>
-    <row r="804" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B804" s="55"/>
     </row>
-    <row r="805" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B805" s="55"/>
     </row>
-    <row r="806" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B806" s="55"/>
     </row>
-    <row r="807" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B807" s="55"/>
     </row>
-    <row r="808" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B808" s="55"/>
     </row>
-    <row r="809" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B809" s="55"/>
     </row>
-    <row r="810" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B810" s="55"/>
     </row>
-    <row r="811" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B811" s="55"/>
     </row>
-    <row r="812" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B812" s="55"/>
     </row>
-    <row r="813" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B813" s="55"/>
     </row>
-    <row r="814" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B814" s="55"/>
     </row>
-    <row r="815" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B815" s="55"/>
     </row>
-    <row r="816" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B816" s="55"/>
     </row>
-    <row r="817" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B817" s="55"/>
     </row>
-    <row r="818" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B818" s="55"/>
     </row>
-    <row r="819" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B819" s="55"/>
     </row>
-    <row r="820" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B820" s="55"/>
     </row>
-    <row r="821" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B821" s="55"/>
     </row>
-    <row r="822" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B822" s="55"/>
     </row>
-    <row r="823" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B823" s="55"/>
     </row>
-    <row r="824" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B824" s="55"/>
     </row>
-    <row r="825" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B825" s="55"/>
     </row>
-    <row r="826" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B826" s="55"/>
     </row>
-    <row r="827" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B827" s="55"/>
     </row>
-    <row r="828" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B828" s="55"/>
     </row>
-    <row r="829" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B829" s="55"/>
     </row>
-    <row r="830" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B830" s="55"/>
     </row>
-    <row r="831" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B831" s="55"/>
     </row>
-    <row r="832" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B832" s="55"/>
     </row>
-    <row r="833" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B833" s="55"/>
     </row>
-    <row r="834" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B834" s="55"/>
     </row>
-    <row r="835" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B835" s="55"/>
     </row>
-    <row r="836" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B836" s="55"/>
     </row>
-    <row r="837" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B837" s="55"/>
     </row>
-    <row r="838" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B838" s="55"/>
     </row>
-    <row r="839" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B839" s="55"/>
     </row>
-    <row r="840" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B840" s="55"/>
     </row>
-    <row r="841" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B841" s="55"/>
     </row>
-    <row r="842" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B842" s="55"/>
     </row>
-    <row r="843" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B843" s="55"/>
     </row>
-    <row r="844" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B844" s="55"/>
     </row>
-    <row r="845" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B845" s="55"/>
     </row>
-    <row r="846" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B846" s="55"/>
     </row>
-    <row r="847" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B847" s="55"/>
     </row>
-    <row r="848" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B848" s="55"/>
     </row>
-    <row r="849" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B849" s="55"/>
     </row>
-    <row r="850" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B850" s="55"/>
     </row>
-    <row r="851" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B851" s="55"/>
     </row>
-    <row r="852" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B852" s="55"/>
     </row>
-    <row r="853" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B853" s="55"/>
     </row>
-    <row r="854" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B854" s="55"/>
     </row>
-    <row r="855" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B855" s="55"/>
     </row>
-    <row r="856" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B856" s="55"/>
     </row>
-    <row r="857" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B857" s="55"/>
     </row>
-    <row r="858" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B858" s="55"/>
     </row>
-    <row r="859" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B859" s="55"/>
     </row>
-    <row r="860" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B860" s="55"/>
     </row>
-    <row r="861" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B861" s="55"/>
     </row>
-    <row r="862" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B862" s="55"/>
     </row>
-    <row r="863" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B863" s="55"/>
     </row>
-    <row r="864" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B864" s="55"/>
     </row>
-    <row r="865" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B865" s="55"/>
     </row>
-    <row r="866" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B866" s="55"/>
     </row>
-    <row r="867" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B867" s="55"/>
     </row>
-    <row r="868" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B868" s="55"/>
     </row>
-    <row r="869" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B869" s="55"/>
     </row>
-    <row r="870" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B870" s="55"/>
     </row>
-    <row r="871" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B871" s="55"/>
     </row>
-    <row r="872" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B872" s="55"/>
     </row>
-    <row r="873" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B873" s="55"/>
     </row>
-    <row r="874" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B874" s="55"/>
     </row>
-    <row r="875" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B875" s="55"/>
     </row>
-    <row r="876" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B876" s="55"/>
     </row>
-    <row r="877" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B877" s="55"/>
     </row>
-    <row r="878" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B878" s="55"/>
     </row>
-    <row r="879" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B879" s="55"/>
     </row>
-    <row r="880" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B880" s="55"/>
     </row>
-    <row r="881" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B881" s="55"/>
     </row>
-    <row r="882" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B882" s="55"/>
     </row>
-    <row r="883" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B883" s="55"/>
     </row>
-    <row r="884" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B884" s="55"/>
     </row>
-    <row r="885" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B885" s="55"/>
     </row>
-    <row r="886" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B886" s="55"/>
     </row>
-    <row r="887" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B887" s="55"/>
     </row>
-    <row r="888" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B888" s="55"/>
     </row>
-    <row r="889" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B889" s="55"/>
     </row>
-    <row r="890" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B890" s="55"/>
     </row>
-    <row r="891" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B891" s="55"/>
     </row>
-    <row r="892" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B892" s="55"/>
     </row>
-    <row r="893" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B893" s="55"/>
     </row>
-    <row r="894" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B894" s="55"/>
     </row>
-    <row r="895" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B895" s="55"/>
     </row>
-    <row r="896" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B896" s="55"/>
     </row>
-    <row r="897" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B897" s="55"/>
     </row>
-    <row r="898" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B898" s="55"/>
     </row>
-    <row r="899" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B899" s="55"/>
     </row>
-    <row r="900" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B900" s="55"/>
     </row>
-    <row r="901" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B901" s="55"/>
     </row>
-    <row r="902" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B902" s="55"/>
     </row>
-    <row r="903" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B903" s="55"/>
     </row>
-    <row r="904" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B904" s="55"/>
     </row>
-    <row r="905" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B905" s="55"/>
     </row>
-    <row r="906" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B906" s="55"/>
     </row>
-    <row r="907" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B907" s="55"/>
     </row>
-    <row r="908" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B908" s="55"/>
     </row>
-    <row r="909" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B909" s="55"/>
     </row>
-    <row r="910" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B910" s="55"/>
     </row>
-    <row r="911" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B911" s="55"/>
     </row>
-    <row r="912" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B912" s="55"/>
     </row>
-    <row r="913" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B913" s="55"/>
     </row>
-    <row r="914" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B914" s="55"/>
     </row>
-    <row r="915" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B915" s="55"/>
     </row>
-    <row r="916" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B916" s="55"/>
     </row>
-    <row r="917" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B917" s="55"/>
     </row>
-    <row r="918" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B918" s="55"/>
     </row>
-    <row r="919" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B919" s="55"/>
     </row>
-    <row r="920" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B920" s="55"/>
     </row>
-    <row r="921" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B921" s="55"/>
     </row>
-    <row r="922" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B922" s="55"/>
     </row>
-    <row r="923" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B923" s="55"/>
     </row>
-    <row r="924" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B924" s="55"/>
     </row>
-    <row r="925" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B925" s="55"/>
     </row>
-    <row r="926" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B926" s="55"/>
     </row>
-    <row r="927" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B927" s="55"/>
     </row>
-    <row r="928" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B928" s="55"/>
     </row>
-    <row r="929" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B929" s="55"/>
     </row>
-    <row r="930" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B930" s="55"/>
     </row>
-    <row r="931" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B931" s="55"/>
     </row>
-    <row r="932" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B932" s="55"/>
     </row>
-    <row r="933" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B933" s="55"/>
     </row>
-    <row r="934" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B934" s="55"/>
     </row>
-    <row r="935" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B935" s="55"/>
     </row>
-    <row r="936" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B936" s="55"/>
     </row>
-    <row r="937" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B937" s="55"/>
     </row>
-    <row r="938" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B938" s="55"/>
     </row>
-    <row r="939" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B939" s="55"/>
     </row>
-    <row r="940" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B940" s="55"/>
     </row>
-    <row r="941" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B941" s="55"/>
     </row>
-    <row r="942" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B942" s="55"/>
     </row>
-    <row r="943" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B943" s="55"/>
     </row>
-    <row r="944" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B944" s="55"/>
     </row>
-    <row r="945" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B945" s="55"/>
     </row>
-    <row r="946" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B946" s="55"/>
     </row>
-    <row r="947" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B947" s="55"/>
     </row>
-    <row r="948" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B948" s="55"/>
     </row>
-    <row r="949" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B949" s="55"/>
     </row>
-    <row r="950" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B950" s="55"/>
     </row>
-    <row r="951" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B951" s="55"/>
     </row>
-    <row r="952" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B952" s="55"/>
     </row>
-    <row r="953" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B953" s="55"/>
     </row>
-    <row r="954" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B954" s="55"/>
     </row>
-    <row r="955" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B955" s="55"/>
     </row>
-    <row r="956" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B956" s="55"/>
     </row>
-    <row r="957" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B957" s="55"/>
     </row>
-    <row r="958" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B958" s="55"/>
     </row>
-    <row r="959" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B959" s="55"/>
     </row>
-    <row r="960" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B960" s="55"/>
     </row>
-    <row r="961" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B961" s="55"/>
     </row>
-    <row r="962" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B962" s="55"/>
     </row>
-    <row r="963" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B963" s="55"/>
     </row>
-    <row r="964" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B964" s="55"/>
     </row>
-    <row r="965" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B965" s="55"/>
     </row>
-    <row r="966" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B966" s="55"/>
     </row>
-    <row r="967" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B967" s="55"/>
     </row>
-    <row r="968" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B968" s="55"/>
     </row>
-    <row r="969" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B969" s="55"/>
     </row>
-    <row r="970" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B970" s="55"/>
     </row>
-    <row r="971" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B971" s="55"/>
     </row>
-    <row r="972" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B972" s="55"/>
     </row>
-    <row r="973" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B973" s="55"/>
     </row>
-    <row r="974" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B974" s="55"/>
     </row>
-    <row r="975" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B975" s="55"/>
     </row>
-    <row r="976" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B976" s="55"/>
     </row>
-    <row r="977" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B977" s="55"/>
     </row>
-    <row r="978" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B978" s="55"/>
     </row>
-    <row r="979" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B979" s="55"/>
     </row>
-    <row r="980" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B980" s="55"/>
     </row>
-    <row r="981" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B981" s="55"/>
     </row>
-    <row r="982" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B982" s="55"/>
     </row>
-    <row r="983" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B983" s="55"/>
     </row>
-    <row r="984" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B984" s="55"/>
     </row>
-    <row r="985" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B985" s="55"/>
     </row>
-    <row r="986" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B986" s="55"/>
     </row>
-    <row r="987" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B987" s="55"/>
     </row>
-    <row r="988" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B988" s="55"/>
     </row>
-    <row r="989" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B989" s="55"/>
     </row>
-    <row r="990" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B990" s="55"/>
     </row>
-    <row r="991" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B991" s="55"/>
     </row>
-    <row r="992" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B992" s="55"/>
     </row>
-    <row r="993" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B993" s="55"/>
     </row>
-    <row r="994" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B994" s="55"/>
     </row>
-    <row r="995" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B995" s="55"/>
     </row>
-    <row r="996" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B996" s="55"/>
     </row>
-    <row r="997" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B997" s="55"/>
     </row>
-    <row r="998" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B998" s="55"/>
     </row>
-    <row r="999" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B999" s="55"/>
     </row>
-    <row r="1000" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1000" s="55"/>
     </row>
-    <row r="1001" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1001" s="55"/>
     </row>
-    <row r="1002" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1002" s="55"/>
     </row>
-    <row r="1003" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1003" s="55"/>
     </row>
-    <row r="1004" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1004" s="55"/>
     </row>
-    <row r="1005" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1005" s="55"/>
     </row>
-    <row r="1006" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1006" s="55"/>
     </row>
-    <row r="1007" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1007" s="55"/>
     </row>
-    <row r="1008" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1008" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1008" s="55"/>
     </row>
-    <row r="1009" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1009" s="55"/>
     </row>
-    <row r="1010" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1010" s="55"/>
     </row>
-    <row r="1011" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1011" s="55"/>
     </row>
-    <row r="1012" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1012" s="55"/>
     </row>
-    <row r="1013" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1013" s="55"/>
     </row>
-    <row r="1014" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1014" s="55"/>
     </row>
-    <row r="1015" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1015" s="55"/>
     </row>
-    <row r="1016" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1016" s="55"/>
     </row>
-    <row r="1017" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1017" s="55"/>
     </row>
-    <row r="1018" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1018" s="55"/>
     </row>
-    <row r="1019" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1019" s="55"/>
     </row>
-    <row r="1020" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1020" s="55"/>
     </row>
-    <row r="1021" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1021" s="55"/>
     </row>
-    <row r="1022" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1022" s="55"/>
     </row>
-    <row r="1023" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1023" s="55"/>
     </row>
-    <row r="1024" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1024" s="55"/>
     </row>
-    <row r="1025" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1025" s="55"/>
     </row>
-    <row r="1026" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1026" s="55"/>
     </row>
-    <row r="1027" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1027" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1027" s="55"/>
     </row>
-    <row r="1028" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1028" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1028" s="55"/>
     </row>
-    <row r="1029" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1029" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1029" s="55"/>
     </row>
-    <row r="1030" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1030" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1030" s="55"/>
     </row>
-    <row r="1031" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1031" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1031" s="55"/>
     </row>
-    <row r="1032" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1032" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1032" s="55"/>
     </row>
-    <row r="1033" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1033" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1033" s="55"/>
     </row>
-    <row r="1034" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1034" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1034" s="55"/>
     </row>
-    <row r="1035" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1035" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1035" s="55"/>
     </row>
-    <row r="1036" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1036" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1036" s="55"/>
     </row>
-    <row r="1037" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1037" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1037" s="55"/>
     </row>
-    <row r="1038" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1038" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1038" s="55"/>
     </row>
-    <row r="1039" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1039" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1039" s="55"/>
     </row>
-    <row r="1040" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1040" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1040" s="55"/>
     </row>
-    <row r="1041" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1041" s="55"/>
     </row>
-    <row r="1042" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1042" s="55"/>
     </row>
-    <row r="1043" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1043" s="55"/>
     </row>
-    <row r="1044" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1044" s="55"/>
     </row>
-    <row r="1045" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1045" s="55"/>
     </row>
-    <row r="1046" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1046" s="55"/>
     </row>
-    <row r="1047" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1047" s="55"/>
     </row>
-    <row r="1048" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1048" s="55"/>
     </row>
-    <row r="1049" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1049" s="55"/>
     </row>
-    <row r="1050" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1050" s="55"/>
     </row>
-    <row r="1051" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1051" s="55"/>
     </row>
-    <row r="1052" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1052" s="55"/>
     </row>
-    <row r="1053" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1053" s="55"/>
     </row>
-    <row r="1054" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1054" s="55"/>
     </row>
-    <row r="1055" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1055" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1055" s="55"/>
     </row>
-    <row r="1056" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1056" s="55"/>
     </row>
-    <row r="1057" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1057" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1057" s="55"/>
     </row>
-    <row r="1058" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1058" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1058" s="55"/>
     </row>
-    <row r="1059" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1059" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1059" s="55"/>
     </row>
-    <row r="1060" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1060" s="55"/>
     </row>
-    <row r="1061" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1061" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1061" s="55"/>
     </row>
-    <row r="1062" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1062" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1062" s="55"/>
     </row>
-    <row r="1063" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1063" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1063" s="55"/>
     </row>
-    <row r="1064" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1064" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1064" s="55"/>
     </row>
-    <row r="1065" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1065" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1065" s="55"/>
     </row>
-    <row r="1066" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1066" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1066" s="55"/>
     </row>
-    <row r="1067" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1067" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1067" s="55"/>
     </row>
-    <row r="1068" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1068" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1068" s="55"/>
     </row>
-    <row r="1069" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1069" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1069" s="55"/>
     </row>
-    <row r="1070" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1070" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1070" s="55"/>
     </row>
-    <row r="1071" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1071" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1071" s="55"/>
     </row>
-    <row r="1072" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1072" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1072" s="55"/>
     </row>
-    <row r="1073" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1073" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1073" s="55"/>
     </row>
-    <row r="1074" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1074" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1074" s="55"/>
     </row>
-    <row r="1075" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1075" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1075" s="55"/>
     </row>
-    <row r="1076" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1076" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1076" s="55"/>
     </row>
-    <row r="1077" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1077" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1077" s="55"/>
     </row>
-    <row r="1078" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1078" s="55"/>
     </row>
-    <row r="1079" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1079" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1079" s="55"/>
     </row>
-    <row r="1080" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1080" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1080" s="55"/>
     </row>
-    <row r="1081" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1081" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1081" s="55"/>
     </row>
-    <row r="1082" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1082" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1082" s="55"/>
     </row>
-    <row r="1083" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1083" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1083" s="55"/>
     </row>
-    <row r="1084" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1084" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1084" s="55"/>
     </row>
-    <row r="1085" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1085" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1085" s="55"/>
     </row>
-    <row r="1086" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1086" s="55"/>
     </row>
-    <row r="1087" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1087" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1087" s="55"/>
     </row>
-    <row r="1088" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1088" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1088" s="55"/>
     </row>
-    <row r="1089" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1089" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1089" s="55"/>
     </row>
-    <row r="1090" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1090" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1090" s="55"/>
     </row>
-    <row r="1091" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1091" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1091" s="55"/>
     </row>
-    <row r="1092" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1092" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1092" s="55"/>
     </row>
-    <row r="1093" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1093" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1093" s="55"/>
     </row>
-    <row r="1094" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1094" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1094" s="55"/>
     </row>
-    <row r="1095" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1095" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1095" s="55"/>
     </row>
-    <row r="1096" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1096" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1096" s="55"/>
     </row>
-    <row r="1097" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1097" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1097" s="55"/>
     </row>
-    <row r="1098" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1098" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1098" s="55"/>
     </row>
-    <row r="1099" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1099" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1099" s="55"/>
     </row>
-    <row r="1100" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1100" s="55"/>
     </row>
-    <row r="1101" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1101" s="55"/>
     </row>
-    <row r="1102" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1102" s="55"/>
     </row>
-    <row r="1103" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1103" s="55"/>
     </row>
-    <row r="1104" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1104" s="55"/>
     </row>
-    <row r="1105" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1105" s="55"/>
     </row>
-    <row r="1106" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1106" s="55"/>
     </row>
-    <row r="1107" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1107" s="55"/>
     </row>
-    <row r="1108" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1108" s="55"/>
     </row>
-    <row r="1109" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1109" s="55"/>
     </row>
-    <row r="1110" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1110" s="55"/>
     </row>
-    <row r="1111" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1111" s="55"/>
     </row>
-    <row r="1112" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1112" s="55"/>
     </row>
-    <row r="1113" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1113" s="55"/>
     </row>
-    <row r="1114" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1114" s="55"/>
     </row>
-    <row r="1115" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1115" s="55"/>
     </row>
-    <row r="1116" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1116" s="55"/>
     </row>
-    <row r="1117" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1117" s="55"/>
     </row>
-    <row r="1118" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1118" s="55"/>
     </row>
-    <row r="1119" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1119" s="55"/>
     </row>
-    <row r="1120" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1120" s="55"/>
     </row>
-    <row r="1121" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1121" s="55"/>
     </row>
-    <row r="1122" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1122" s="55"/>
     </row>
-    <row r="1123" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1123" s="55"/>
     </row>
-    <row r="1124" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1124" s="55"/>
     </row>
-    <row r="1125" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1125" s="55"/>
     </row>
-    <row r="1126" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1126" s="55"/>
     </row>
-    <row r="1127" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1127" s="55"/>
     </row>
-    <row r="1128" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1128" s="55"/>
     </row>
-    <row r="1129" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1129" s="55"/>
     </row>
-    <row r="1130" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1130" s="55"/>
     </row>
-    <row r="1131" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1131" s="55"/>
     </row>
-    <row r="1132" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1132" s="55"/>
     </row>
-    <row r="1133" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1133" s="55"/>
     </row>
-    <row r="1134" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1134" s="55"/>
     </row>
-    <row r="1135" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1135" s="55"/>
     </row>
-    <row r="1136" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1136" s="55"/>
     </row>
-    <row r="1137" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1137" s="55"/>
     </row>
-    <row r="1138" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1138" s="55"/>
     </row>
-    <row r="1139" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1139" s="55"/>
     </row>
-    <row r="1140" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1140" s="55"/>
     </row>
-    <row r="1141" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1141" s="55"/>
     </row>
-    <row r="1142" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1142" s="55"/>
     </row>
-    <row r="1143" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1143" s="55"/>
     </row>
-    <row r="1144" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1144" s="55"/>
     </row>
-    <row r="1145" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1145" s="55"/>
     </row>
-    <row r="1146" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1146" s="55"/>
     </row>
-    <row r="1147" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1147" s="55"/>
     </row>
-    <row r="1148" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1148" s="55"/>
     </row>
-    <row r="1149" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1149" s="55"/>
     </row>
-    <row r="1150" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1150" s="55"/>
     </row>
-    <row r="1151" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1151" s="55"/>
     </row>
-    <row r="1152" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1152" s="55"/>
     </row>
-    <row r="1153" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1153" s="55"/>
     </row>
-    <row r="1154" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1154" s="55"/>
     </row>
-    <row r="1155" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1155" s="55"/>
     </row>
-    <row r="1156" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1156" s="55"/>
     </row>
-    <row r="1157" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1157" s="55"/>
     </row>
-    <row r="1158" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1158" s="55"/>
     </row>
-    <row r="1159" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1159" s="55"/>
     </row>
-    <row r="1160" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1160" s="55"/>
     </row>
-    <row r="1161" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1161" s="55"/>
     </row>
-    <row r="1162" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1162" s="55"/>
     </row>
-    <row r="1163" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1163" s="55"/>
     </row>
-    <row r="1164" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1164" s="55"/>
     </row>
-    <row r="1165" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1165" s="55"/>
     </row>
-    <row r="1166" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1166" s="55"/>
     </row>
-    <row r="1167" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1167" s="55"/>
     </row>
-    <row r="1168" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1168" s="55"/>
     </row>
-    <row r="1169" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1169" s="55"/>
     </row>
-    <row r="1170" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1170" s="55"/>
     </row>
-    <row r="1171" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1171" s="55"/>
     </row>
-    <row r="1172" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1172" s="55"/>
     </row>
-    <row r="1173" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1173" s="55"/>
     </row>
-    <row r="1174" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1174" s="55"/>
     </row>
-    <row r="1175" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1175" s="55"/>
     </row>
-    <row r="1176" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1176" s="55"/>
     </row>
-    <row r="1177" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1177" s="55"/>
     </row>
-    <row r="1178" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1178" s="55"/>
     </row>
-    <row r="1179" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1179" s="55"/>
     </row>
-    <row r="1180" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1180" s="55"/>
     </row>
-    <row r="1181" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1181" s="55"/>
     </row>
-    <row r="1182" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1182" s="55"/>
     </row>
-    <row r="1183" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1183" s="55"/>
     </row>
-    <row r="1184" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1184" s="55"/>
     </row>
-    <row r="1185" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1185" s="55"/>
     </row>
-    <row r="1186" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1186" s="55"/>
     </row>
-    <row r="1187" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1187" s="55"/>
     </row>
-    <row r="1188" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1188" s="55"/>
     </row>
-    <row r="1189" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1189" s="55"/>
     </row>
-    <row r="1190" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1190" s="55"/>
     </row>
-    <row r="1191" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1191" s="55"/>
     </row>
-    <row r="1192" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1192" s="55"/>
     </row>
-    <row r="1193" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1193" s="55"/>
     </row>
-    <row r="1194" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1194" s="55"/>
     </row>
-    <row r="1195" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1195" s="55"/>
     </row>
-    <row r="1196" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1196" s="55"/>
     </row>
-    <row r="1197" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1197" s="55"/>
     </row>
-    <row r="1198" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1198" s="55"/>
     </row>
-    <row r="1199" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1199" s="55"/>
     </row>
-    <row r="1200" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1200" s="55"/>
     </row>
-    <row r="1201" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1201" s="55"/>
     </row>
-    <row r="1202" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1202" s="55"/>
     </row>
-    <row r="1203" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1203" s="55"/>
     </row>
-    <row r="1204" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1204" s="55"/>
     </row>
-    <row r="1205" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1205" s="55"/>
     </row>
-    <row r="1206" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1206" s="55"/>
     </row>
-    <row r="1207" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1207" s="55"/>
     </row>
-    <row r="1208" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1208" s="55"/>
     </row>
-    <row r="1209" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1209" s="55"/>
     </row>
-    <row r="1210" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1210" s="55"/>
     </row>
-    <row r="1211" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1211" s="55"/>
     </row>
-    <row r="1212" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1212" s="55"/>
     </row>
-    <row r="1213" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1213" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1213" s="55"/>
     </row>
-    <row r="1214" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1214" s="55"/>
     </row>
-    <row r="1215" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1215" s="55"/>
     </row>
-    <row r="1216" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1216" s="55"/>
     </row>
-    <row r="1217" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1217" s="55"/>
     </row>
-    <row r="1218" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1218" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1218" s="55"/>
     </row>
-    <row r="1219" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1219" s="55"/>
     </row>
-    <row r="1220" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1220" s="55"/>
     </row>
-    <row r="1221" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1221" s="55"/>
     </row>
-    <row r="1222" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1222" s="55"/>
     </row>
-    <row r="1223" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1223" s="55"/>
     </row>
-    <row r="1224" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1224" s="55"/>
     </row>
-    <row r="1225" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1225" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1225" s="55"/>
     </row>
-    <row r="1226" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1226" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1226" s="55"/>
     </row>
-    <row r="1227" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1227" s="55"/>
     </row>
-    <row r="1228" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1228" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1228" s="55"/>
     </row>
-    <row r="1229" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1229" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1229" s="55"/>
     </row>
-    <row r="1230" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1230" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1230" s="55"/>
     </row>
-    <row r="1231" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1231" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1231" s="55"/>
     </row>
-    <row r="1232" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1232" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1232" s="55"/>
     </row>
-    <row r="1233" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1233" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1233" s="55"/>
     </row>
-    <row r="1234" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1234" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1234" s="55"/>
     </row>
-    <row r="1235" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1235" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1235" s="55"/>
     </row>
-    <row r="1236" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1236" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1236" s="55"/>
     </row>
-    <row r="1237" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1237" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1237" s="55"/>
     </row>
-    <row r="1238" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1238" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1238" s="55"/>
     </row>
-    <row r="1239" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1239" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1239" s="55"/>
     </row>
-    <row r="1240" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1240" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1240" s="55"/>
     </row>
-    <row r="1241" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1241" s="55"/>
     </row>
-    <row r="1242" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1242" s="55"/>
     </row>
-    <row r="1243" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1243" s="55"/>
     </row>
-    <row r="1244" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1244" s="55"/>
     </row>
-    <row r="1245" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1245" s="55"/>
     </row>
-    <row r="1246" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1246" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1246" s="55"/>
     </row>
-    <row r="1247" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1247" s="55"/>
     </row>
-    <row r="1248" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1248" s="55"/>
     </row>
-    <row r="1249" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1249" s="55"/>
     </row>
-    <row r="1250" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1250" s="55"/>
     </row>
-    <row r="1251" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1251" s="55"/>
     </row>
-    <row r="1252" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1252" s="55"/>
     </row>
-    <row r="1253" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1253" s="55"/>
     </row>
-    <row r="1254" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1254" s="55"/>
     </row>
-    <row r="1255" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1255" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1255" s="55"/>
     </row>
-    <row r="1256" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1256" s="55"/>
     </row>
-    <row r="1257" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1257" s="55"/>
     </row>
-    <row r="1258" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1258" s="55"/>
     </row>
-    <row r="1259" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1259" s="55"/>
     </row>
-    <row r="1260" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1260" s="55"/>
     </row>
-    <row r="1261" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1261" s="55"/>
     </row>
-    <row r="1262" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1262" s="55"/>
     </row>
-    <row r="1263" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1263" s="55"/>
     </row>
-    <row r="1264" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1264" s="55"/>
     </row>
-    <row r="1265" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1265" s="55"/>
     </row>
-    <row r="1266" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1266" s="55"/>
     </row>
-    <row r="1267" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1267" s="55"/>
     </row>
-    <row r="1268" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1268" s="55"/>
     </row>
-    <row r="1269" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1269" s="55"/>
     </row>
-    <row r="1270" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1270" s="55"/>
     </row>
-    <row r="1271" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1271" s="55"/>
     </row>
-    <row r="1272" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1272" s="55"/>
     </row>
-    <row r="1273" spans="2:2" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1273" s="55"/>
     </row>
-    <row r="1274" spans="2:2" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1274" s="55"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D189">
-    <sortCondition ref="B2:B189"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D197">
+    <sortCondition ref="B2:B197"/>
   </sortState>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12395,9 +12395,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -12422,7 +12422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -12548,12 +12548,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100394901649B02EC40AECEE74373C2BCFB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c548092ed7ffde5bf55cdde70e885909">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0a610d30-47f5-48fa-993a-ebd5f6c01eb5" xmlns:ns4="8ef9ae36-75f4-4361-98b4-d13e7bd566ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="311fce01ccce723253d76312a734f73f" ns3:_="" ns4:_="">
     <xsd:import namespace="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
@@ -12776,6 +12770,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFFBAE0-186B-4BB1-AA49-34BDB2C855C9}">
   <ds:schemaRefs>
@@ -12785,23 +12785,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FAEDB7-EEDB-4ADF-A034-0DBEE0DF51C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D5E42A-DB13-41EF-BF50-8CA2F680B9CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12818,4 +12801,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FAEDB7-EEDB-4ADF-A034-0DBEE0DF51C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8ef9ae36-75f4-4361-98b4-d13e7bd566ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0a610d30-47f5-48fa-993a-ebd5f6c01eb5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>